--- a/Wonderful-VN-test-case-final-version-1.6.xlsx
+++ b/Wonderful-VN-test-case-final-version-1.6.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="66" documentId="11_4BEE42EEB337FB22F90CD5627BC9632CE9FDF005" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E4DB259-7A27-468A-B113-E24ECE7803D1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -3869,25 +3869,73 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3906,72 +3954,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3981,11 +3985,271 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4027,114 +4291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4142,156 +4304,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4327,31 +4339,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4360,6 +4372,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4377,57 +4428,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4980,56 +4980,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="N1" s="115" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="N1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
     </row>
     <row r="9" spans="1:16" ht="28.2">
       <c r="A9" s="1"/>
@@ -5037,26 +5037,26 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:16" ht="22.8">
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
     </row>
     <row r="11" spans="1:16">
       <c r="F11" s="3"/>
@@ -5073,129 +5073,129 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:16" ht="13.8">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
     </row>
     <row r="14" spans="1:16" ht="13.8">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122" t="s">
+      <c r="E14" s="124"/>
+      <c r="F14" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122" t="s">
+      <c r="G14" s="124"/>
+      <c r="H14" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122" t="s">
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122" t="s">
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
     </row>
     <row r="15" spans="1:16" ht="13.8">
-      <c r="B15" s="119">
+      <c r="B15" s="113">
         <v>43908</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120" t="s">
+      <c r="C15" s="113"/>
+      <c r="D15" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="123" t="s">
+      <c r="E15" s="119"/>
+      <c r="F15" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124" t="s">
+      <c r="G15" s="112"/>
+      <c r="H15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124" t="s">
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124" t="s">
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
     </row>
     <row r="16" spans="1:16" ht="13.8">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
     </row>
     <row r="17" spans="2:13" ht="13.8">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122" t="s">
+      <c r="C17" s="124"/>
+      <c r="D17" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122" t="s">
+      <c r="E17" s="124"/>
+      <c r="F17" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122" t="s">
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
     </row>
     <row r="18" spans="2:13" ht="13.8">
-      <c r="B18" s="119">
+      <c r="B18" s="113">
         <v>43908</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120" t="s">
+      <c r="C18" s="113"/>
+      <c r="D18" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="119"/>
       <c r="F18" s="109" t="s">
         <v>16</v>
       </c>
@@ -5210,14 +5210,14 @@
       <c r="M18" s="111"/>
     </row>
     <row r="19" spans="2:13" ht="13.8">
-      <c r="B19" s="119">
+      <c r="B19" s="113">
         <v>43910</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="126">
+      <c r="C19" s="113"/>
+      <c r="D19" s="125">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E19" s="126"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="109" t="s">
         <v>16</v>
       </c>
@@ -5232,14 +5232,14 @@
       <c r="M19" s="111"/>
     </row>
     <row r="20" spans="2:13" ht="13.8">
-      <c r="B20" s="119">
+      <c r="B20" s="113">
         <v>43912</v>
       </c>
-      <c r="C20" s="119"/>
-      <c r="D20" s="126">
+      <c r="C20" s="113"/>
+      <c r="D20" s="125">
         <v>1.2</v>
       </c>
-      <c r="E20" s="126"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="109" t="s">
         <v>16</v>
       </c>
@@ -5254,14 +5254,14 @@
       <c r="M20" s="111"/>
     </row>
     <row r="21" spans="2:13" ht="13.8">
-      <c r="B21" s="119">
+      <c r="B21" s="113">
         <v>43913</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="126">
+      <c r="C21" s="113"/>
+      <c r="D21" s="125">
         <v>1.3</v>
       </c>
-      <c r="E21" s="126"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="109" t="s">
         <v>16</v>
       </c>
@@ -5276,14 +5276,14 @@
       <c r="M21" s="111"/>
     </row>
     <row r="22" spans="2:13" ht="13.8">
-      <c r="B22" s="119">
+      <c r="B22" s="113">
         <v>43914</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="126">
+      <c r="C22" s="113"/>
+      <c r="D22" s="125">
         <v>1.4</v>
       </c>
-      <c r="E22" s="126"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="109" t="s">
         <v>16</v>
       </c>
@@ -5298,14 +5298,14 @@
       <c r="M22" s="111"/>
     </row>
     <row r="23" spans="2:13" ht="13.8">
-      <c r="B23" s="127">
+      <c r="B23" s="107">
         <v>43915</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="126">
+      <c r="C23" s="108"/>
+      <c r="D23" s="125">
         <v>1.5</v>
       </c>
-      <c r="E23" s="126"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="109" t="s">
         <v>483</v>
       </c>
@@ -5320,14 +5320,14 @@
       <c r="M23" s="111"/>
     </row>
     <row r="24" spans="2:13" ht="13.8">
-      <c r="B24" s="127">
+      <c r="B24" s="107">
         <v>43916</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="126">
+      <c r="C24" s="108"/>
+      <c r="D24" s="125">
         <v>1.6</v>
       </c>
-      <c r="E24" s="126"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="109" t="s">
         <v>484</v>
       </c>
@@ -5342,312 +5342,237 @@
       <c r="M24" s="111"/>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" ht="13.8">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129" t="s">
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129" t="s">
+      <c r="F25" s="123"/>
+      <c r="G25" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" ht="13.8">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122" t="s">
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122" t="s">
+      <c r="J26" s="124"/>
+      <c r="K26" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
     </row>
     <row r="27" spans="2:13" s="1" customFormat="1" ht="14.4">
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" ht="14.4">
-      <c r="B28" s="130"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
     </row>
     <row r="29" spans="2:13" ht="13.8">
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
     </row>
     <row r="30" spans="2:13" ht="13.8">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134" t="s">
+      <c r="C30" s="122"/>
+      <c r="D30" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134" t="s">
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="134"/>
+      <c r="H30" s="122"/>
     </row>
     <row r="31" spans="2:13" ht="13.8">
-      <c r="B31" s="119">
+      <c r="B31" s="113">
         <v>43908</v>
       </c>
-      <c r="C31" s="119"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="109" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="110"/>
       <c r="F31" s="111"/>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="114" t="s">
         <v>488</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="115"/>
     </row>
     <row r="32" spans="2:13" ht="13.8" customHeight="1">
-      <c r="B32" s="119">
+      <c r="B32" s="113">
         <v>43910</v>
       </c>
-      <c r="C32" s="119"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="109" t="s">
         <v>485</v>
       </c>
       <c r="E32" s="110"/>
       <c r="F32" s="111"/>
-      <c r="G32" s="112" t="s">
+      <c r="G32" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="H32" s="113"/>
+      <c r="H32" s="115"/>
     </row>
     <row r="33" spans="2:8" ht="13.8" customHeight="1">
-      <c r="B33" s="119">
+      <c r="B33" s="113">
         <v>43912</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="109" t="s">
         <v>485</v>
       </c>
       <c r="E33" s="110"/>
       <c r="F33" s="111"/>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="114" t="s">
         <v>489</v>
       </c>
-      <c r="H33" s="113"/>
+      <c r="H33" s="115"/>
     </row>
     <row r="34" spans="2:8" ht="13.8" customHeight="1">
-      <c r="B34" s="119">
+      <c r="B34" s="113">
         <v>43913</v>
       </c>
-      <c r="C34" s="119"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="109" t="s">
         <v>486</v>
       </c>
       <c r="E34" s="110"/>
       <c r="F34" s="111"/>
-      <c r="G34" s="112" t="s">
+      <c r="G34" s="114" t="s">
         <v>490</v>
       </c>
-      <c r="H34" s="113"/>
+      <c r="H34" s="115"/>
     </row>
     <row r="35" spans="2:8" ht="13.8" customHeight="1">
-      <c r="B35" s="119">
+      <c r="B35" s="113">
         <v>43914</v>
       </c>
-      <c r="C35" s="119"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="109" t="s">
         <v>485</v>
       </c>
       <c r="E35" s="110"/>
       <c r="F35" s="111"/>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="114" t="s">
         <v>492</v>
       </c>
-      <c r="H35" s="113"/>
+      <c r="H35" s="115"/>
     </row>
     <row r="36" spans="2:8" ht="13.8">
-      <c r="B36" s="127">
+      <c r="B36" s="107">
         <v>43915</v>
       </c>
-      <c r="C36" s="128"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="109" t="s">
         <v>486</v>
       </c>
       <c r="E36" s="110"/>
       <c r="F36" s="111"/>
-      <c r="G36" s="112" t="s">
+      <c r="G36" s="114" t="s">
         <v>494</v>
       </c>
-      <c r="H36" s="113"/>
+      <c r="H36" s="115"/>
     </row>
     <row r="37" spans="2:8" ht="13.8">
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="109" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="110"/>
       <c r="F37" s="111"/>
-      <c r="G37" s="112" t="s">
+      <c r="G37" s="114" t="s">
         <v>493</v>
       </c>
-      <c r="H37" s="113"/>
+      <c r="H37" s="115"/>
     </row>
     <row r="38" spans="2:8" ht="13.8">
-      <c r="B38" s="127">
+      <c r="B38" s="107">
         <v>43916</v>
       </c>
-      <c r="C38" s="128"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="109" t="s">
         <v>485</v>
       </c>
       <c r="E38" s="110"/>
       <c r="F38" s="111"/>
-      <c r="G38" s="123" t="s">
+      <c r="G38" s="112" t="s">
         <v>495</v>
       </c>
-      <c r="H38" s="123"/>
+      <c r="H38" s="112"/>
     </row>
     <row r="39" spans="2:8" ht="13.8">
-      <c r="B39" s="127"/>
-      <c r="C39" s="128"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="109" t="s">
         <v>486</v>
       </c>
       <c r="E39" s="110"/>
       <c r="F39" s="111"/>
-      <c r="G39" s="123" t="s">
+      <c r="G39" s="112" t="s">
         <v>496</v>
       </c>
-      <c r="H39" s="123"/>
+      <c r="H39" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:H37"/>
@@ -5664,6 +5589,81 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5673,8 +5673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -5684,386 +5684,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
     </row>
     <row r="4" spans="1:15" ht="13.8">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
     </row>
     <row r="5" spans="1:15" ht="13.8">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" customHeight="1">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="293" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="140"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="137"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="135" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="135" t="s">
+      <c r="C8" s="136"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="135" t="s">
+      <c r="C9" s="136"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="135" t="s">
+      <c r="C10" s="136"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="135" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
     </row>
     <row r="14" spans="1:15" ht="13.8">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143" t="s">
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="137" t="s">
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="137" t="s">
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="137" t="s">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="137" t="s">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="137" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="137" t="s">
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E8:O8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E16:O16"/>
+    <mergeCell ref="E9:O9"/>
+    <mergeCell ref="E21:O21"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E13:O13"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="E15:O15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="E6:O6"/>
     <mergeCell ref="E7:O7"/>
     <mergeCell ref="B9:D9"/>
@@ -6080,26 +6100,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E11:O11"/>
     <mergeCell ref="E12:O12"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="E5:O5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E8:O8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E16:O16"/>
-    <mergeCell ref="E9:O9"/>
-    <mergeCell ref="E21:O21"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E13:O13"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="E15:O15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6111,9 +6111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:C90"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" outlineLevelRow="3"/>
@@ -6132,16 +6132,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" customHeight="1">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="212" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="13"/>
@@ -6214,130 +6214,130 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.6">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="219" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="169" t="s">
+      <c r="D7" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="201" t="s">
+      <c r="E7" s="215" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="169" t="s">
+      <c r="H7" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="217" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="16.2" thickBot="1">
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="202"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="204"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="218"/>
     </row>
     <row r="9" spans="2:9" ht="45" customHeight="1" outlineLevel="1">
-      <c r="B9" s="224" t="s">
+      <c r="B9" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="177" t="s">
+      <c r="D9" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="228" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="171" t="s">
+      <c r="G9" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="171" t="s">
+      <c r="H9" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="173" t="s">
+      <c r="I9" s="226" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="13.2" customHeight="1" outlineLevel="1">
-      <c r="B10" s="225"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="176"/>
+      <c r="B10" s="222"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="205"/>
       <c r="F10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="174"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="227"/>
     </row>
     <row r="11" spans="2:9" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="B11" s="225"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="182" t="s">
+      <c r="B11" s="222"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="184" t="s">
+      <c r="E11" s="204" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="188" t="s">
+      <c r="G11" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="188" t="s">
+      <c r="H11" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="185" t="s">
+      <c r="I11" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="B12" s="225"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="184"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="204"/>
       <c r="F12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="186"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="159"/>
     </row>
     <row r="13" spans="2:9" ht="37.200000000000003" customHeight="1" outlineLevel="1">
-      <c r="B13" s="225"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="176"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="205"/>
       <c r="F13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="187"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="2:9" ht="28.8" outlineLevel="2">
-      <c r="B14" s="225"/>
-      <c r="C14" s="199" t="s">
+      <c r="B14" s="222"/>
+      <c r="C14" s="200" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="104" t="s">
@@ -6360,990 +6360,990 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B15" s="225"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="182" t="s">
+      <c r="B15" s="222"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="192" t="s">
+      <c r="E15" s="203" t="s">
         <v>81</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="193" t="s">
+      <c r="G15" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="193" t="s">
+      <c r="H15" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="185" t="s">
+      <c r="I15" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B16" s="225"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="184"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="204"/>
       <c r="F16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="186"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="159"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B17" s="225"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="184"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="204"/>
       <c r="F17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="186"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="159"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B18" s="225"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="184"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="204"/>
       <c r="F18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="186"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="159"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B19" s="225"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="184"/>
+      <c r="B19" s="222"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="204"/>
       <c r="F19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="186"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="159"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B20" s="225"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="184"/>
+      <c r="B20" s="222"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="204"/>
       <c r="F20" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="186"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="159"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" outlineLevel="3">
-      <c r="B21" s="225"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="184"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="204"/>
       <c r="F21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="186"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="159"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B22" s="225"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
+      <c r="B22" s="222"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="204"/>
       <c r="F22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="186"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="159"/>
     </row>
     <row r="23" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B23" s="225"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="204"/>
       <c r="F23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="186"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="159"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" outlineLevel="3">
-      <c r="B24" s="225"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
+      <c r="B24" s="222"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="204"/>
       <c r="F24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="186"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="159"/>
     </row>
     <row r="25" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B25" s="225"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="176"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="205"/>
       <c r="F25" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="187"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="186"/>
     </row>
     <row r="26" spans="2:9" ht="30.75" customHeight="1" outlineLevel="2">
-      <c r="B26" s="225"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="182" t="s">
+      <c r="B26" s="222"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="191" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="192" t="s">
+      <c r="E26" s="203" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="193" t="s">
+      <c r="G26" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="193" t="s">
+      <c r="H26" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="185" t="s">
+      <c r="I26" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B27" s="225"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="184"/>
+      <c r="B27" s="222"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="204"/>
       <c r="F27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="186"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="159"/>
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B28" s="225"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
+      <c r="B28" s="222"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="204"/>
       <c r="F28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="186"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="159"/>
     </row>
     <row r="29" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B29" s="225"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
+      <c r="B29" s="222"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="204"/>
       <c r="F29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="186"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="159"/>
     </row>
     <row r="30" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B30" s="225"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="184"/>
+      <c r="B30" s="222"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="186"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="159"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B31" s="225"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="184"/>
+      <c r="B31" s="222"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="204"/>
       <c r="F31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="186"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="159"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B32" s="225"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="184"/>
+      <c r="B32" s="222"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="204"/>
       <c r="F32" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="186"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="159"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B33" s="225"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="184"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="204"/>
       <c r="F33" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="186"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="159"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B34" s="225"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="184"/>
+      <c r="B34" s="222"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="204"/>
       <c r="F34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="186"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="159"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B35" s="225"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="176"/>
+      <c r="B35" s="222"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="205"/>
       <c r="F35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="187"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="186"/>
     </row>
     <row r="36" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B36" s="225"/>
-      <c r="C36" s="180"/>
-      <c r="D36" s="182" t="s">
+      <c r="B36" s="222"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="192" t="s">
+      <c r="E36" s="203" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="193" t="s">
+      <c r="G36" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="193" t="s">
+      <c r="H36" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="185" t="s">
+      <c r="I36" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B37" s="225"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
+      <c r="B37" s="222"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="204"/>
       <c r="F37" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="186"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="159"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B38" s="225"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="184"/>
+      <c r="B38" s="222"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="204"/>
       <c r="F38" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="186"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="159"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B39" s="225"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="184"/>
+      <c r="B39" s="222"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="204"/>
       <c r="F39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="186"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="159"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B40" s="225"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="184"/>
+      <c r="B40" s="222"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="204"/>
       <c r="F40" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="186"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="159"/>
     </row>
     <row r="41" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B41" s="225"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="184"/>
+      <c r="B41" s="222"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="204"/>
       <c r="F41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="186"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="159"/>
     </row>
     <row r="42" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B42" s="225"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="184"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="204"/>
       <c r="F42" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="186"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="159"/>
     </row>
     <row r="43" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B43" s="225"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="184"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="172"/>
+      <c r="E43" s="204"/>
       <c r="F43" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="186"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="159"/>
     </row>
     <row r="44" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B44" s="225"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
+      <c r="B44" s="222"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="204"/>
       <c r="F44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="186"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="159"/>
     </row>
     <row r="45" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B45" s="225"/>
-      <c r="C45" s="180"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="184"/>
+      <c r="B45" s="222"/>
+      <c r="C45" s="193"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="204"/>
       <c r="F45" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="186"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="159"/>
     </row>
     <row r="46" spans="2:9" ht="25.5" customHeight="1" outlineLevel="3">
-      <c r="B46" s="225"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="176"/>
+      <c r="B46" s="222"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="205"/>
       <c r="F46" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="187"/>
+      <c r="G46" s="184"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="186"/>
     </row>
     <row r="47" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B47" s="225"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="182" t="s">
+      <c r="B47" s="222"/>
+      <c r="C47" s="193"/>
+      <c r="D47" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="192" t="s">
+      <c r="E47" s="203" t="s">
         <v>106</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="193" t="s">
+      <c r="G47" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="H47" s="193" t="s">
+      <c r="H47" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="185" t="s">
+      <c r="I47" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B48" s="225"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="184"/>
+      <c r="B48" s="222"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="204"/>
       <c r="F48" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="194"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="186"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="159"/>
     </row>
     <row r="49" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B49" s="225"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
+      <c r="B49" s="222"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="204"/>
       <c r="F49" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="186"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="159"/>
     </row>
     <row r="50" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B50" s="225"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
+      <c r="B50" s="222"/>
+      <c r="C50" s="193"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="204"/>
       <c r="F50" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="186"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="159"/>
     </row>
     <row r="51" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B51" s="225"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="184"/>
+      <c r="B51" s="222"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="204"/>
       <c r="F51" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="186"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="159"/>
     </row>
     <row r="52" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B52" s="225"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="183"/>
-      <c r="E52" s="184"/>
+      <c r="B52" s="222"/>
+      <c r="C52" s="193"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="204"/>
       <c r="F52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="186"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="159"/>
     </row>
     <row r="53" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B53" s="225"/>
-      <c r="C53" s="180"/>
-      <c r="D53" s="183"/>
-      <c r="E53" s="184"/>
+      <c r="B53" s="222"/>
+      <c r="C53" s="193"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="204"/>
       <c r="F53" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="194"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="186"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="159"/>
     </row>
     <row r="54" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B54" s="225"/>
-      <c r="C54" s="180"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="184"/>
+      <c r="B54" s="222"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="204"/>
       <c r="F54" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="194"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="186"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="159"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B55" s="225"/>
-      <c r="C55" s="180"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="184"/>
+      <c r="B55" s="222"/>
+      <c r="C55" s="193"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="204"/>
       <c r="F55" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="194"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="186"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="159"/>
     </row>
     <row r="56" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B56" s="225"/>
-      <c r="C56" s="180"/>
-      <c r="D56" s="183"/>
-      <c r="E56" s="184"/>
+      <c r="B56" s="222"/>
+      <c r="C56" s="193"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="204"/>
       <c r="F56" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="186"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="159"/>
     </row>
     <row r="57" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B57" s="225"/>
-      <c r="C57" s="180"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="176"/>
+      <c r="B57" s="222"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="205"/>
       <c r="F57" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
-      <c r="I57" s="187"/>
+      <c r="G57" s="184"/>
+      <c r="H57" s="184"/>
+      <c r="I57" s="186"/>
     </row>
     <row r="58" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B58" s="225"/>
-      <c r="C58" s="180"/>
-      <c r="D58" s="182" t="s">
+      <c r="B58" s="222"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="192" t="s">
+      <c r="E58" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G58" s="193" t="s">
+      <c r="G58" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="193" t="s">
+      <c r="H58" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="185" t="s">
+      <c r="I58" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B59" s="225"/>
-      <c r="C59" s="180"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="184"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="204"/>
       <c r="F59" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G59" s="194"/>
-      <c r="H59" s="194"/>
-      <c r="I59" s="186"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="159"/>
     </row>
     <row r="60" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B60" s="225"/>
-      <c r="C60" s="180"/>
-      <c r="D60" s="183"/>
-      <c r="E60" s="184"/>
+      <c r="B60" s="222"/>
+      <c r="C60" s="193"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="204"/>
       <c r="F60" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="186"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="159"/>
     </row>
     <row r="61" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B61" s="225"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="183"/>
-      <c r="E61" s="184"/>
+      <c r="B61" s="222"/>
+      <c r="C61" s="193"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="204"/>
       <c r="F61" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="194"/>
-      <c r="H61" s="194"/>
-      <c r="I61" s="186"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="159"/>
     </row>
     <row r="62" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B62" s="225"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="183"/>
-      <c r="E62" s="184"/>
+      <c r="B62" s="222"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="172"/>
+      <c r="E62" s="204"/>
       <c r="F62" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G62" s="194"/>
-      <c r="H62" s="194"/>
-      <c r="I62" s="186"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="159"/>
     </row>
     <row r="63" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B63" s="225"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="183"/>
-      <c r="E63" s="184"/>
+      <c r="B63" s="222"/>
+      <c r="C63" s="193"/>
+      <c r="D63" s="172"/>
+      <c r="E63" s="204"/>
       <c r="F63" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="194"/>
-      <c r="H63" s="194"/>
-      <c r="I63" s="186"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="159"/>
     </row>
     <row r="64" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B64" s="225"/>
-      <c r="C64" s="180"/>
-      <c r="D64" s="183"/>
-      <c r="E64" s="184"/>
+      <c r="B64" s="222"/>
+      <c r="C64" s="193"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="204"/>
       <c r="F64" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="194"/>
-      <c r="H64" s="194"/>
-      <c r="I64" s="186"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="159"/>
     </row>
     <row r="65" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B65" s="225"/>
-      <c r="C65" s="180"/>
-      <c r="D65" s="183"/>
-      <c r="E65" s="184"/>
+      <c r="B65" s="222"/>
+      <c r="C65" s="193"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="204"/>
       <c r="F65" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="194"/>
-      <c r="H65" s="194"/>
-      <c r="I65" s="186"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="159"/>
     </row>
     <row r="66" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B66" s="225"/>
-      <c r="C66" s="180"/>
-      <c r="D66" s="183"/>
-      <c r="E66" s="184"/>
+      <c r="B66" s="222"/>
+      <c r="C66" s="193"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="204"/>
       <c r="F66" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G66" s="194"/>
-      <c r="H66" s="194"/>
-      <c r="I66" s="186"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="159"/>
     </row>
     <row r="67" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B67" s="225"/>
-      <c r="C67" s="180"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="184"/>
+      <c r="B67" s="222"/>
+      <c r="C67" s="193"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="204"/>
       <c r="F67" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G67" s="194"/>
-      <c r="H67" s="194"/>
-      <c r="I67" s="186"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="159"/>
     </row>
     <row r="68" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B68" s="225"/>
-      <c r="C68" s="180"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="176"/>
+      <c r="B68" s="222"/>
+      <c r="C68" s="193"/>
+      <c r="D68" s="188"/>
+      <c r="E68" s="205"/>
       <c r="F68" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
-      <c r="I68" s="187"/>
+      <c r="G68" s="184"/>
+      <c r="H68" s="184"/>
+      <c r="I68" s="186"/>
     </row>
     <row r="69" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B69" s="225"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="182" t="s">
+      <c r="B69" s="222"/>
+      <c r="C69" s="193"/>
+      <c r="D69" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="192" t="s">
+      <c r="E69" s="203" t="s">
         <v>114</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="193" t="s">
+      <c r="G69" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="H69" s="193" t="s">
+      <c r="H69" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I69" s="185" t="s">
+      <c r="I69" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B70" s="225"/>
-      <c r="C70" s="180"/>
-      <c r="D70" s="183"/>
-      <c r="E70" s="184"/>
+      <c r="B70" s="222"/>
+      <c r="C70" s="193"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="204"/>
       <c r="F70" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="194"/>
-      <c r="H70" s="194"/>
-      <c r="I70" s="186"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="159"/>
     </row>
     <row r="71" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B71" s="225"/>
-      <c r="C71" s="180"/>
-      <c r="D71" s="183"/>
-      <c r="E71" s="184"/>
+      <c r="B71" s="222"/>
+      <c r="C71" s="193"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="204"/>
       <c r="F71" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="194"/>
-      <c r="H71" s="194"/>
-      <c r="I71" s="186"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="159"/>
     </row>
     <row r="72" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B72" s="225"/>
-      <c r="C72" s="180"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="184"/>
+      <c r="B72" s="222"/>
+      <c r="C72" s="193"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="204"/>
       <c r="F72" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="194"/>
-      <c r="H72" s="194"/>
-      <c r="I72" s="186"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="159"/>
     </row>
     <row r="73" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B73" s="225"/>
-      <c r="C73" s="180"/>
-      <c r="D73" s="183"/>
-      <c r="E73" s="184"/>
+      <c r="B73" s="222"/>
+      <c r="C73" s="193"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="204"/>
       <c r="F73" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G73" s="194"/>
-      <c r="H73" s="194"/>
-      <c r="I73" s="186"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="153"/>
+      <c r="I73" s="159"/>
     </row>
     <row r="74" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B74" s="225"/>
-      <c r="C74" s="180"/>
-      <c r="D74" s="183"/>
-      <c r="E74" s="184"/>
+      <c r="B74" s="222"/>
+      <c r="C74" s="193"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="204"/>
       <c r="F74" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G74" s="194"/>
-      <c r="H74" s="194"/>
-      <c r="I74" s="186"/>
+      <c r="G74" s="153"/>
+      <c r="H74" s="153"/>
+      <c r="I74" s="159"/>
     </row>
     <row r="75" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B75" s="225"/>
-      <c r="C75" s="180"/>
-      <c r="D75" s="183"/>
-      <c r="E75" s="184"/>
+      <c r="B75" s="222"/>
+      <c r="C75" s="193"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="204"/>
       <c r="F75" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="194"/>
-      <c r="H75" s="194"/>
-      <c r="I75" s="186"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="159"/>
     </row>
     <row r="76" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B76" s="225"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="183"/>
-      <c r="E76" s="184"/>
+      <c r="B76" s="222"/>
+      <c r="C76" s="193"/>
+      <c r="D76" s="172"/>
+      <c r="E76" s="204"/>
       <c r="F76" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="194"/>
-      <c r="H76" s="194"/>
-      <c r="I76" s="186"/>
+      <c r="G76" s="153"/>
+      <c r="H76" s="153"/>
+      <c r="I76" s="159"/>
     </row>
     <row r="77" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B77" s="225"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="183"/>
-      <c r="E77" s="184"/>
+      <c r="B77" s="222"/>
+      <c r="C77" s="193"/>
+      <c r="D77" s="172"/>
+      <c r="E77" s="204"/>
       <c r="F77" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="194"/>
-      <c r="H77" s="194"/>
-      <c r="I77" s="186"/>
+      <c r="G77" s="153"/>
+      <c r="H77" s="153"/>
+      <c r="I77" s="159"/>
     </row>
     <row r="78" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B78" s="225"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="183"/>
-      <c r="E78" s="184"/>
+      <c r="B78" s="222"/>
+      <c r="C78" s="193"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="204"/>
       <c r="F78" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G78" s="194"/>
-      <c r="H78" s="194"/>
-      <c r="I78" s="186"/>
+      <c r="G78" s="153"/>
+      <c r="H78" s="153"/>
+      <c r="I78" s="159"/>
     </row>
     <row r="79" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B79" s="225"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="178"/>
-      <c r="E79" s="176"/>
+      <c r="B79" s="222"/>
+      <c r="C79" s="193"/>
+      <c r="D79" s="188"/>
+      <c r="E79" s="205"/>
       <c r="F79" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G79" s="195"/>
-      <c r="H79" s="195"/>
-      <c r="I79" s="187"/>
+      <c r="G79" s="184"/>
+      <c r="H79" s="184"/>
+      <c r="I79" s="186"/>
     </row>
     <row r="80" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B80" s="225"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="182" t="s">
+      <c r="B80" s="222"/>
+      <c r="C80" s="193"/>
+      <c r="D80" s="191" t="s">
         <v>117</v>
       </c>
-      <c r="E80" s="192" t="s">
+      <c r="E80" s="203" t="s">
         <v>118</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G80" s="189" t="s">
+      <c r="G80" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="189" t="s">
+      <c r="H80" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="I80" s="185" t="s">
+      <c r="I80" s="189" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B81" s="225"/>
-      <c r="C81" s="180"/>
-      <c r="D81" s="183"/>
-      <c r="E81" s="184"/>
+      <c r="B81" s="222"/>
+      <c r="C81" s="193"/>
+      <c r="D81" s="172"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G81" s="190"/>
-      <c r="H81" s="190"/>
-      <c r="I81" s="186"/>
+      <c r="G81" s="207"/>
+      <c r="H81" s="207"/>
+      <c r="I81" s="159"/>
     </row>
     <row r="82" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B82" s="225"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="183"/>
-      <c r="E82" s="184"/>
+      <c r="B82" s="222"/>
+      <c r="C82" s="193"/>
+      <c r="D82" s="172"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G82" s="190"/>
-      <c r="H82" s="190"/>
-      <c r="I82" s="186"/>
+      <c r="G82" s="207"/>
+      <c r="H82" s="207"/>
+      <c r="I82" s="159"/>
     </row>
     <row r="83" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B83" s="225"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="184"/>
+      <c r="B83" s="222"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="172"/>
+      <c r="E83" s="204"/>
       <c r="F83" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G83" s="190"/>
-      <c r="H83" s="190"/>
-      <c r="I83" s="186"/>
+      <c r="G83" s="207"/>
+      <c r="H83" s="207"/>
+      <c r="I83" s="159"/>
     </row>
     <row r="84" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B84" s="225"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="184"/>
+      <c r="B84" s="222"/>
+      <c r="C84" s="193"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="204"/>
       <c r="F84" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G84" s="190"/>
-      <c r="H84" s="190"/>
-      <c r="I84" s="186"/>
+      <c r="G84" s="207"/>
+      <c r="H84" s="207"/>
+      <c r="I84" s="159"/>
     </row>
     <row r="85" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B85" s="225"/>
-      <c r="C85" s="180"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="184"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="193"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="204"/>
       <c r="F85" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G85" s="190"/>
-      <c r="H85" s="190"/>
-      <c r="I85" s="186"/>
+      <c r="G85" s="207"/>
+      <c r="H85" s="207"/>
+      <c r="I85" s="159"/>
     </row>
     <row r="86" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B86" s="225"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="184"/>
+      <c r="B86" s="222"/>
+      <c r="C86" s="193"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="204"/>
       <c r="F86" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G86" s="190"/>
-      <c r="H86" s="190"/>
-      <c r="I86" s="186"/>
+      <c r="G86" s="207"/>
+      <c r="H86" s="207"/>
+      <c r="I86" s="159"/>
     </row>
     <row r="87" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B87" s="225"/>
-      <c r="C87" s="180"/>
-      <c r="D87" s="183"/>
-      <c r="E87" s="184"/>
+      <c r="B87" s="222"/>
+      <c r="C87" s="193"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="204"/>
       <c r="F87" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G87" s="190"/>
-      <c r="H87" s="190"/>
-      <c r="I87" s="186"/>
+      <c r="G87" s="207"/>
+      <c r="H87" s="207"/>
+      <c r="I87" s="159"/>
     </row>
     <row r="88" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B88" s="225"/>
-      <c r="C88" s="180"/>
-      <c r="D88" s="183"/>
-      <c r="E88" s="184"/>
+      <c r="B88" s="222"/>
+      <c r="C88" s="193"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="204"/>
       <c r="F88" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G88" s="190"/>
-      <c r="H88" s="190"/>
-      <c r="I88" s="186"/>
+      <c r="G88" s="207"/>
+      <c r="H88" s="207"/>
+      <c r="I88" s="159"/>
     </row>
     <row r="89" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B89" s="225"/>
-      <c r="C89" s="180"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="184"/>
+      <c r="B89" s="222"/>
+      <c r="C89" s="193"/>
+      <c r="D89" s="172"/>
+      <c r="E89" s="204"/>
       <c r="F89" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G89" s="190"/>
-      <c r="H89" s="190"/>
-      <c r="I89" s="186"/>
+      <c r="G89" s="207"/>
+      <c r="H89" s="207"/>
+      <c r="I89" s="159"/>
     </row>
     <row r="90" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B90" s="225"/>
-      <c r="C90" s="181"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="176"/>
+      <c r="B90" s="222"/>
+      <c r="C90" s="201"/>
+      <c r="D90" s="188"/>
+      <c r="E90" s="205"/>
       <c r="F90" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G90" s="191"/>
-      <c r="H90" s="191"/>
-      <c r="I90" s="187"/>
+      <c r="G90" s="208"/>
+      <c r="H90" s="208"/>
+      <c r="I90" s="186"/>
     </row>
     <row r="91" spans="2:9" ht="28.8" outlineLevel="2">
-      <c r="B91" s="225"/>
-      <c r="C91" s="199" t="s">
+      <c r="B91" s="222"/>
+      <c r="C91" s="200" t="s">
         <v>121</v>
       </c>
       <c r="D91" s="104" t="s">
@@ -7366,991 +7366,991 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B92" s="225"/>
-      <c r="C92" s="180"/>
-      <c r="D92" s="182" t="s">
+      <c r="B92" s="222"/>
+      <c r="C92" s="193"/>
+      <c r="D92" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="192" t="s">
+      <c r="E92" s="203" t="s">
         <v>127</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G92" s="193" t="s">
+      <c r="G92" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="H92" s="193" t="s">
+      <c r="H92" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I92" s="185" t="s">
+      <c r="I92" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B93" s="225"/>
-      <c r="C93" s="180"/>
-      <c r="D93" s="183"/>
-      <c r="E93" s="184"/>
+      <c r="B93" s="222"/>
+      <c r="C93" s="193"/>
+      <c r="D93" s="172"/>
+      <c r="E93" s="204"/>
       <c r="F93" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G93" s="194"/>
-      <c r="H93" s="194"/>
-      <c r="I93" s="186"/>
+      <c r="G93" s="153"/>
+      <c r="H93" s="153"/>
+      <c r="I93" s="159"/>
     </row>
     <row r="94" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B94" s="225"/>
-      <c r="C94" s="180"/>
-      <c r="D94" s="183"/>
-      <c r="E94" s="184"/>
+      <c r="B94" s="222"/>
+      <c r="C94" s="193"/>
+      <c r="D94" s="172"/>
+      <c r="E94" s="204"/>
       <c r="F94" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="194"/>
-      <c r="H94" s="194"/>
-      <c r="I94" s="186"/>
+      <c r="G94" s="153"/>
+      <c r="H94" s="153"/>
+      <c r="I94" s="159"/>
     </row>
     <row r="95" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B95" s="225"/>
-      <c r="C95" s="180"/>
-      <c r="D95" s="183"/>
-      <c r="E95" s="184"/>
+      <c r="B95" s="222"/>
+      <c r="C95" s="193"/>
+      <c r="D95" s="172"/>
+      <c r="E95" s="204"/>
       <c r="F95" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G95" s="194"/>
-      <c r="H95" s="194"/>
-      <c r="I95" s="186"/>
+      <c r="G95" s="153"/>
+      <c r="H95" s="153"/>
+      <c r="I95" s="159"/>
     </row>
     <row r="96" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B96" s="225"/>
-      <c r="C96" s="180"/>
-      <c r="D96" s="183"/>
-      <c r="E96" s="184"/>
+      <c r="B96" s="222"/>
+      <c r="C96" s="193"/>
+      <c r="D96" s="172"/>
+      <c r="E96" s="204"/>
       <c r="F96" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G96" s="194"/>
-      <c r="H96" s="194"/>
-      <c r="I96" s="186"/>
+      <c r="G96" s="153"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="159"/>
     </row>
     <row r="97" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B97" s="225"/>
-      <c r="C97" s="180"/>
-      <c r="D97" s="183"/>
-      <c r="E97" s="184"/>
+      <c r="B97" s="222"/>
+      <c r="C97" s="193"/>
+      <c r="D97" s="172"/>
+      <c r="E97" s="204"/>
       <c r="F97" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G97" s="194"/>
-      <c r="H97" s="194"/>
-      <c r="I97" s="186"/>
+      <c r="G97" s="153"/>
+      <c r="H97" s="153"/>
+      <c r="I97" s="159"/>
     </row>
     <row r="98" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B98" s="225"/>
-      <c r="C98" s="180"/>
-      <c r="D98" s="183"/>
-      <c r="E98" s="184"/>
+      <c r="B98" s="222"/>
+      <c r="C98" s="193"/>
+      <c r="D98" s="172"/>
+      <c r="E98" s="204"/>
       <c r="F98" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G98" s="194"/>
-      <c r="H98" s="194"/>
-      <c r="I98" s="186"/>
+      <c r="G98" s="153"/>
+      <c r="H98" s="153"/>
+      <c r="I98" s="159"/>
     </row>
     <row r="99" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B99" s="225"/>
-      <c r="C99" s="180"/>
-      <c r="D99" s="183"/>
-      <c r="E99" s="184"/>
+      <c r="B99" s="222"/>
+      <c r="C99" s="193"/>
+      <c r="D99" s="172"/>
+      <c r="E99" s="204"/>
       <c r="F99" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G99" s="194"/>
-      <c r="H99" s="194"/>
-      <c r="I99" s="186"/>
+      <c r="G99" s="153"/>
+      <c r="H99" s="153"/>
+      <c r="I99" s="159"/>
     </row>
     <row r="100" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B100" s="225"/>
-      <c r="C100" s="180"/>
-      <c r="D100" s="183"/>
-      <c r="E100" s="184"/>
+      <c r="B100" s="222"/>
+      <c r="C100" s="193"/>
+      <c r="D100" s="172"/>
+      <c r="E100" s="204"/>
       <c r="F100" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G100" s="194"/>
-      <c r="H100" s="194"/>
-      <c r="I100" s="186"/>
+      <c r="G100" s="153"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="159"/>
     </row>
     <row r="101" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B101" s="225"/>
-      <c r="C101" s="180"/>
-      <c r="D101" s="183"/>
-      <c r="E101" s="184"/>
+      <c r="B101" s="222"/>
+      <c r="C101" s="193"/>
+      <c r="D101" s="172"/>
+      <c r="E101" s="204"/>
       <c r="F101" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G101" s="194"/>
-      <c r="H101" s="194"/>
-      <c r="I101" s="186"/>
+      <c r="G101" s="153"/>
+      <c r="H101" s="153"/>
+      <c r="I101" s="159"/>
     </row>
     <row r="102" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B102" s="225"/>
-      <c r="C102" s="180"/>
-      <c r="D102" s="178"/>
-      <c r="E102" s="176"/>
+      <c r="B102" s="222"/>
+      <c r="C102" s="193"/>
+      <c r="D102" s="188"/>
+      <c r="E102" s="205"/>
       <c r="F102" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G102" s="195"/>
-      <c r="H102" s="195"/>
-      <c r="I102" s="187"/>
+      <c r="G102" s="184"/>
+      <c r="H102" s="184"/>
+      <c r="I102" s="186"/>
     </row>
     <row r="103" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B103" s="225"/>
-      <c r="C103" s="180"/>
-      <c r="D103" s="182" t="s">
+      <c r="B103" s="222"/>
+      <c r="C103" s="193"/>
+      <c r="D103" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="E103" s="192" t="s">
+      <c r="E103" s="203" t="s">
         <v>129</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G103" s="193" t="s">
+      <c r="G103" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="H103" s="193" t="s">
+      <c r="H103" s="185" t="s">
         <v>99</v>
       </c>
-      <c r="I103" s="185" t="s">
+      <c r="I103" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B104" s="225"/>
-      <c r="C104" s="180"/>
-      <c r="D104" s="183"/>
-      <c r="E104" s="184"/>
+      <c r="B104" s="222"/>
+      <c r="C104" s="193"/>
+      <c r="D104" s="172"/>
+      <c r="E104" s="204"/>
       <c r="F104" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G104" s="194"/>
-      <c r="H104" s="194"/>
-      <c r="I104" s="186"/>
+      <c r="G104" s="153"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="159"/>
     </row>
     <row r="105" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B105" s="225"/>
-      <c r="C105" s="180"/>
-      <c r="D105" s="183"/>
-      <c r="E105" s="184"/>
+      <c r="B105" s="222"/>
+      <c r="C105" s="193"/>
+      <c r="D105" s="172"/>
+      <c r="E105" s="204"/>
       <c r="F105" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G105" s="194"/>
-      <c r="H105" s="194"/>
-      <c r="I105" s="186"/>
+      <c r="G105" s="153"/>
+      <c r="H105" s="153"/>
+      <c r="I105" s="159"/>
     </row>
     <row r="106" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B106" s="225"/>
-      <c r="C106" s="180"/>
-      <c r="D106" s="183"/>
-      <c r="E106" s="184"/>
+      <c r="B106" s="222"/>
+      <c r="C106" s="193"/>
+      <c r="D106" s="172"/>
+      <c r="E106" s="204"/>
       <c r="F106" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G106" s="194"/>
-      <c r="H106" s="194"/>
-      <c r="I106" s="186"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="153"/>
+      <c r="I106" s="159"/>
     </row>
     <row r="107" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B107" s="225"/>
-      <c r="C107" s="180"/>
-      <c r="D107" s="183"/>
-      <c r="E107" s="184"/>
+      <c r="B107" s="222"/>
+      <c r="C107" s="193"/>
+      <c r="D107" s="172"/>
+      <c r="E107" s="204"/>
       <c r="F107" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G107" s="194"/>
-      <c r="H107" s="194"/>
-      <c r="I107" s="186"/>
+      <c r="G107" s="153"/>
+      <c r="H107" s="153"/>
+      <c r="I107" s="159"/>
     </row>
     <row r="108" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B108" s="225"/>
-      <c r="C108" s="180"/>
-      <c r="D108" s="183"/>
-      <c r="E108" s="184"/>
+      <c r="B108" s="222"/>
+      <c r="C108" s="193"/>
+      <c r="D108" s="172"/>
+      <c r="E108" s="204"/>
       <c r="F108" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G108" s="194"/>
-      <c r="H108" s="194"/>
-      <c r="I108" s="186"/>
+      <c r="G108" s="153"/>
+      <c r="H108" s="153"/>
+      <c r="I108" s="159"/>
     </row>
     <row r="109" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B109" s="225"/>
-      <c r="C109" s="180"/>
-      <c r="D109" s="183"/>
-      <c r="E109" s="184"/>
+      <c r="B109" s="222"/>
+      <c r="C109" s="193"/>
+      <c r="D109" s="172"/>
+      <c r="E109" s="204"/>
       <c r="F109" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G109" s="194"/>
-      <c r="H109" s="194"/>
-      <c r="I109" s="186"/>
+      <c r="G109" s="153"/>
+      <c r="H109" s="153"/>
+      <c r="I109" s="159"/>
     </row>
     <row r="110" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B110" s="225"/>
-      <c r="C110" s="180"/>
-      <c r="D110" s="183"/>
-      <c r="E110" s="184"/>
+      <c r="B110" s="222"/>
+      <c r="C110" s="193"/>
+      <c r="D110" s="172"/>
+      <c r="E110" s="204"/>
       <c r="F110" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G110" s="194"/>
-      <c r="H110" s="194"/>
-      <c r="I110" s="186"/>
+      <c r="G110" s="153"/>
+      <c r="H110" s="153"/>
+      <c r="I110" s="159"/>
     </row>
     <row r="111" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B111" s="225"/>
-      <c r="C111" s="180"/>
-      <c r="D111" s="183"/>
-      <c r="E111" s="184"/>
+      <c r="B111" s="222"/>
+      <c r="C111" s="193"/>
+      <c r="D111" s="172"/>
+      <c r="E111" s="204"/>
       <c r="F111" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G111" s="194"/>
-      <c r="H111" s="194"/>
-      <c r="I111" s="186"/>
+      <c r="G111" s="153"/>
+      <c r="H111" s="153"/>
+      <c r="I111" s="159"/>
     </row>
     <row r="112" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B112" s="225"/>
-      <c r="C112" s="180"/>
-      <c r="D112" s="178"/>
-      <c r="E112" s="176"/>
+      <c r="B112" s="222"/>
+      <c r="C112" s="193"/>
+      <c r="D112" s="188"/>
+      <c r="E112" s="205"/>
       <c r="F112" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G112" s="195"/>
-      <c r="H112" s="195"/>
-      <c r="I112" s="187"/>
+      <c r="G112" s="184"/>
+      <c r="H112" s="184"/>
+      <c r="I112" s="186"/>
     </row>
     <row r="113" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B113" s="225"/>
-      <c r="C113" s="180"/>
-      <c r="D113" s="182" t="s">
+      <c r="B113" s="222"/>
+      <c r="C113" s="193"/>
+      <c r="D113" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="E113" s="192" t="s">
+      <c r="E113" s="203" t="s">
         <v>131</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G113" s="193" t="s">
+      <c r="G113" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="H113" s="193" t="s">
+      <c r="H113" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I113" s="185" t="s">
+      <c r="I113" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B114" s="225"/>
-      <c r="C114" s="180"/>
-      <c r="D114" s="183"/>
-      <c r="E114" s="184"/>
+      <c r="B114" s="222"/>
+      <c r="C114" s="193"/>
+      <c r="D114" s="172"/>
+      <c r="E114" s="204"/>
       <c r="F114" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G114" s="194"/>
-      <c r="H114" s="194"/>
-      <c r="I114" s="186"/>
+      <c r="G114" s="153"/>
+      <c r="H114" s="153"/>
+      <c r="I114" s="159"/>
     </row>
     <row r="115" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B115" s="225"/>
-      <c r="C115" s="180"/>
-      <c r="D115" s="183"/>
-      <c r="E115" s="184"/>
+      <c r="B115" s="222"/>
+      <c r="C115" s="193"/>
+      <c r="D115" s="172"/>
+      <c r="E115" s="204"/>
       <c r="F115" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G115" s="194"/>
-      <c r="H115" s="194"/>
-      <c r="I115" s="186"/>
+      <c r="G115" s="153"/>
+      <c r="H115" s="153"/>
+      <c r="I115" s="159"/>
     </row>
     <row r="116" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B116" s="225"/>
-      <c r="C116" s="180"/>
-      <c r="D116" s="183"/>
-      <c r="E116" s="184"/>
+      <c r="B116" s="222"/>
+      <c r="C116" s="193"/>
+      <c r="D116" s="172"/>
+      <c r="E116" s="204"/>
       <c r="F116" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G116" s="194"/>
-      <c r="H116" s="194"/>
-      <c r="I116" s="186"/>
+      <c r="G116" s="153"/>
+      <c r="H116" s="153"/>
+      <c r="I116" s="159"/>
     </row>
     <row r="117" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B117" s="225"/>
-      <c r="C117" s="180"/>
-      <c r="D117" s="183"/>
-      <c r="E117" s="184"/>
+      <c r="B117" s="222"/>
+      <c r="C117" s="193"/>
+      <c r="D117" s="172"/>
+      <c r="E117" s="204"/>
       <c r="F117" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G117" s="194"/>
-      <c r="H117" s="194"/>
-      <c r="I117" s="186"/>
+      <c r="G117" s="153"/>
+      <c r="H117" s="153"/>
+      <c r="I117" s="159"/>
     </row>
     <row r="118" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B118" s="225"/>
-      <c r="C118" s="180"/>
-      <c r="D118" s="183"/>
-      <c r="E118" s="184"/>
+      <c r="B118" s="222"/>
+      <c r="C118" s="193"/>
+      <c r="D118" s="172"/>
+      <c r="E118" s="204"/>
       <c r="F118" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G118" s="194"/>
-      <c r="H118" s="194"/>
-      <c r="I118" s="186"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="153"/>
+      <c r="I118" s="159"/>
     </row>
     <row r="119" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B119" s="225"/>
-      <c r="C119" s="180"/>
-      <c r="D119" s="183"/>
-      <c r="E119" s="184"/>
+      <c r="B119" s="222"/>
+      <c r="C119" s="193"/>
+      <c r="D119" s="172"/>
+      <c r="E119" s="204"/>
       <c r="F119" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G119" s="194"/>
-      <c r="H119" s="194"/>
-      <c r="I119" s="186"/>
+      <c r="G119" s="153"/>
+      <c r="H119" s="153"/>
+      <c r="I119" s="159"/>
     </row>
     <row r="120" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B120" s="225"/>
-      <c r="C120" s="180"/>
-      <c r="D120" s="183"/>
-      <c r="E120" s="184"/>
+      <c r="B120" s="222"/>
+      <c r="C120" s="193"/>
+      <c r="D120" s="172"/>
+      <c r="E120" s="204"/>
       <c r="F120" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G120" s="194"/>
-      <c r="H120" s="194"/>
-      <c r="I120" s="186"/>
+      <c r="G120" s="153"/>
+      <c r="H120" s="153"/>
+      <c r="I120" s="159"/>
     </row>
     <row r="121" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B121" s="225"/>
-      <c r="C121" s="180"/>
-      <c r="D121" s="183"/>
-      <c r="E121" s="184"/>
+      <c r="B121" s="222"/>
+      <c r="C121" s="193"/>
+      <c r="D121" s="172"/>
+      <c r="E121" s="204"/>
       <c r="F121" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G121" s="194"/>
-      <c r="H121" s="194"/>
-      <c r="I121" s="186"/>
+      <c r="G121" s="153"/>
+      <c r="H121" s="153"/>
+      <c r="I121" s="159"/>
     </row>
     <row r="122" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B122" s="225"/>
-      <c r="C122" s="180"/>
-      <c r="D122" s="183"/>
-      <c r="E122" s="184"/>
+      <c r="B122" s="222"/>
+      <c r="C122" s="193"/>
+      <c r="D122" s="172"/>
+      <c r="E122" s="204"/>
       <c r="F122" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G122" s="194"/>
-      <c r="H122" s="194"/>
-      <c r="I122" s="186"/>
+      <c r="G122" s="153"/>
+      <c r="H122" s="153"/>
+      <c r="I122" s="159"/>
     </row>
     <row r="123" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B123" s="225"/>
-      <c r="C123" s="180"/>
-      <c r="D123" s="178"/>
-      <c r="E123" s="176"/>
+      <c r="B123" s="222"/>
+      <c r="C123" s="193"/>
+      <c r="D123" s="188"/>
+      <c r="E123" s="205"/>
       <c r="F123" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G123" s="195"/>
-      <c r="H123" s="195"/>
-      <c r="I123" s="187"/>
+      <c r="G123" s="184"/>
+      <c r="H123" s="184"/>
+      <c r="I123" s="186"/>
     </row>
     <row r="124" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B124" s="225"/>
-      <c r="C124" s="180"/>
-      <c r="D124" s="182" t="s">
+      <c r="B124" s="222"/>
+      <c r="C124" s="193"/>
+      <c r="D124" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="E124" s="192" t="s">
+      <c r="E124" s="203" t="s">
         <v>133</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G124" s="193" t="s">
+      <c r="G124" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="H124" s="193" t="s">
+      <c r="H124" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I124" s="185" t="s">
+      <c r="I124" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B125" s="225"/>
-      <c r="C125" s="180"/>
-      <c r="D125" s="183"/>
-      <c r="E125" s="184"/>
+      <c r="B125" s="222"/>
+      <c r="C125" s="193"/>
+      <c r="D125" s="172"/>
+      <c r="E125" s="204"/>
       <c r="F125" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G125" s="194"/>
-      <c r="H125" s="194"/>
-      <c r="I125" s="186"/>
+      <c r="G125" s="153"/>
+      <c r="H125" s="153"/>
+      <c r="I125" s="159"/>
     </row>
     <row r="126" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B126" s="225"/>
-      <c r="C126" s="180"/>
-      <c r="D126" s="183"/>
-      <c r="E126" s="184"/>
+      <c r="B126" s="222"/>
+      <c r="C126" s="193"/>
+      <c r="D126" s="172"/>
+      <c r="E126" s="204"/>
       <c r="F126" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G126" s="194"/>
-      <c r="H126" s="194"/>
-      <c r="I126" s="186"/>
+      <c r="G126" s="153"/>
+      <c r="H126" s="153"/>
+      <c r="I126" s="159"/>
     </row>
     <row r="127" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B127" s="225"/>
-      <c r="C127" s="180"/>
-      <c r="D127" s="183"/>
-      <c r="E127" s="184"/>
+      <c r="B127" s="222"/>
+      <c r="C127" s="193"/>
+      <c r="D127" s="172"/>
+      <c r="E127" s="204"/>
       <c r="F127" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G127" s="194"/>
-      <c r="H127" s="194"/>
-      <c r="I127" s="186"/>
+      <c r="G127" s="153"/>
+      <c r="H127" s="153"/>
+      <c r="I127" s="159"/>
     </row>
     <row r="128" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B128" s="225"/>
-      <c r="C128" s="180"/>
-      <c r="D128" s="183"/>
-      <c r="E128" s="184"/>
+      <c r="B128" s="222"/>
+      <c r="C128" s="193"/>
+      <c r="D128" s="172"/>
+      <c r="E128" s="204"/>
       <c r="F128" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G128" s="194"/>
-      <c r="H128" s="194"/>
-      <c r="I128" s="186"/>
+      <c r="G128" s="153"/>
+      <c r="H128" s="153"/>
+      <c r="I128" s="159"/>
     </row>
     <row r="129" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B129" s="225"/>
-      <c r="C129" s="180"/>
-      <c r="D129" s="183"/>
-      <c r="E129" s="184"/>
+      <c r="B129" s="222"/>
+      <c r="C129" s="193"/>
+      <c r="D129" s="172"/>
+      <c r="E129" s="204"/>
       <c r="F129" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G129" s="194"/>
-      <c r="H129" s="194"/>
-      <c r="I129" s="186"/>
+      <c r="G129" s="153"/>
+      <c r="H129" s="153"/>
+      <c r="I129" s="159"/>
     </row>
     <row r="130" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B130" s="225"/>
-      <c r="C130" s="180"/>
-      <c r="D130" s="183"/>
-      <c r="E130" s="184"/>
+      <c r="B130" s="222"/>
+      <c r="C130" s="193"/>
+      <c r="D130" s="172"/>
+      <c r="E130" s="204"/>
       <c r="F130" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G130" s="194"/>
-      <c r="H130" s="194"/>
-      <c r="I130" s="186"/>
+      <c r="G130" s="153"/>
+      <c r="H130" s="153"/>
+      <c r="I130" s="159"/>
     </row>
     <row r="131" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B131" s="225"/>
-      <c r="C131" s="180"/>
-      <c r="D131" s="183"/>
-      <c r="E131" s="184"/>
+      <c r="B131" s="222"/>
+      <c r="C131" s="193"/>
+      <c r="D131" s="172"/>
+      <c r="E131" s="204"/>
       <c r="F131" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G131" s="194"/>
-      <c r="H131" s="194"/>
-      <c r="I131" s="186"/>
+      <c r="G131" s="153"/>
+      <c r="H131" s="153"/>
+      <c r="I131" s="159"/>
     </row>
     <row r="132" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B132" s="225"/>
-      <c r="C132" s="180"/>
-      <c r="D132" s="183"/>
-      <c r="E132" s="184"/>
+      <c r="B132" s="222"/>
+      <c r="C132" s="193"/>
+      <c r="D132" s="172"/>
+      <c r="E132" s="204"/>
       <c r="F132" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G132" s="194"/>
-      <c r="H132" s="194"/>
-      <c r="I132" s="186"/>
+      <c r="G132" s="153"/>
+      <c r="H132" s="153"/>
+      <c r="I132" s="159"/>
     </row>
     <row r="133" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B133" s="225"/>
-      <c r="C133" s="180"/>
-      <c r="D133" s="183"/>
-      <c r="E133" s="184"/>
+      <c r="B133" s="222"/>
+      <c r="C133" s="193"/>
+      <c r="D133" s="172"/>
+      <c r="E133" s="204"/>
       <c r="F133" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G133" s="194"/>
-      <c r="H133" s="194"/>
-      <c r="I133" s="186"/>
+      <c r="G133" s="153"/>
+      <c r="H133" s="153"/>
+      <c r="I133" s="159"/>
     </row>
     <row r="134" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B134" s="225"/>
-      <c r="C134" s="180"/>
-      <c r="D134" s="178"/>
-      <c r="E134" s="176"/>
+      <c r="B134" s="222"/>
+      <c r="C134" s="193"/>
+      <c r="D134" s="188"/>
+      <c r="E134" s="205"/>
       <c r="F134" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G134" s="195"/>
-      <c r="H134" s="195"/>
-      <c r="I134" s="187"/>
+      <c r="G134" s="184"/>
+      <c r="H134" s="184"/>
+      <c r="I134" s="186"/>
     </row>
     <row r="135" spans="2:9" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B135" s="225"/>
-      <c r="C135" s="180"/>
-      <c r="D135" s="182" t="s">
+      <c r="B135" s="222"/>
+      <c r="C135" s="193"/>
+      <c r="D135" s="191" t="s">
         <v>134</v>
       </c>
-      <c r="E135" s="192" t="s">
+      <c r="E135" s="203" t="s">
         <v>135</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G135" s="193" t="s">
+      <c r="G135" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="H135" s="193" t="s">
+      <c r="H135" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I135" s="185" t="s">
+      <c r="I135" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="136" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B136" s="225"/>
-      <c r="C136" s="180"/>
-      <c r="D136" s="183"/>
-      <c r="E136" s="184"/>
+      <c r="B136" s="222"/>
+      <c r="C136" s="193"/>
+      <c r="D136" s="172"/>
+      <c r="E136" s="204"/>
       <c r="F136" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G136" s="194"/>
-      <c r="H136" s="194"/>
-      <c r="I136" s="186"/>
+      <c r="G136" s="153"/>
+      <c r="H136" s="153"/>
+      <c r="I136" s="159"/>
     </row>
     <row r="137" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B137" s="225"/>
-      <c r="C137" s="180"/>
-      <c r="D137" s="183"/>
-      <c r="E137" s="184"/>
+      <c r="B137" s="222"/>
+      <c r="C137" s="193"/>
+      <c r="D137" s="172"/>
+      <c r="E137" s="204"/>
       <c r="F137" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G137" s="194"/>
-      <c r="H137" s="194"/>
-      <c r="I137" s="186"/>
+      <c r="G137" s="153"/>
+      <c r="H137" s="153"/>
+      <c r="I137" s="159"/>
     </row>
     <row r="138" spans="2:9" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B138" s="225"/>
-      <c r="C138" s="180"/>
-      <c r="D138" s="183"/>
-      <c r="E138" s="184"/>
+      <c r="B138" s="222"/>
+      <c r="C138" s="193"/>
+      <c r="D138" s="172"/>
+      <c r="E138" s="204"/>
       <c r="F138" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G138" s="194"/>
-      <c r="H138" s="194"/>
-      <c r="I138" s="186"/>
+      <c r="G138" s="153"/>
+      <c r="H138" s="153"/>
+      <c r="I138" s="159"/>
     </row>
     <row r="139" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B139" s="225"/>
-      <c r="C139" s="180"/>
-      <c r="D139" s="183"/>
-      <c r="E139" s="184"/>
+      <c r="B139" s="222"/>
+      <c r="C139" s="193"/>
+      <c r="D139" s="172"/>
+      <c r="E139" s="204"/>
       <c r="F139" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G139" s="194"/>
-      <c r="H139" s="194"/>
-      <c r="I139" s="186"/>
+      <c r="G139" s="153"/>
+      <c r="H139" s="153"/>
+      <c r="I139" s="159"/>
     </row>
     <row r="140" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B140" s="225"/>
-      <c r="C140" s="180"/>
-      <c r="D140" s="183"/>
-      <c r="E140" s="184"/>
+      <c r="B140" s="222"/>
+      <c r="C140" s="193"/>
+      <c r="D140" s="172"/>
+      <c r="E140" s="204"/>
       <c r="F140" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G140" s="194"/>
-      <c r="H140" s="194"/>
-      <c r="I140" s="186"/>
+      <c r="G140" s="153"/>
+      <c r="H140" s="153"/>
+      <c r="I140" s="159"/>
     </row>
     <row r="141" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B141" s="225"/>
-      <c r="C141" s="180"/>
-      <c r="D141" s="183"/>
-      <c r="E141" s="184"/>
+      <c r="B141" s="222"/>
+      <c r="C141" s="193"/>
+      <c r="D141" s="172"/>
+      <c r="E141" s="204"/>
       <c r="F141" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G141" s="194"/>
-      <c r="H141" s="194"/>
-      <c r="I141" s="186"/>
+      <c r="G141" s="153"/>
+      <c r="H141" s="153"/>
+      <c r="I141" s="159"/>
     </row>
     <row r="142" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B142" s="225"/>
-      <c r="C142" s="180"/>
-      <c r="D142" s="183"/>
-      <c r="E142" s="184"/>
+      <c r="B142" s="222"/>
+      <c r="C142" s="193"/>
+      <c r="D142" s="172"/>
+      <c r="E142" s="204"/>
       <c r="F142" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G142" s="194"/>
-      <c r="H142" s="194"/>
-      <c r="I142" s="186"/>
+      <c r="G142" s="153"/>
+      <c r="H142" s="153"/>
+      <c r="I142" s="159"/>
     </row>
     <row r="143" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B143" s="225"/>
-      <c r="C143" s="180"/>
-      <c r="D143" s="183"/>
-      <c r="E143" s="184"/>
+      <c r="B143" s="222"/>
+      <c r="C143" s="193"/>
+      <c r="D143" s="172"/>
+      <c r="E143" s="204"/>
       <c r="F143" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G143" s="194"/>
-      <c r="H143" s="194"/>
-      <c r="I143" s="186"/>
+      <c r="G143" s="153"/>
+      <c r="H143" s="153"/>
+      <c r="I143" s="159"/>
     </row>
     <row r="144" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B144" s="225"/>
-      <c r="C144" s="180"/>
-      <c r="D144" s="183"/>
-      <c r="E144" s="184"/>
+      <c r="B144" s="222"/>
+      <c r="C144" s="193"/>
+      <c r="D144" s="172"/>
+      <c r="E144" s="204"/>
       <c r="F144" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G144" s="194"/>
-      <c r="H144" s="194"/>
-      <c r="I144" s="186"/>
+      <c r="G144" s="153"/>
+      <c r="H144" s="153"/>
+      <c r="I144" s="159"/>
     </row>
     <row r="145" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B145" s="225"/>
-      <c r="C145" s="180"/>
-      <c r="D145" s="178"/>
-      <c r="E145" s="176"/>
+      <c r="B145" s="222"/>
+      <c r="C145" s="193"/>
+      <c r="D145" s="188"/>
+      <c r="E145" s="205"/>
       <c r="F145" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G145" s="195"/>
-      <c r="H145" s="195"/>
-      <c r="I145" s="187"/>
+      <c r="G145" s="184"/>
+      <c r="H145" s="184"/>
+      <c r="I145" s="186"/>
     </row>
     <row r="146" spans="2:12" ht="12.75" customHeight="1" outlineLevel="2">
-      <c r="B146" s="225"/>
-      <c r="C146" s="180"/>
-      <c r="D146" s="182" t="s">
+      <c r="B146" s="222"/>
+      <c r="C146" s="193"/>
+      <c r="D146" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="E146" s="192" t="s">
+      <c r="E146" s="203" t="s">
         <v>137</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="193" t="s">
+      <c r="G146" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="H146" s="193" t="s">
+      <c r="H146" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="I146" s="185" t="s">
+      <c r="I146" s="189" t="s">
         <v>52</v>
       </c>
       <c r="L146" s="19"/>
     </row>
     <row r="147" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B147" s="225"/>
-      <c r="C147" s="180"/>
-      <c r="D147" s="183"/>
-      <c r="E147" s="184"/>
+      <c r="B147" s="222"/>
+      <c r="C147" s="193"/>
+      <c r="D147" s="172"/>
+      <c r="E147" s="204"/>
       <c r="F147" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
-      <c r="I147" s="186"/>
+      <c r="G147" s="153"/>
+      <c r="H147" s="153"/>
+      <c r="I147" s="159"/>
     </row>
     <row r="148" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B148" s="225"/>
-      <c r="C148" s="180"/>
-      <c r="D148" s="183"/>
-      <c r="E148" s="184"/>
+      <c r="B148" s="222"/>
+      <c r="C148" s="193"/>
+      <c r="D148" s="172"/>
+      <c r="E148" s="204"/>
       <c r="F148" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G148" s="194"/>
-      <c r="H148" s="194"/>
-      <c r="I148" s="186"/>
+      <c r="G148" s="153"/>
+      <c r="H148" s="153"/>
+      <c r="I148" s="159"/>
     </row>
     <row r="149" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B149" s="225"/>
-      <c r="C149" s="180"/>
-      <c r="D149" s="183"/>
-      <c r="E149" s="184"/>
+      <c r="B149" s="222"/>
+      <c r="C149" s="193"/>
+      <c r="D149" s="172"/>
+      <c r="E149" s="204"/>
       <c r="F149" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G149" s="194"/>
-      <c r="H149" s="194"/>
-      <c r="I149" s="186"/>
+      <c r="G149" s="153"/>
+      <c r="H149" s="153"/>
+      <c r="I149" s="159"/>
     </row>
     <row r="150" spans="2:12" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B150" s="225"/>
-      <c r="C150" s="180"/>
-      <c r="D150" s="183"/>
-      <c r="E150" s="184"/>
+      <c r="B150" s="222"/>
+      <c r="C150" s="193"/>
+      <c r="D150" s="172"/>
+      <c r="E150" s="204"/>
       <c r="F150" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G150" s="194"/>
-      <c r="H150" s="194"/>
-      <c r="I150" s="186"/>
+      <c r="G150" s="153"/>
+      <c r="H150" s="153"/>
+      <c r="I150" s="159"/>
     </row>
     <row r="151" spans="2:12" ht="13.2" customHeight="1" outlineLevel="3">
-      <c r="B151" s="225"/>
-      <c r="C151" s="180"/>
-      <c r="D151" s="183"/>
-      <c r="E151" s="184"/>
+      <c r="B151" s="222"/>
+      <c r="C151" s="193"/>
+      <c r="D151" s="172"/>
+      <c r="E151" s="204"/>
       <c r="F151" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G151" s="194"/>
-      <c r="H151" s="194"/>
-      <c r="I151" s="186"/>
+      <c r="G151" s="153"/>
+      <c r="H151" s="153"/>
+      <c r="I151" s="159"/>
     </row>
     <row r="152" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B152" s="225"/>
-      <c r="C152" s="180"/>
-      <c r="D152" s="183"/>
-      <c r="E152" s="184"/>
+      <c r="B152" s="222"/>
+      <c r="C152" s="193"/>
+      <c r="D152" s="172"/>
+      <c r="E152" s="204"/>
       <c r="F152" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G152" s="194"/>
-      <c r="H152" s="194"/>
-      <c r="I152" s="186"/>
+      <c r="G152" s="153"/>
+      <c r="H152" s="153"/>
+      <c r="I152" s="159"/>
     </row>
     <row r="153" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B153" s="225"/>
-      <c r="C153" s="180"/>
-      <c r="D153" s="183"/>
-      <c r="E153" s="184"/>
+      <c r="B153" s="222"/>
+      <c r="C153" s="193"/>
+      <c r="D153" s="172"/>
+      <c r="E153" s="204"/>
       <c r="F153" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G153" s="194"/>
-      <c r="H153" s="194"/>
-      <c r="I153" s="186"/>
+      <c r="G153" s="153"/>
+      <c r="H153" s="153"/>
+      <c r="I153" s="159"/>
     </row>
     <row r="154" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B154" s="225"/>
-      <c r="C154" s="180"/>
-      <c r="D154" s="183"/>
-      <c r="E154" s="184"/>
+      <c r="B154" s="222"/>
+      <c r="C154" s="193"/>
+      <c r="D154" s="172"/>
+      <c r="E154" s="204"/>
       <c r="F154" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G154" s="194"/>
-      <c r="H154" s="194"/>
-      <c r="I154" s="186"/>
+      <c r="G154" s="153"/>
+      <c r="H154" s="153"/>
+      <c r="I154" s="159"/>
     </row>
     <row r="155" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B155" s="225"/>
-      <c r="C155" s="180"/>
-      <c r="D155" s="183"/>
-      <c r="E155" s="184"/>
+      <c r="B155" s="222"/>
+      <c r="C155" s="193"/>
+      <c r="D155" s="172"/>
+      <c r="E155" s="204"/>
       <c r="F155" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G155" s="194"/>
-      <c r="H155" s="194"/>
-      <c r="I155" s="186"/>
+      <c r="G155" s="153"/>
+      <c r="H155" s="153"/>
+      <c r="I155" s="159"/>
     </row>
     <row r="156" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B156" s="225"/>
-      <c r="C156" s="180"/>
-      <c r="D156" s="178"/>
-      <c r="E156" s="176"/>
+      <c r="B156" s="222"/>
+      <c r="C156" s="193"/>
+      <c r="D156" s="188"/>
+      <c r="E156" s="205"/>
       <c r="F156" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G156" s="195"/>
-      <c r="H156" s="195"/>
-      <c r="I156" s="187"/>
+      <c r="G156" s="184"/>
+      <c r="H156" s="184"/>
+      <c r="I156" s="186"/>
     </row>
     <row r="157" spans="2:12" ht="14.4" customHeight="1" outlineLevel="2">
-      <c r="B157" s="225"/>
-      <c r="C157" s="180"/>
-      <c r="D157" s="182" t="s">
+      <c r="B157" s="222"/>
+      <c r="C157" s="193"/>
+      <c r="D157" s="191" t="s">
         <v>138</v>
       </c>
-      <c r="E157" s="192" t="s">
+      <c r="E157" s="203" t="s">
         <v>139</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G157" s="189" t="s">
+      <c r="G157" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="H157" s="189" t="s">
+      <c r="H157" s="206" t="s">
         <v>141</v>
       </c>
-      <c r="I157" s="185" t="s">
+      <c r="I157" s="189" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="158" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B158" s="225"/>
-      <c r="C158" s="180"/>
-      <c r="D158" s="183"/>
-      <c r="E158" s="184"/>
+      <c r="B158" s="222"/>
+      <c r="C158" s="193"/>
+      <c r="D158" s="172"/>
+      <c r="E158" s="204"/>
       <c r="F158" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G158" s="190"/>
-      <c r="H158" s="190"/>
-      <c r="I158" s="186"/>
+      <c r="G158" s="207"/>
+      <c r="H158" s="207"/>
+      <c r="I158" s="159"/>
     </row>
     <row r="159" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B159" s="225"/>
-      <c r="C159" s="180"/>
-      <c r="D159" s="183"/>
-      <c r="E159" s="184"/>
+      <c r="B159" s="222"/>
+      <c r="C159" s="193"/>
+      <c r="D159" s="172"/>
+      <c r="E159" s="204"/>
       <c r="F159" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G159" s="190"/>
-      <c r="H159" s="190"/>
-      <c r="I159" s="186"/>
+      <c r="G159" s="207"/>
+      <c r="H159" s="207"/>
+      <c r="I159" s="159"/>
     </row>
     <row r="160" spans="2:12" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B160" s="225"/>
-      <c r="C160" s="180"/>
-      <c r="D160" s="183"/>
-      <c r="E160" s="184"/>
+      <c r="B160" s="222"/>
+      <c r="C160" s="193"/>
+      <c r="D160" s="172"/>
+      <c r="E160" s="204"/>
       <c r="F160" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G160" s="190"/>
-      <c r="H160" s="190"/>
-      <c r="I160" s="186"/>
+      <c r="G160" s="207"/>
+      <c r="H160" s="207"/>
+      <c r="I160" s="159"/>
     </row>
     <row r="161" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B161" s="225"/>
-      <c r="C161" s="180"/>
-      <c r="D161" s="183"/>
-      <c r="E161" s="184"/>
+      <c r="B161" s="222"/>
+      <c r="C161" s="193"/>
+      <c r="D161" s="172"/>
+      <c r="E161" s="204"/>
       <c r="F161" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G161" s="190"/>
-      <c r="H161" s="190"/>
-      <c r="I161" s="186"/>
+      <c r="G161" s="207"/>
+      <c r="H161" s="207"/>
+      <c r="I161" s="159"/>
     </row>
     <row r="162" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B162" s="225"/>
-      <c r="C162" s="180"/>
-      <c r="D162" s="183"/>
-      <c r="E162" s="184"/>
+      <c r="B162" s="222"/>
+      <c r="C162" s="193"/>
+      <c r="D162" s="172"/>
+      <c r="E162" s="204"/>
       <c r="F162" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G162" s="190"/>
-      <c r="H162" s="190"/>
-      <c r="I162" s="186"/>
+      <c r="G162" s="207"/>
+      <c r="H162" s="207"/>
+      <c r="I162" s="159"/>
     </row>
     <row r="163" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B163" s="225"/>
-      <c r="C163" s="180"/>
-      <c r="D163" s="183"/>
-      <c r="E163" s="184"/>
+      <c r="B163" s="222"/>
+      <c r="C163" s="193"/>
+      <c r="D163" s="172"/>
+      <c r="E163" s="204"/>
       <c r="F163" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G163" s="190"/>
-      <c r="H163" s="190"/>
-      <c r="I163" s="186"/>
+      <c r="G163" s="207"/>
+      <c r="H163" s="207"/>
+      <c r="I163" s="159"/>
     </row>
     <row r="164" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B164" s="225"/>
-      <c r="C164" s="180"/>
-      <c r="D164" s="183"/>
-      <c r="E164" s="184"/>
+      <c r="B164" s="222"/>
+      <c r="C164" s="193"/>
+      <c r="D164" s="172"/>
+      <c r="E164" s="204"/>
       <c r="F164" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G164" s="190"/>
-      <c r="H164" s="190"/>
-      <c r="I164" s="186"/>
+      <c r="G164" s="207"/>
+      <c r="H164" s="207"/>
+      <c r="I164" s="159"/>
     </row>
     <row r="165" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B165" s="225"/>
-      <c r="C165" s="180"/>
-      <c r="D165" s="183"/>
-      <c r="E165" s="184"/>
+      <c r="B165" s="222"/>
+      <c r="C165" s="193"/>
+      <c r="D165" s="172"/>
+      <c r="E165" s="204"/>
       <c r="F165" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G165" s="190"/>
-      <c r="H165" s="190"/>
-      <c r="I165" s="186"/>
+      <c r="G165" s="207"/>
+      <c r="H165" s="207"/>
+      <c r="I165" s="159"/>
     </row>
     <row r="166" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B166" s="225"/>
-      <c r="C166" s="180"/>
-      <c r="D166" s="183"/>
-      <c r="E166" s="184"/>
+      <c r="B166" s="222"/>
+      <c r="C166" s="193"/>
+      <c r="D166" s="172"/>
+      <c r="E166" s="204"/>
       <c r="F166" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G166" s="190"/>
-      <c r="H166" s="190"/>
-      <c r="I166" s="186"/>
+      <c r="G166" s="207"/>
+      <c r="H166" s="207"/>
+      <c r="I166" s="159"/>
     </row>
     <row r="167" spans="2:9" ht="12.75" customHeight="1" outlineLevel="3">
-      <c r="B167" s="225"/>
-      <c r="C167" s="181"/>
-      <c r="D167" s="178"/>
-      <c r="E167" s="176"/>
+      <c r="B167" s="222"/>
+      <c r="C167" s="201"/>
+      <c r="D167" s="188"/>
+      <c r="E167" s="205"/>
       <c r="F167" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G167" s="191"/>
-      <c r="H167" s="191"/>
-      <c r="I167" s="187"/>
+      <c r="G167" s="208"/>
+      <c r="H167" s="208"/>
+      <c r="I167" s="186"/>
     </row>
     <row r="168" spans="2:9" ht="28.8" outlineLevel="2">
-      <c r="B168" s="225"/>
-      <c r="C168" s="199" t="s">
+      <c r="B168" s="222"/>
+      <c r="C168" s="200" t="s">
         <v>142</v>
       </c>
       <c r="D168" s="104" t="s">
@@ -8373,349 +8373,349 @@
       </c>
     </row>
     <row r="169" spans="2:9" ht="13.2" customHeight="1" outlineLevel="2">
-      <c r="B169" s="225"/>
-      <c r="C169" s="180"/>
-      <c r="D169" s="182" t="s">
+      <c r="B169" s="222"/>
+      <c r="C169" s="193"/>
+      <c r="D169" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="E169" s="214" t="s">
+      <c r="E169" s="190" t="s">
         <v>147</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G169" s="209" t="s">
+      <c r="G169" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="H169" s="209" t="s">
+      <c r="H169" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="I169" s="212" t="s">
+      <c r="I169" s="202" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="170" spans="2:9" ht="13.95" customHeight="1" outlineLevel="2" thickBot="1">
-      <c r="B170" s="225"/>
-      <c r="C170" s="217"/>
-      <c r="D170" s="216"/>
-      <c r="E170" s="215"/>
+      <c r="B170" s="222"/>
+      <c r="C170" s="194"/>
+      <c r="D170" s="173"/>
+      <c r="E170" s="176"/>
       <c r="F170" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G170" s="211"/>
-      <c r="H170" s="211"/>
-      <c r="I170" s="213"/>
+      <c r="G170" s="154"/>
+      <c r="H170" s="154"/>
+      <c r="I170" s="160"/>
     </row>
     <row r="171" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B171" s="225"/>
-      <c r="C171" s="179" t="s">
+      <c r="B171" s="222"/>
+      <c r="C171" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="D171" s="177" t="s">
+      <c r="D171" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="E171" s="222" t="s">
+      <c r="E171" s="174" t="s">
         <v>153</v>
       </c>
       <c r="F171" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="G171" s="227" t="s">
+      <c r="G171" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="H171" s="227" t="s">
+      <c r="H171" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="I171" s="221" t="s">
+      <c r="I171" s="158" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="172" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B172" s="225"/>
-      <c r="C172" s="180"/>
-      <c r="D172" s="178"/>
-      <c r="E172" s="223"/>
+      <c r="B172" s="222"/>
+      <c r="C172" s="193"/>
+      <c r="D172" s="188"/>
+      <c r="E172" s="187"/>
       <c r="F172" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G172" s="195"/>
-      <c r="H172" s="195"/>
-      <c r="I172" s="187"/>
+      <c r="G172" s="184"/>
+      <c r="H172" s="184"/>
+      <c r="I172" s="186"/>
     </row>
     <row r="173" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B173" s="225"/>
-      <c r="C173" s="180"/>
-      <c r="D173" s="182" t="s">
+      <c r="B173" s="222"/>
+      <c r="C173" s="193"/>
+      <c r="D173" s="191" t="s">
         <v>158</v>
       </c>
-      <c r="E173" s="214" t="s">
+      <c r="E173" s="190" t="s">
         <v>159</v>
       </c>
       <c r="F173" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="G173" s="193" t="s">
+      <c r="G173" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="H173" s="193" t="s">
+      <c r="H173" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="I173" s="185" t="s">
+      <c r="I173" s="189" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="174" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B174" s="226"/>
-      <c r="C174" s="217"/>
-      <c r="D174" s="216"/>
-      <c r="E174" s="215"/>
+      <c r="B174" s="223"/>
+      <c r="C174" s="194"/>
+      <c r="D174" s="173"/>
+      <c r="E174" s="176"/>
       <c r="F174" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G174" s="211"/>
-      <c r="H174" s="211"/>
-      <c r="I174" s="213"/>
+      <c r="G174" s="154"/>
+      <c r="H174" s="154"/>
+      <c r="I174" s="160"/>
     </row>
     <row r="175" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B175" s="162" t="s">
+      <c r="B175" s="231" t="s">
         <v>163</v>
       </c>
-      <c r="C175" s="162" t="s">
+      <c r="C175" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="D175" s="160" t="s">
+      <c r="D175" s="229" t="s">
         <v>165</v>
       </c>
-      <c r="E175" s="163" t="s">
+      <c r="E175" s="230" t="s">
         <v>166</v>
       </c>
       <c r="F175" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G175" s="163" t="s">
+      <c r="G175" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="H175" s="163" t="s">
+      <c r="H175" s="230" t="s">
         <v>169</v>
       </c>
-      <c r="I175" s="163" t="s">
+      <c r="I175" s="230" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B176" s="162"/>
-      <c r="C176" s="162"/>
-      <c r="D176" s="160"/>
-      <c r="E176" s="163"/>
+      <c r="B176" s="231"/>
+      <c r="C176" s="231"/>
+      <c r="D176" s="229"/>
+      <c r="E176" s="230"/>
       <c r="F176" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="G176" s="163"/>
-      <c r="H176" s="163"/>
-      <c r="I176" s="163"/>
+      <c r="G176" s="230"/>
+      <c r="H176" s="230"/>
+      <c r="I176" s="230"/>
     </row>
     <row r="177" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B177" s="162"/>
-      <c r="C177" s="162"/>
-      <c r="D177" s="160"/>
-      <c r="E177" s="163"/>
+      <c r="B177" s="231"/>
+      <c r="C177" s="231"/>
+      <c r="D177" s="229"/>
+      <c r="E177" s="230"/>
       <c r="F177" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="G177" s="163"/>
-      <c r="H177" s="163"/>
-      <c r="I177" s="163"/>
+      <c r="G177" s="230"/>
+      <c r="H177" s="230"/>
+      <c r="I177" s="230"/>
     </row>
     <row r="178" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B178" s="162"/>
-      <c r="C178" s="162" t="s">
+      <c r="B178" s="231"/>
+      <c r="C178" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="D178" s="162" t="s">
+      <c r="D178" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="E178" s="163" t="s">
+      <c r="E178" s="230" t="s">
         <v>174</v>
       </c>
       <c r="F178" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="G178" s="163" t="s">
+      <c r="G178" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="H178" s="163" t="s">
+      <c r="H178" s="230" t="s">
         <v>177</v>
       </c>
-      <c r="I178" s="163" t="s">
+      <c r="I178" s="230" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="179" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B179" s="162"/>
-      <c r="C179" s="162"/>
-      <c r="D179" s="162"/>
-      <c r="E179" s="163"/>
+      <c r="B179" s="231"/>
+      <c r="C179" s="231"/>
+      <c r="D179" s="231"/>
+      <c r="E179" s="230"/>
       <c r="F179" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G179" s="163"/>
-      <c r="H179" s="163"/>
-      <c r="I179" s="163"/>
+      <c r="G179" s="230"/>
+      <c r="H179" s="230"/>
+      <c r="I179" s="230"/>
     </row>
     <row r="180" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B180" s="162"/>
-      <c r="C180" s="162"/>
-      <c r="D180" s="162"/>
-      <c r="E180" s="163"/>
+      <c r="B180" s="231"/>
+      <c r="C180" s="231"/>
+      <c r="D180" s="231"/>
+      <c r="E180" s="230"/>
       <c r="F180" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="G180" s="163"/>
-      <c r="H180" s="163"/>
-      <c r="I180" s="163"/>
+      <c r="G180" s="230"/>
+      <c r="H180" s="230"/>
+      <c r="I180" s="230"/>
     </row>
     <row r="181" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B181" s="162"/>
-      <c r="C181" s="162"/>
-      <c r="D181" s="162"/>
-      <c r="E181" s="163"/>
-      <c r="F181" s="164" t="s">
+      <c r="B181" s="231"/>
+      <c r="C181" s="231"/>
+      <c r="D181" s="231"/>
+      <c r="E181" s="230"/>
+      <c r="F181" s="232" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="163"/>
-      <c r="H181" s="163"/>
-      <c r="I181" s="163"/>
+      <c r="G181" s="230"/>
+      <c r="H181" s="230"/>
+      <c r="I181" s="230"/>
     </row>
     <row r="182" spans="2:9">
-      <c r="B182" s="162"/>
-      <c r="C182" s="162"/>
-      <c r="D182" s="162"/>
-      <c r="E182" s="163"/>
-      <c r="F182" s="164"/>
-      <c r="G182" s="163"/>
-      <c r="H182" s="163"/>
-      <c r="I182" s="163"/>
+      <c r="B182" s="231"/>
+      <c r="C182" s="231"/>
+      <c r="D182" s="231"/>
+      <c r="E182" s="230"/>
+      <c r="F182" s="232"/>
+      <c r="G182" s="230"/>
+      <c r="H182" s="230"/>
+      <c r="I182" s="230"/>
     </row>
     <row r="183" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B183" s="162"/>
-      <c r="C183" s="165" t="s">
+      <c r="B183" s="231"/>
+      <c r="C183" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="D183" s="162" t="s">
+      <c r="D183" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="E183" s="163" t="s">
+      <c r="E183" s="230" t="s">
         <v>183</v>
       </c>
       <c r="F183" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="G183" s="163" t="s">
+      <c r="G183" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="H183" s="163" t="s">
+      <c r="H183" s="230" t="s">
         <v>176</v>
       </c>
-      <c r="I183" s="163" t="s">
+      <c r="I183" s="230" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="184" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B184" s="162"/>
-      <c r="C184" s="165"/>
-      <c r="D184" s="162"/>
-      <c r="E184" s="163"/>
+      <c r="B184" s="231"/>
+      <c r="C184" s="233"/>
+      <c r="D184" s="231"/>
+      <c r="E184" s="230"/>
       <c r="F184" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G184" s="163"/>
-      <c r="H184" s="163"/>
-      <c r="I184" s="163"/>
+      <c r="G184" s="230"/>
+      <c r="H184" s="230"/>
+      <c r="I184" s="230"/>
     </row>
     <row r="185" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B185" s="162"/>
-      <c r="C185" s="165"/>
-      <c r="D185" s="162"/>
-      <c r="E185" s="163"/>
+      <c r="B185" s="231"/>
+      <c r="C185" s="233"/>
+      <c r="D185" s="231"/>
+      <c r="E185" s="230"/>
       <c r="F185" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="G185" s="163"/>
-      <c r="H185" s="163"/>
-      <c r="I185" s="163"/>
+      <c r="G185" s="230"/>
+      <c r="H185" s="230"/>
+      <c r="I185" s="230"/>
     </row>
     <row r="186" spans="2:9">
-      <c r="B186" s="162"/>
-      <c r="C186" s="165"/>
-      <c r="D186" s="162"/>
-      <c r="E186" s="163"/>
-      <c r="F186" s="164" t="s">
+      <c r="B186" s="231"/>
+      <c r="C186" s="233"/>
+      <c r="D186" s="231"/>
+      <c r="E186" s="230"/>
+      <c r="F186" s="232" t="s">
         <v>185</v>
       </c>
-      <c r="G186" s="163"/>
-      <c r="H186" s="163"/>
-      <c r="I186" s="163"/>
+      <c r="G186" s="230"/>
+      <c r="H186" s="230"/>
+      <c r="I186" s="230"/>
     </row>
     <row r="187" spans="2:9">
-      <c r="B187" s="162"/>
-      <c r="C187" s="165"/>
-      <c r="D187" s="162"/>
-      <c r="E187" s="163"/>
-      <c r="F187" s="164"/>
-      <c r="G187" s="163"/>
-      <c r="H187" s="163"/>
-      <c r="I187" s="163"/>
+      <c r="B187" s="231"/>
+      <c r="C187" s="233"/>
+      <c r="D187" s="231"/>
+      <c r="E187" s="230"/>
+      <c r="F187" s="232"/>
+      <c r="G187" s="230"/>
+      <c r="H187" s="230"/>
+      <c r="I187" s="230"/>
     </row>
     <row r="188" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B188" s="162"/>
-      <c r="C188" s="161" t="s">
+      <c r="B188" s="231"/>
+      <c r="C188" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="D188" s="166" t="s">
+      <c r="D188" s="225" t="s">
         <v>182</v>
       </c>
-      <c r="E188" s="166" t="s">
+      <c r="E188" s="225" t="s">
         <v>186</v>
       </c>
       <c r="F188" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G188" s="160" t="s">
+      <c r="G188" s="229" t="s">
         <v>188</v>
       </c>
-      <c r="H188" s="160" t="s">
+      <c r="H188" s="229" t="s">
         <v>188</v>
       </c>
-      <c r="I188" s="163" t="s">
+      <c r="I188" s="230" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="189" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B189" s="162"/>
-      <c r="C189" s="161"/>
-      <c r="D189" s="166"/>
-      <c r="E189" s="166"/>
+      <c r="B189" s="231"/>
+      <c r="C189" s="224"/>
+      <c r="D189" s="225"/>
+      <c r="E189" s="225"/>
       <c r="F189" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="G189" s="160"/>
-      <c r="H189" s="160"/>
-      <c r="I189" s="163"/>
+      <c r="G189" s="229"/>
+      <c r="H189" s="229"/>
+      <c r="I189" s="230"/>
     </row>
     <row r="190" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B190" s="162"/>
-      <c r="C190" s="161"/>
-      <c r="D190" s="166"/>
-      <c r="E190" s="166"/>
+      <c r="B190" s="231"/>
+      <c r="C190" s="224"/>
+      <c r="D190" s="225"/>
+      <c r="E190" s="225"/>
       <c r="F190" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G190" s="160"/>
-      <c r="H190" s="160"/>
-      <c r="I190" s="163"/>
+      <c r="G190" s="229"/>
+      <c r="H190" s="229"/>
+      <c r="I190" s="230"/>
     </row>
     <row r="191" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B191" s="157" t="s">
+      <c r="B191" s="245" t="s">
         <v>190</v>
       </c>
       <c r="C191" s="55" t="s">
@@ -8741,635 +8741,635 @@
       </c>
     </row>
     <row r="192" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B192" s="158"/>
-      <c r="C192" s="154" t="s">
+      <c r="B192" s="246"/>
+      <c r="C192" s="242" t="s">
         <v>195</v>
       </c>
-      <c r="D192" s="154" t="s">
+      <c r="D192" s="242" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="151" t="s">
+      <c r="E192" s="239" t="s">
         <v>197</v>
       </c>
       <c r="F192" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G192" s="151" t="s">
+      <c r="G192" s="239" t="s">
         <v>198</v>
       </c>
-      <c r="H192" s="151" t="s">
+      <c r="H192" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="I192" s="151" t="s">
+      <c r="I192" s="239" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="193" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B193" s="158"/>
-      <c r="C193" s="155"/>
-      <c r="D193" s="155"/>
-      <c r="E193" s="152"/>
+      <c r="B193" s="246"/>
+      <c r="C193" s="243"/>
+      <c r="D193" s="243"/>
+      <c r="E193" s="240"/>
       <c r="F193" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="G193" s="152"/>
-      <c r="H193" s="152"/>
-      <c r="I193" s="152"/>
+      <c r="G193" s="240"/>
+      <c r="H193" s="240"/>
+      <c r="I193" s="240"/>
     </row>
     <row r="194" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B194" s="158"/>
-      <c r="C194" s="155"/>
-      <c r="D194" s="155"/>
-      <c r="E194" s="152"/>
+      <c r="B194" s="246"/>
+      <c r="C194" s="243"/>
+      <c r="D194" s="243"/>
+      <c r="E194" s="240"/>
       <c r="F194" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="G194" s="152"/>
-      <c r="H194" s="152"/>
-      <c r="I194" s="152"/>
+      <c r="G194" s="240"/>
+      <c r="H194" s="240"/>
+      <c r="I194" s="240"/>
     </row>
     <row r="195" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B195" s="158"/>
-      <c r="C195" s="155"/>
-      <c r="D195" s="155"/>
-      <c r="E195" s="152"/>
-      <c r="F195" s="149" t="s">
+      <c r="B195" s="246"/>
+      <c r="C195" s="243"/>
+      <c r="D195" s="243"/>
+      <c r="E195" s="240"/>
+      <c r="F195" s="237" t="s">
         <v>201</v>
       </c>
-      <c r="G195" s="152"/>
-      <c r="H195" s="152"/>
-      <c r="I195" s="152"/>
+      <c r="G195" s="240"/>
+      <c r="H195" s="240"/>
+      <c r="I195" s="240"/>
     </row>
     <row r="196" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B196" s="158"/>
-      <c r="C196" s="156"/>
-      <c r="D196" s="156"/>
-      <c r="E196" s="153"/>
-      <c r="F196" s="150"/>
-      <c r="G196" s="153"/>
-      <c r="H196" s="153"/>
-      <c r="I196" s="153"/>
+      <c r="B196" s="246"/>
+      <c r="C196" s="244"/>
+      <c r="D196" s="244"/>
+      <c r="E196" s="241"/>
+      <c r="F196" s="238"/>
+      <c r="G196" s="241"/>
+      <c r="H196" s="241"/>
+      <c r="I196" s="241"/>
     </row>
     <row r="197" spans="2:9" ht="13.95" customHeight="1">
-      <c r="B197" s="158"/>
-      <c r="C197" s="154" t="s">
+      <c r="B197" s="246"/>
+      <c r="C197" s="242" t="s">
         <v>202</v>
       </c>
-      <c r="D197" s="154" t="s">
+      <c r="D197" s="242" t="s">
         <v>203</v>
       </c>
-      <c r="E197" s="151" t="s">
+      <c r="E197" s="239" t="s">
         <v>204</v>
       </c>
-      <c r="F197" s="149" t="s">
+      <c r="F197" s="237" t="s">
         <v>205</v>
       </c>
-      <c r="G197" s="151" t="s">
+      <c r="G197" s="239" t="s">
         <v>206</v>
       </c>
-      <c r="H197" s="151" t="s">
+      <c r="H197" s="239" t="s">
         <v>206</v>
       </c>
-      <c r="I197" s="151" t="s">
+      <c r="I197" s="239" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="198" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B198" s="158"/>
-      <c r="C198" s="155"/>
-      <c r="D198" s="155"/>
-      <c r="E198" s="152"/>
-      <c r="F198" s="150"/>
-      <c r="G198" s="152"/>
-      <c r="H198" s="152"/>
-      <c r="I198" s="152"/>
+      <c r="B198" s="246"/>
+      <c r="C198" s="243"/>
+      <c r="D198" s="243"/>
+      <c r="E198" s="240"/>
+      <c r="F198" s="238"/>
+      <c r="G198" s="240"/>
+      <c r="H198" s="240"/>
+      <c r="I198" s="240"/>
     </row>
     <row r="199" spans="2:9" ht="10.199999999999999" customHeight="1">
-      <c r="B199" s="158"/>
-      <c r="C199" s="156"/>
-      <c r="D199" s="156"/>
-      <c r="E199" s="153"/>
+      <c r="B199" s="246"/>
+      <c r="C199" s="244"/>
+      <c r="D199" s="244"/>
+      <c r="E199" s="241"/>
       <c r="F199" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="G199" s="153"/>
-      <c r="H199" s="153"/>
-      <c r="I199" s="153"/>
+      <c r="G199" s="241"/>
+      <c r="H199" s="241"/>
+      <c r="I199" s="241"/>
     </row>
     <row r="200" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B200" s="158"/>
-      <c r="C200" s="157" t="s">
+      <c r="B200" s="246"/>
+      <c r="C200" s="245" t="s">
         <v>208</v>
       </c>
-      <c r="D200" s="157" t="s">
+      <c r="D200" s="245" t="s">
         <v>209</v>
       </c>
-      <c r="E200" s="291" t="s">
+      <c r="E200" s="248" t="s">
         <v>208</v>
       </c>
       <c r="F200" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="G200" s="157" t="s">
+      <c r="G200" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="H200" s="157" t="s">
+      <c r="H200" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="I200" s="157" t="s">
+      <c r="I200" s="245" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="201" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B201" s="159"/>
-      <c r="C201" s="159"/>
-      <c r="D201" s="159"/>
-      <c r="E201" s="292"/>
+      <c r="B201" s="247"/>
+      <c r="C201" s="247"/>
+      <c r="D201" s="247"/>
+      <c r="E201" s="249"/>
       <c r="F201" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="G201" s="159"/>
-      <c r="H201" s="159"/>
-      <c r="I201" s="159"/>
+      <c r="G201" s="247"/>
+      <c r="H201" s="247"/>
+      <c r="I201" s="247"/>
     </row>
     <row r="202" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B202" s="228" t="s">
+      <c r="B202" s="147" t="s">
         <v>433</v>
       </c>
-      <c r="C202" s="230" t="s">
+      <c r="C202" s="168" t="s">
         <v>434</v>
       </c>
-      <c r="D202" s="177" t="s">
+      <c r="D202" s="171" t="s">
         <v>435</v>
       </c>
-      <c r="E202" s="222" t="s">
+      <c r="E202" s="174" t="s">
         <v>436</v>
       </c>
       <c r="F202" s="101" t="s">
         <v>437</v>
       </c>
-      <c r="G202" s="227" t="s">
+      <c r="G202" s="152" t="s">
         <v>438</v>
       </c>
-      <c r="H202" s="227" t="s">
+      <c r="H202" s="152" t="s">
         <v>438</v>
       </c>
-      <c r="I202" s="221" t="s">
+      <c r="I202" s="158" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="203" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B203" s="229"/>
-      <c r="C203" s="231"/>
-      <c r="D203" s="183"/>
-      <c r="E203" s="290"/>
+      <c r="B203" s="148"/>
+      <c r="C203" s="169"/>
+      <c r="D203" s="172"/>
+      <c r="E203" s="175"/>
       <c r="F203" s="66" t="s">
         <v>439</v>
       </c>
-      <c r="G203" s="194"/>
-      <c r="H203" s="194"/>
-      <c r="I203" s="186"/>
+      <c r="G203" s="153"/>
+      <c r="H203" s="153"/>
+      <c r="I203" s="159"/>
     </row>
     <row r="204" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B204" s="229"/>
-      <c r="C204" s="231"/>
-      <c r="D204" s="183"/>
-      <c r="E204" s="290"/>
+      <c r="B204" s="148"/>
+      <c r="C204" s="169"/>
+      <c r="D204" s="172"/>
+      <c r="E204" s="175"/>
       <c r="F204" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="G204" s="194"/>
-      <c r="H204" s="194"/>
-      <c r="I204" s="186"/>
+      <c r="G204" s="153"/>
+      <c r="H204" s="153"/>
+      <c r="I204" s="159"/>
     </row>
     <row r="205" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B205" s="229"/>
-      <c r="C205" s="231"/>
-      <c r="D205" s="183"/>
-      <c r="E205" s="290"/>
+      <c r="B205" s="148"/>
+      <c r="C205" s="169"/>
+      <c r="D205" s="172"/>
+      <c r="E205" s="175"/>
       <c r="F205" s="66" t="s">
         <v>441</v>
       </c>
-      <c r="G205" s="194"/>
-      <c r="H205" s="194"/>
-      <c r="I205" s="186"/>
+      <c r="G205" s="153"/>
+      <c r="H205" s="153"/>
+      <c r="I205" s="159"/>
     </row>
     <row r="206" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B206" s="229"/>
-      <c r="C206" s="231"/>
-      <c r="D206" s="183"/>
-      <c r="E206" s="290"/>
+      <c r="B206" s="148"/>
+      <c r="C206" s="169"/>
+      <c r="D206" s="172"/>
+      <c r="E206" s="175"/>
       <c r="F206" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="G206" s="194"/>
-      <c r="H206" s="194"/>
-      <c r="I206" s="186"/>
+      <c r="G206" s="153"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="159"/>
     </row>
     <row r="207" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B207" s="229"/>
-      <c r="C207" s="231"/>
-      <c r="D207" s="183"/>
-      <c r="E207" s="290"/>
+      <c r="B207" s="148"/>
+      <c r="C207" s="169"/>
+      <c r="D207" s="172"/>
+      <c r="E207" s="175"/>
       <c r="F207" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="G207" s="194"/>
-      <c r="H207" s="194"/>
-      <c r="I207" s="186"/>
+      <c r="G207" s="153"/>
+      <c r="H207" s="153"/>
+      <c r="I207" s="159"/>
     </row>
     <row r="208" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B208" s="229"/>
-      <c r="C208" s="232"/>
-      <c r="D208" s="216"/>
-      <c r="E208" s="215"/>
+      <c r="B208" s="148"/>
+      <c r="C208" s="170"/>
+      <c r="D208" s="173"/>
+      <c r="E208" s="176"/>
       <c r="F208" s="102" t="s">
         <v>444</v>
       </c>
-      <c r="G208" s="211"/>
-      <c r="H208" s="211"/>
-      <c r="I208" s="213"/>
+      <c r="G208" s="154"/>
+      <c r="H208" s="154"/>
+      <c r="I208" s="160"/>
     </row>
     <row r="209" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B209" s="229"/>
-      <c r="C209" s="233" t="s">
+      <c r="B209" s="148"/>
+      <c r="C209" s="177" t="s">
         <v>445</v>
       </c>
-      <c r="D209" s="177" t="s">
+      <c r="D209" s="171" t="s">
         <v>446</v>
       </c>
-      <c r="E209" s="222" t="s">
+      <c r="E209" s="174" t="s">
         <v>447</v>
       </c>
       <c r="F209" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="G209" s="227" t="s">
+      <c r="G209" s="152" t="s">
         <v>449</v>
       </c>
-      <c r="H209" s="227" t="s">
+      <c r="H209" s="152" t="s">
         <v>450</v>
       </c>
-      <c r="I209" s="221" t="s">
+      <c r="I209" s="158" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="210" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B210" s="229"/>
-      <c r="C210" s="234"/>
-      <c r="D210" s="183"/>
-      <c r="E210" s="290"/>
+      <c r="B210" s="148"/>
+      <c r="C210" s="178"/>
+      <c r="D210" s="172"/>
+      <c r="E210" s="175"/>
       <c r="F210" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="G210" s="194"/>
-      <c r="H210" s="194"/>
-      <c r="I210" s="186"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="159"/>
     </row>
     <row r="211" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B211" s="229"/>
-      <c r="C211" s="234"/>
-      <c r="D211" s="183"/>
-      <c r="E211" s="290"/>
+      <c r="B211" s="148"/>
+      <c r="C211" s="178"/>
+      <c r="D211" s="172"/>
+      <c r="E211" s="175"/>
       <c r="F211" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="G211" s="194"/>
-      <c r="H211" s="194"/>
-      <c r="I211" s="186"/>
+      <c r="G211" s="153"/>
+      <c r="H211" s="153"/>
+      <c r="I211" s="159"/>
     </row>
     <row r="212" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B212" s="229"/>
-      <c r="C212" s="234"/>
-      <c r="D212" s="183"/>
-      <c r="E212" s="290"/>
+      <c r="B212" s="148"/>
+      <c r="C212" s="178"/>
+      <c r="D212" s="172"/>
+      <c r="E212" s="175"/>
       <c r="F212" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="G212" s="194"/>
-      <c r="H212" s="194"/>
-      <c r="I212" s="186"/>
+      <c r="G212" s="153"/>
+      <c r="H212" s="153"/>
+      <c r="I212" s="159"/>
     </row>
     <row r="213" spans="2:9" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B213" s="229"/>
-      <c r="C213" s="235"/>
-      <c r="D213" s="216"/>
-      <c r="E213" s="215"/>
+      <c r="B213" s="148"/>
+      <c r="C213" s="179"/>
+      <c r="D213" s="173"/>
+      <c r="E213" s="176"/>
       <c r="F213" s="103" t="s">
         <v>454</v>
       </c>
-      <c r="G213" s="211"/>
-      <c r="H213" s="211"/>
-      <c r="I213" s="213"/>
+      <c r="G213" s="154"/>
+      <c r="H213" s="154"/>
+      <c r="I213" s="160"/>
     </row>
     <row r="214" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B214" s="229"/>
-      <c r="C214" s="236" t="s">
+      <c r="B214" s="148"/>
+      <c r="C214" s="166" t="s">
         <v>455</v>
       </c>
-      <c r="D214" s="177" t="s">
+      <c r="D214" s="171" t="s">
         <v>456</v>
       </c>
-      <c r="E214" s="222" t="s">
+      <c r="E214" s="174" t="s">
         <v>457</v>
       </c>
       <c r="F214" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="G214" s="227" t="s">
+      <c r="G214" s="152" t="s">
         <v>459</v>
       </c>
-      <c r="H214" s="227" t="s">
+      <c r="H214" s="152" t="s">
         <v>459</v>
       </c>
-      <c r="I214" s="221" t="s">
+      <c r="I214" s="158" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="215" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B215" s="229"/>
-      <c r="C215" s="237"/>
-      <c r="D215" s="183"/>
-      <c r="E215" s="290"/>
+      <c r="B215" s="148"/>
+      <c r="C215" s="167"/>
+      <c r="D215" s="172"/>
+      <c r="E215" s="175"/>
       <c r="F215" s="66" t="s">
         <v>460</v>
       </c>
-      <c r="G215" s="194"/>
-      <c r="H215" s="194"/>
-      <c r="I215" s="186"/>
+      <c r="G215" s="153"/>
+      <c r="H215" s="153"/>
+      <c r="I215" s="159"/>
     </row>
     <row r="216" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B216" s="229"/>
-      <c r="C216" s="237"/>
-      <c r="D216" s="183"/>
-      <c r="E216" s="290"/>
+      <c r="B216" s="148"/>
+      <c r="C216" s="167"/>
+      <c r="D216" s="172"/>
+      <c r="E216" s="175"/>
       <c r="F216" s="66" t="s">
         <v>461</v>
       </c>
-      <c r="G216" s="194"/>
-      <c r="H216" s="194"/>
-      <c r="I216" s="186"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="159"/>
     </row>
     <row r="217" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B217" s="229"/>
-      <c r="C217" s="237"/>
-      <c r="D217" s="183"/>
-      <c r="E217" s="290"/>
+      <c r="B217" s="148"/>
+      <c r="C217" s="167"/>
+      <c r="D217" s="172"/>
+      <c r="E217" s="175"/>
       <c r="F217" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="G217" s="194"/>
-      <c r="H217" s="194"/>
-      <c r="I217" s="186"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="159"/>
     </row>
     <row r="218" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B218" s="229"/>
-      <c r="C218" s="237"/>
-      <c r="D218" s="183"/>
-      <c r="E218" s="290"/>
+      <c r="B218" s="148"/>
+      <c r="C218" s="167"/>
+      <c r="D218" s="172"/>
+      <c r="E218" s="175"/>
       <c r="F218" s="67"/>
-      <c r="G218" s="194"/>
-      <c r="H218" s="194"/>
-      <c r="I218" s="186"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="159"/>
     </row>
     <row r="219" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B219" s="228" t="s">
+      <c r="B219" s="147" t="s">
         <v>462</v>
       </c>
-      <c r="C219" s="238" t="s">
+      <c r="C219" s="149" t="s">
         <v>463</v>
       </c>
-      <c r="D219" s="227" t="s">
+      <c r="D219" s="152" t="s">
         <v>464</v>
       </c>
-      <c r="E219" s="241" t="s">
+      <c r="E219" s="155" t="s">
         <v>465</v>
       </c>
       <c r="F219" s="101" t="s">
         <v>466</v>
       </c>
-      <c r="G219" s="227" t="s">
+      <c r="G219" s="152" t="s">
         <v>467</v>
       </c>
-      <c r="H219" s="227" t="s">
+      <c r="H219" s="152" t="s">
         <v>467</v>
       </c>
-      <c r="I219" s="221" t="s">
+      <c r="I219" s="158" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="220" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B220" s="229"/>
-      <c r="C220" s="239"/>
-      <c r="D220" s="194"/>
-      <c r="E220" s="242"/>
+      <c r="B220" s="148"/>
+      <c r="C220" s="150"/>
+      <c r="D220" s="153"/>
+      <c r="E220" s="156"/>
       <c r="F220" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="G220" s="194"/>
-      <c r="H220" s="194"/>
-      <c r="I220" s="186"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="159"/>
     </row>
     <row r="221" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B221" s="229"/>
-      <c r="C221" s="239"/>
-      <c r="D221" s="194"/>
-      <c r="E221" s="242"/>
+      <c r="B221" s="148"/>
+      <c r="C221" s="150"/>
+      <c r="D221" s="153"/>
+      <c r="E221" s="156"/>
       <c r="F221" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="G221" s="194"/>
-      <c r="H221" s="194"/>
-      <c r="I221" s="186"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="159"/>
     </row>
     <row r="222" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B222" s="229"/>
-      <c r="C222" s="240"/>
-      <c r="D222" s="211"/>
-      <c r="E222" s="243"/>
+      <c r="B222" s="148"/>
+      <c r="C222" s="151"/>
+      <c r="D222" s="154"/>
+      <c r="E222" s="157"/>
       <c r="F222" s="102" t="s">
         <v>470</v>
       </c>
-      <c r="G222" s="211"/>
-      <c r="H222" s="211"/>
-      <c r="I222" s="213"/>
+      <c r="G222" s="154"/>
+      <c r="H222" s="154"/>
+      <c r="I222" s="160"/>
     </row>
     <row r="223" spans="2:9" ht="13.5" customHeight="1">
-      <c r="B223" s="229"/>
-      <c r="C223" s="238" t="s">
+      <c r="B223" s="148"/>
+      <c r="C223" s="149" t="s">
         <v>471</v>
       </c>
-      <c r="D223" s="227" t="s">
+      <c r="D223" s="152" t="s">
         <v>472</v>
       </c>
-      <c r="E223" s="246" t="s">
+      <c r="E223" s="163" t="s">
         <v>471</v>
       </c>
       <c r="F223" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="G223" s="227" t="s">
+      <c r="G223" s="152" t="s">
         <v>474</v>
       </c>
-      <c r="H223" s="227" t="s">
+      <c r="H223" s="152" t="s">
         <v>467</v>
       </c>
-      <c r="I223" s="221" t="s">
+      <c r="I223" s="158" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="224" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B224" s="229"/>
-      <c r="C224" s="244"/>
-      <c r="D224" s="194"/>
-      <c r="E224" s="247"/>
+      <c r="B224" s="148"/>
+      <c r="C224" s="161"/>
+      <c r="D224" s="153"/>
+      <c r="E224" s="164"/>
       <c r="F224" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="G224" s="194"/>
-      <c r="H224" s="194"/>
-      <c r="I224" s="186"/>
+      <c r="G224" s="153"/>
+      <c r="H224" s="153"/>
+      <c r="I224" s="159"/>
     </row>
     <row r="225" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B225" s="229"/>
-      <c r="C225" s="244"/>
-      <c r="D225" s="194"/>
-      <c r="E225" s="247"/>
+      <c r="B225" s="148"/>
+      <c r="C225" s="161"/>
+      <c r="D225" s="153"/>
+      <c r="E225" s="164"/>
       <c r="F225" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="G225" s="194"/>
-      <c r="H225" s="194"/>
-      <c r="I225" s="186"/>
+      <c r="G225" s="153"/>
+      <c r="H225" s="153"/>
+      <c r="I225" s="159"/>
     </row>
     <row r="226" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B226" s="229"/>
-      <c r="C226" s="244"/>
-      <c r="D226" s="194"/>
-      <c r="E226" s="247"/>
+      <c r="B226" s="148"/>
+      <c r="C226" s="161"/>
+      <c r="D226" s="153"/>
+      <c r="E226" s="164"/>
       <c r="F226" s="66" t="s">
         <v>476</v>
       </c>
-      <c r="G226" s="194"/>
-      <c r="H226" s="194"/>
-      <c r="I226" s="186"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="159"/>
     </row>
     <row r="227" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B227" s="229"/>
-      <c r="C227" s="244"/>
-      <c r="D227" s="194"/>
-      <c r="E227" s="247"/>
+      <c r="B227" s="148"/>
+      <c r="C227" s="161"/>
+      <c r="D227" s="153"/>
+      <c r="E227" s="164"/>
       <c r="F227" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G227" s="194"/>
-      <c r="H227" s="194"/>
-      <c r="I227" s="186"/>
+      <c r="G227" s="153"/>
+      <c r="H227" s="153"/>
+      <c r="I227" s="159"/>
     </row>
     <row r="228" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B228" s="229"/>
-      <c r="C228" s="245"/>
-      <c r="D228" s="211"/>
-      <c r="E228" s="248"/>
+      <c r="B228" s="148"/>
+      <c r="C228" s="162"/>
+      <c r="D228" s="154"/>
+      <c r="E228" s="165"/>
       <c r="F228" s="102" t="s">
         <v>453</v>
       </c>
-      <c r="G228" s="211"/>
-      <c r="H228" s="211"/>
-      <c r="I228" s="213"/>
+      <c r="G228" s="154"/>
+      <c r="H228" s="154"/>
+      <c r="I228" s="160"/>
     </row>
     <row r="229" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B229" s="229"/>
-      <c r="C229" s="236" t="s">
+      <c r="B229" s="148"/>
+      <c r="C229" s="166" t="s">
         <v>478</v>
       </c>
-      <c r="D229" s="227" t="s">
+      <c r="D229" s="152" t="s">
         <v>479</v>
       </c>
-      <c r="E229" s="246" t="s">
+      <c r="E229" s="163" t="s">
         <v>480</v>
       </c>
       <c r="F229" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="G229" s="227" t="s">
+      <c r="G229" s="152" t="s">
         <v>481</v>
       </c>
-      <c r="H229" s="227" t="s">
+      <c r="H229" s="152" t="s">
         <v>467</v>
       </c>
-      <c r="I229" s="221" t="s">
+      <c r="I229" s="158" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="230" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B230" s="229"/>
-      <c r="C230" s="237"/>
-      <c r="D230" s="194"/>
-      <c r="E230" s="247"/>
+      <c r="B230" s="148"/>
+      <c r="C230" s="167"/>
+      <c r="D230" s="153"/>
+      <c r="E230" s="164"/>
       <c r="F230" s="66" t="s">
         <v>476</v>
       </c>
-      <c r="G230" s="194"/>
-      <c r="H230" s="194"/>
-      <c r="I230" s="186"/>
+      <c r="G230" s="153"/>
+      <c r="H230" s="153"/>
+      <c r="I230" s="159"/>
     </row>
     <row r="231" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B231" s="229"/>
-      <c r="C231" s="237"/>
-      <c r="D231" s="194"/>
-      <c r="E231" s="247"/>
+      <c r="B231" s="148"/>
+      <c r="C231" s="167"/>
+      <c r="D231" s="153"/>
+      <c r="E231" s="164"/>
       <c r="F231" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G231" s="194"/>
-      <c r="H231" s="194"/>
-      <c r="I231" s="186"/>
+      <c r="G231" s="153"/>
+      <c r="H231" s="153"/>
+      <c r="I231" s="159"/>
     </row>
     <row r="232" spans="2:9" ht="15" customHeight="1">
-      <c r="B232" s="229"/>
-      <c r="C232" s="237"/>
-      <c r="D232" s="194"/>
-      <c r="E232" s="247"/>
+      <c r="B232" s="148"/>
+      <c r="C232" s="167"/>
+      <c r="D232" s="153"/>
+      <c r="E232" s="164"/>
       <c r="F232" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="G232" s="194"/>
-      <c r="H232" s="194"/>
-      <c r="I232" s="186"/>
+      <c r="G232" s="153"/>
+      <c r="H232" s="153"/>
+      <c r="I232" s="159"/>
     </row>
     <row r="233" spans="2:9" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B233" s="229"/>
-      <c r="C233" s="237"/>
-      <c r="D233" s="194"/>
-      <c r="E233" s="247"/>
+      <c r="B233" s="148"/>
+      <c r="C233" s="167"/>
+      <c r="D233" s="153"/>
+      <c r="E233" s="164"/>
       <c r="F233" s="106" t="s">
         <v>482</v>
       </c>
-      <c r="G233" s="194"/>
-      <c r="H233" s="194"/>
-      <c r="I233" s="186"/>
+      <c r="G233" s="153"/>
+      <c r="H233" s="153"/>
+      <c r="I233" s="159"/>
     </row>
     <row r="234" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B234" s="146" t="s">
+      <c r="B234" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="C234" s="218" t="s">
+      <c r="C234" s="209" t="s">
         <v>212</v>
       </c>
-      <c r="D234" s="207" t="s">
+      <c r="D234" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="E234" s="205" t="s">
+      <c r="E234" s="195" t="s">
         <v>214</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G234" s="171" t="s">
+      <c r="G234" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="H234" s="171" t="s">
+      <c r="H234" s="180" t="s">
         <v>211</v>
       </c>
       <c r="I234" s="71" t="s">
@@ -9377,35 +9377,35 @@
       </c>
     </row>
     <row r="235" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B235" s="147"/>
-      <c r="C235" s="219"/>
-      <c r="D235" s="208"/>
-      <c r="E235" s="206"/>
+      <c r="B235" s="235"/>
+      <c r="C235" s="210"/>
+      <c r="D235" s="198"/>
+      <c r="E235" s="196"/>
       <c r="F235" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G235" s="172"/>
-      <c r="H235" s="172"/>
+      <c r="G235" s="181"/>
+      <c r="H235" s="181"/>
       <c r="I235" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="236" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B236" s="147"/>
-      <c r="C236" s="219"/>
-      <c r="D236" s="209" t="s">
+      <c r="B236" s="235"/>
+      <c r="C236" s="210"/>
+      <c r="D236" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="E236" s="196" t="s">
+      <c r="E236" s="250" t="s">
         <v>218</v>
       </c>
       <c r="F236" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G236" s="209" t="s">
+      <c r="G236" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="H236" s="209" t="s">
+      <c r="H236" s="182" t="s">
         <v>220</v>
       </c>
       <c r="I236" s="68" t="s">
@@ -9413,35 +9413,35 @@
       </c>
     </row>
     <row r="237" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B237" s="147"/>
-      <c r="C237" s="219"/>
-      <c r="D237" s="188"/>
-      <c r="E237" s="197"/>
+      <c r="B237" s="235"/>
+      <c r="C237" s="210"/>
+      <c r="D237" s="199"/>
+      <c r="E237" s="251"/>
       <c r="F237" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="G237" s="172"/>
-      <c r="H237" s="172"/>
+      <c r="G237" s="181"/>
+      <c r="H237" s="181"/>
       <c r="I237" s="69" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="238" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B238" s="147"/>
-      <c r="C238" s="219"/>
-      <c r="D238" s="209" t="s">
+      <c r="B238" s="235"/>
+      <c r="C238" s="210"/>
+      <c r="D238" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="E238" s="196" t="s">
+      <c r="E238" s="250" t="s">
         <v>223</v>
       </c>
       <c r="F238" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G238" s="209" t="s">
+      <c r="G238" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="H238" s="209" t="s">
+      <c r="H238" s="182" t="s">
         <v>220</v>
       </c>
       <c r="I238" s="68" t="s">
@@ -9449,15 +9449,15 @@
       </c>
     </row>
     <row r="239" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B239" s="148"/>
-      <c r="C239" s="220"/>
-      <c r="D239" s="210"/>
-      <c r="E239" s="198"/>
+      <c r="B239" s="236"/>
+      <c r="C239" s="211"/>
+      <c r="D239" s="183"/>
+      <c r="E239" s="252"/>
       <c r="F239" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G239" s="210"/>
-      <c r="H239" s="210"/>
+      <c r="G239" s="183"/>
+      <c r="H239" s="183"/>
       <c r="I239" s="14" t="s">
         <v>52</v>
       </c>
@@ -9470,62 +9470,132 @@
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="B219:B233"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="D219:D222"/>
-    <mergeCell ref="E219:E222"/>
-    <mergeCell ref="G219:G222"/>
-    <mergeCell ref="H219:H222"/>
-    <mergeCell ref="I219:I222"/>
-    <mergeCell ref="C223:C228"/>
-    <mergeCell ref="D223:D228"/>
-    <mergeCell ref="E223:E228"/>
-    <mergeCell ref="G223:G228"/>
-    <mergeCell ref="H223:H228"/>
-    <mergeCell ref="I223:I228"/>
-    <mergeCell ref="C229:C233"/>
-    <mergeCell ref="D229:D233"/>
-    <mergeCell ref="E229:E233"/>
-    <mergeCell ref="G229:G233"/>
-    <mergeCell ref="H229:H233"/>
-    <mergeCell ref="I229:I233"/>
-    <mergeCell ref="B202:B218"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="D202:D208"/>
-    <mergeCell ref="E202:E208"/>
-    <mergeCell ref="G202:G208"/>
-    <mergeCell ref="H202:H208"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="C209:C213"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="E209:E213"/>
-    <mergeCell ref="G209:G213"/>
-    <mergeCell ref="H209:H213"/>
-    <mergeCell ref="I209:I213"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="D214:D218"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="H214:H218"/>
-    <mergeCell ref="I214:I218"/>
-    <mergeCell ref="G234:G235"/>
-    <mergeCell ref="H234:H235"/>
-    <mergeCell ref="G236:G237"/>
-    <mergeCell ref="H236:H237"/>
-    <mergeCell ref="G238:G239"/>
-    <mergeCell ref="H238:H239"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="H15:H25"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="I192:I196"/>
+    <mergeCell ref="H192:H196"/>
+    <mergeCell ref="G192:G196"/>
+    <mergeCell ref="E192:E196"/>
+    <mergeCell ref="D192:D196"/>
+    <mergeCell ref="C192:C196"/>
+    <mergeCell ref="B191:B201"/>
+    <mergeCell ref="I200:I201"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="G200:G201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="I197:I199"/>
+    <mergeCell ref="H197:H199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="I188:I190"/>
+    <mergeCell ref="B175:B190"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="H175:H177"/>
+    <mergeCell ref="I175:I177"/>
+    <mergeCell ref="C178:C182"/>
+    <mergeCell ref="D178:D182"/>
+    <mergeCell ref="E178:E182"/>
+    <mergeCell ref="G178:G182"/>
+    <mergeCell ref="H178:H182"/>
+    <mergeCell ref="I178:I182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="C183:C187"/>
+    <mergeCell ref="D183:D187"/>
+    <mergeCell ref="E183:E187"/>
+    <mergeCell ref="G183:G187"/>
+    <mergeCell ref="H183:H187"/>
+    <mergeCell ref="I183:I187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I15:I25"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="G80:G90"/>
+    <mergeCell ref="H80:H90"/>
+    <mergeCell ref="E80:E90"/>
+    <mergeCell ref="D80:D90"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="G26:G35"/>
+    <mergeCell ref="I47:I57"/>
+    <mergeCell ref="D58:D68"/>
+    <mergeCell ref="E58:E68"/>
+    <mergeCell ref="G58:G68"/>
+    <mergeCell ref="H58:H68"/>
+    <mergeCell ref="I58:I68"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="D36:D46"/>
+    <mergeCell ref="E36:E46"/>
+    <mergeCell ref="D92:D102"/>
+    <mergeCell ref="E92:E102"/>
+    <mergeCell ref="G92:G102"/>
+    <mergeCell ref="H92:H102"/>
+    <mergeCell ref="I92:I102"/>
+    <mergeCell ref="D103:D112"/>
+    <mergeCell ref="E103:E112"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="I103:I112"/>
+    <mergeCell ref="D113:D123"/>
+    <mergeCell ref="E113:E123"/>
+    <mergeCell ref="G113:G123"/>
+    <mergeCell ref="H113:H123"/>
+    <mergeCell ref="I113:I123"/>
+    <mergeCell ref="E135:E145"/>
+    <mergeCell ref="G135:G145"/>
+    <mergeCell ref="H135:H145"/>
+    <mergeCell ref="I135:I145"/>
+    <mergeCell ref="G124:G134"/>
+    <mergeCell ref="H124:H134"/>
+    <mergeCell ref="I124:I134"/>
+    <mergeCell ref="D135:D145"/>
+    <mergeCell ref="C14:C90"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D69:D79"/>
+    <mergeCell ref="E69:E79"/>
+    <mergeCell ref="G69:G79"/>
+    <mergeCell ref="H69:H79"/>
+    <mergeCell ref="I69:I79"/>
+    <mergeCell ref="I80:I90"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="E47:E57"/>
+    <mergeCell ref="G47:G57"/>
+    <mergeCell ref="H47:H57"/>
+    <mergeCell ref="G36:G46"/>
+    <mergeCell ref="H36:H46"/>
+    <mergeCell ref="I36:I46"/>
+    <mergeCell ref="E15:E25"/>
+    <mergeCell ref="D15:D25"/>
+    <mergeCell ref="G15:G25"/>
+    <mergeCell ref="B9:B174"/>
     <mergeCell ref="E234:E235"/>
     <mergeCell ref="D234:D235"/>
     <mergeCell ref="D236:D237"/>
@@ -9550,135 +9620,65 @@
     <mergeCell ref="D124:D134"/>
     <mergeCell ref="E124:E134"/>
     <mergeCell ref="C234:C239"/>
-    <mergeCell ref="C14:C90"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D69:D79"/>
-    <mergeCell ref="E69:E79"/>
-    <mergeCell ref="G69:G79"/>
-    <mergeCell ref="H69:H79"/>
-    <mergeCell ref="I69:I79"/>
-    <mergeCell ref="I80:I90"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="E47:E57"/>
-    <mergeCell ref="G47:G57"/>
-    <mergeCell ref="H47:H57"/>
-    <mergeCell ref="G36:G46"/>
-    <mergeCell ref="H36:H46"/>
-    <mergeCell ref="I36:I46"/>
-    <mergeCell ref="E15:E25"/>
-    <mergeCell ref="D15:D25"/>
-    <mergeCell ref="G15:G25"/>
-    <mergeCell ref="B9:B174"/>
-    <mergeCell ref="D113:D123"/>
-    <mergeCell ref="E113:E123"/>
-    <mergeCell ref="G113:G123"/>
-    <mergeCell ref="H113:H123"/>
-    <mergeCell ref="I113:I123"/>
-    <mergeCell ref="E135:E145"/>
-    <mergeCell ref="G135:G145"/>
-    <mergeCell ref="H135:H145"/>
-    <mergeCell ref="I135:I145"/>
-    <mergeCell ref="G124:G134"/>
-    <mergeCell ref="H124:H134"/>
-    <mergeCell ref="I124:I134"/>
-    <mergeCell ref="D135:D145"/>
-    <mergeCell ref="D92:D102"/>
-    <mergeCell ref="E92:E102"/>
-    <mergeCell ref="G92:G102"/>
-    <mergeCell ref="H92:H102"/>
-    <mergeCell ref="I92:I102"/>
-    <mergeCell ref="D103:D112"/>
-    <mergeCell ref="E103:E112"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="I103:I112"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="G234:G235"/>
+    <mergeCell ref="H234:H235"/>
+    <mergeCell ref="G236:G237"/>
+    <mergeCell ref="H236:H237"/>
+    <mergeCell ref="G238:G239"/>
+    <mergeCell ref="H238:H239"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H15:H25"/>
     <mergeCell ref="H26:H35"/>
-    <mergeCell ref="I47:I57"/>
-    <mergeCell ref="D58:D68"/>
-    <mergeCell ref="E58:E68"/>
-    <mergeCell ref="G58:G68"/>
-    <mergeCell ref="H58:H68"/>
-    <mergeCell ref="I58:I68"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="D36:D46"/>
-    <mergeCell ref="E36:E46"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I15:I25"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="G80:G90"/>
-    <mergeCell ref="H80:H90"/>
-    <mergeCell ref="E80:E90"/>
-    <mergeCell ref="D80:D90"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="G26:G35"/>
     <mergeCell ref="G188:G190"/>
     <mergeCell ref="H188:H190"/>
-    <mergeCell ref="I188:I190"/>
-    <mergeCell ref="B175:B190"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="H175:H177"/>
-    <mergeCell ref="I175:I177"/>
-    <mergeCell ref="C178:C182"/>
-    <mergeCell ref="D178:D182"/>
-    <mergeCell ref="E178:E182"/>
-    <mergeCell ref="G178:G182"/>
-    <mergeCell ref="H178:H182"/>
-    <mergeCell ref="I178:I182"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="C183:C187"/>
-    <mergeCell ref="D183:D187"/>
-    <mergeCell ref="E183:E187"/>
-    <mergeCell ref="G183:G187"/>
-    <mergeCell ref="H183:H187"/>
-    <mergeCell ref="I183:I187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="I192:I196"/>
-    <mergeCell ref="H192:H196"/>
-    <mergeCell ref="G192:G196"/>
-    <mergeCell ref="E192:E196"/>
-    <mergeCell ref="D192:D196"/>
-    <mergeCell ref="C192:C196"/>
-    <mergeCell ref="B191:B201"/>
-    <mergeCell ref="I200:I201"/>
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="I197:I199"/>
-    <mergeCell ref="H197:H199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="B202:B218"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="D202:D208"/>
+    <mergeCell ref="E202:E208"/>
+    <mergeCell ref="G202:G208"/>
+    <mergeCell ref="H202:H208"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="C209:C213"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="E209:E213"/>
+    <mergeCell ref="G209:G213"/>
+    <mergeCell ref="H209:H213"/>
+    <mergeCell ref="I209:I213"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="D214:D218"/>
+    <mergeCell ref="E214:E218"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="H214:H218"/>
+    <mergeCell ref="I214:I218"/>
+    <mergeCell ref="B219:B233"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="D219:D222"/>
+    <mergeCell ref="E219:E222"/>
+    <mergeCell ref="G219:G222"/>
+    <mergeCell ref="H219:H222"/>
+    <mergeCell ref="I219:I222"/>
+    <mergeCell ref="C223:C228"/>
+    <mergeCell ref="D223:D228"/>
+    <mergeCell ref="E223:E228"/>
+    <mergeCell ref="G223:G228"/>
+    <mergeCell ref="H223:H228"/>
+    <mergeCell ref="I223:I228"/>
+    <mergeCell ref="C229:C233"/>
+    <mergeCell ref="D229:D233"/>
+    <mergeCell ref="E229:E233"/>
+    <mergeCell ref="G229:G233"/>
+    <mergeCell ref="H229:H233"/>
+    <mergeCell ref="I229:I233"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9721,16 +9721,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="254" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" s="27" t="s">
@@ -9778,41 +9778,41 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.8">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="255" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="251" t="s">
+      <c r="D7" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="253" t="s">
+      <c r="E7" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="254"/>
-      <c r="G7" s="251" t="s">
+      <c r="F7" s="258"/>
+      <c r="G7" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="251" t="s">
+      <c r="H7" s="255" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.8">
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="252"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
       <c r="E8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" ht="14.4" customHeight="1">
-      <c r="B9" s="249" t="s">
+      <c r="B9" s="253" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="59" t="s">
@@ -9835,7 +9835,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="13" customFormat="1" ht="14.4">
-      <c r="B10" s="249"/>
+      <c r="B10" s="253"/>
       <c r="C10" s="59" t="s">
         <v>232</v>
       </c>
@@ -9856,7 +9856,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="13" customFormat="1" ht="14.4">
-      <c r="B11" s="249"/>
+      <c r="B11" s="253"/>
       <c r="C11" s="59" t="s">
         <v>234</v>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B12" s="249"/>
+      <c r="B12" s="253"/>
       <c r="C12" s="59" t="s">
         <v>236</v>
       </c>
@@ -9898,7 +9898,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B13" s="249"/>
+      <c r="B13" s="253"/>
       <c r="C13" s="59" t="s">
         <v>238</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="B14" s="249"/>
+      <c r="B14" s="253"/>
       <c r="C14" s="59" t="s">
         <v>240</v>
       </c>
@@ -10053,7 +10053,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -10070,16 +10070,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="212" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" s="21" t="s">
@@ -10129,41 +10129,41 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.8">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="255" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="258" t="s">
+      <c r="D7" s="262" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="253" t="s">
+      <c r="E7" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="254"/>
-      <c r="G7" s="251" t="s">
+      <c r="F7" s="258"/>
+      <c r="G7" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="251" t="s">
+      <c r="H7" s="255" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.8">
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="259"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="263"/>
       <c r="E8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="252"/>
-      <c r="H8" s="252"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="259" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="59" t="s">
@@ -10186,7 +10186,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B10" s="256"/>
+      <c r="B10" s="260"/>
       <c r="C10" s="59" t="s">
         <v>246</v>
       </c>
@@ -10207,7 +10207,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4">
-      <c r="B11" s="256"/>
+      <c r="B11" s="260"/>
       <c r="C11" s="59" t="s">
         <v>248</v>
       </c>
@@ -10228,7 +10228,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
-      <c r="B12" s="256"/>
+      <c r="B12" s="260"/>
       <c r="C12" s="59" t="s">
         <v>250</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4">
-      <c r="B13" s="256"/>
+      <c r="B13" s="260"/>
       <c r="C13" s="59" t="s">
         <v>252</v>
       </c>
@@ -10270,7 +10270,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="256"/>
+      <c r="B14" s="260"/>
       <c r="C14" s="59" t="s">
         <v>254</v>
       </c>
@@ -10291,7 +10291,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="256"/>
+      <c r="B15" s="260"/>
       <c r="C15" s="59" t="s">
         <v>256</v>
       </c>
@@ -10312,7 +10312,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="256"/>
+      <c r="B16" s="260"/>
       <c r="C16" s="59" t="s">
         <v>258</v>
       </c>
@@ -10333,7 +10333,7 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="257"/>
+      <c r="B17" s="261"/>
       <c r="C17" s="59" t="s">
         <v>260</v>
       </c>
@@ -10481,16 +10481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="212" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" s="31" t="s">
@@ -10543,224 +10543,224 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="255" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="251" t="s">
+      <c r="E7" s="255" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="251" t="s">
+      <c r="F7" s="255" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="251" t="s">
+      <c r="G7" s="255" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.8">
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
       <c r="D8" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="252"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="198" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="272" t="s">
         <v>264</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="208" t="s">
+      <c r="E9" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="261" t="s">
+      <c r="F9" s="269" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="209" t="s">
+      <c r="G9" s="182" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B10" s="208"/>
-      <c r="C10" s="260"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="272"/>
       <c r="D10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="208"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B11" s="166"/>
-      <c r="C11" s="260"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="272"/>
       <c r="D11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="208"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="194"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="153"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B12" s="166"/>
-      <c r="C12" s="260"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="272"/>
       <c r="D12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="208"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="194"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="153"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="166"/>
-      <c r="C13" s="260"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="272"/>
       <c r="D13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="208"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="194"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="153"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="166"/>
-      <c r="C14" s="260"/>
+      <c r="B14" s="225"/>
+      <c r="C14" s="272"/>
       <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="208"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="194"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="166"/>
-      <c r="C15" s="260"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="272"/>
       <c r="D15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="208"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="194"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="153"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="166"/>
-      <c r="C16" s="260"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="272"/>
       <c r="D16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="208"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="194"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="153"/>
     </row>
     <row r="17" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B17" s="166"/>
-      <c r="C17" s="260"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="272"/>
       <c r="D17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="208"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="194"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="153"/>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B18" s="166"/>
-      <c r="C18" s="260"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="272"/>
       <c r="D18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="208"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="194"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="153"/>
     </row>
     <row r="19" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B19" s="166"/>
-      <c r="C19" s="260"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="272"/>
       <c r="D19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="208"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="194"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="153"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="166"/>
-      <c r="C20" s="260"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="272"/>
       <c r="D20" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="194"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="153"/>
     </row>
     <row r="21" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="262" t="s">
+      <c r="C21" s="264" t="s">
         <v>268</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="182" t="s">
         <v>270</v>
       </c>
-      <c r="F21" s="209" t="s">
+      <c r="F21" s="182" t="s">
         <v>271</v>
       </c>
-      <c r="G21" s="209" t="s">
+      <c r="G21" s="182" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B22" s="194"/>
-      <c r="C22" s="194"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
       <c r="D22" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="194"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="194"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="153"/>
     </row>
     <row r="23" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="194"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="194"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="153"/>
     </row>
     <row r="24" spans="2:7" ht="26.4">
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E24" s="194"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="194"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="153"/>
     </row>
     <row r="25" spans="2:7" ht="12.75" customHeight="1">
-      <c r="B25" s="194"/>
-      <c r="C25" s="194"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="194"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="194"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="153"/>
     </row>
     <row r="26" spans="2:7" ht="52.8">
       <c r="B26" s="59" t="s">
@@ -10823,179 +10823,169 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B29" s="264" t="s">
+      <c r="B29" s="266" t="s">
         <v>286</v>
       </c>
-      <c r="C29" s="262" t="s">
+      <c r="C29" s="264" t="s">
         <v>287</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E29" s="209" t="s">
+      <c r="E29" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="F29" s="261" t="s">
+      <c r="F29" s="269" t="s">
         <v>290</v>
       </c>
-      <c r="G29" s="209" t="s">
+      <c r="G29" s="182" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B30" s="265"/>
-      <c r="C30" s="247"/>
+      <c r="B30" s="267"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="188"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="270"/>
+      <c r="G30" s="199"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B31" s="265"/>
-      <c r="C31" s="247"/>
+      <c r="B31" s="267"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="188"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="188"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="270"/>
+      <c r="G31" s="199"/>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B32" s="265"/>
-      <c r="C32" s="247"/>
+      <c r="B32" s="267"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="188"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="188"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="199"/>
     </row>
     <row r="33" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B33" s="265"/>
-      <c r="C33" s="247"/>
+      <c r="B33" s="267"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="188"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="188"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="199"/>
     </row>
     <row r="34" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B34" s="265"/>
-      <c r="C34" s="247"/>
+      <c r="B34" s="267"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="188"/>
-      <c r="F34" s="267"/>
-      <c r="G34" s="188"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="270"/>
+      <c r="G34" s="199"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="265"/>
-      <c r="C35" s="247"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="188"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="188"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="199"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="265"/>
-      <c r="C36" s="247"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="164"/>
       <c r="D36" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="188"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="188"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="270"/>
+      <c r="G36" s="199"/>
       <c r="H36" s="39"/>
     </row>
     <row r="37" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B37" s="265"/>
-      <c r="C37" s="247"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="164"/>
       <c r="D37" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="188"/>
-      <c r="F37" s="267"/>
-      <c r="G37" s="188"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="270"/>
+      <c r="G37" s="199"/>
       <c r="H37" s="39"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="265"/>
-      <c r="C38" s="247"/>
+      <c r="B38" s="267"/>
+      <c r="C38" s="164"/>
       <c r="D38" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="188"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="188"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="270"/>
+      <c r="G38" s="199"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="265"/>
-      <c r="C39" s="247"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="164"/>
       <c r="D39" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="188"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="188"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="270"/>
+      <c r="G39" s="199"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="266"/>
-      <c r="C40" s="263"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="265"/>
       <c r="D40" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="172"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="172"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="271"/>
+      <c r="G40" s="181"/>
     </row>
     <row r="41" spans="2:8" ht="51" customHeight="1">
-      <c r="B41" s="208" t="s">
+      <c r="B41" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="208" t="s">
+      <c r="C41" s="198" t="s">
         <v>292</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E41" s="208" t="s">
+      <c r="E41" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="F41" s="208" t="s">
+      <c r="F41" s="198" t="s">
         <v>294</v>
       </c>
-      <c r="G41" s="208" t="s">
+      <c r="G41" s="198" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="60" customHeight="1">
-      <c r="B42" s="208"/>
-      <c r="C42" s="208"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
       <c r="D42" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E42" s="208"/>
-      <c r="F42" s="208"/>
-      <c r="G42" s="208"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="E29:E40"/>
-    <mergeCell ref="F29:F40"/>
-    <mergeCell ref="G29:G40"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B9:B20"/>
@@ -11012,6 +11002,16 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="E29:E40"/>
+    <mergeCell ref="F29:F40"/>
+    <mergeCell ref="G29:G40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G21 JC21 SY21 ACU21 AMQ21 AWM21 BGI21 BQE21 CAA21 CJW21 CTS21 DDO21 DNK21 DXG21 EHC21 EQY21 FAU21 FKQ21 FUM21 GEI21 GOE21 GYA21 HHW21 HRS21 IBO21 ILK21 IVG21 JFC21 JOY21 JYU21 KIQ21 KSM21 LCI21 LME21 LWA21 MFW21 MPS21 MZO21 NJK21 NTG21 ODC21 OMY21 OWU21 PGQ21 PQM21 QAI21 QKE21 QUA21 RDW21 RNS21 RXO21 SHK21 SRG21 TBC21 TKY21 TUU21 UEQ21 UOM21 UYI21 VIE21 VSA21 WBW21 WLS21 WVO21 H65550 JD65550 SZ65550 ACV65550 AMR65550 AWN65550 BGJ65550 BQF65550 CAB65550 CJX65550 CTT65550 DDP65550 DNL65550 DXH65550 EHD65550 EQZ65550 FAV65550 FKR65550 FUN65550 GEJ65550 GOF65550 GYB65550 HHX65550 HRT65550 IBP65550 ILL65550 IVH65550 JFD65550 JOZ65550 JYV65550 KIR65550 KSN65550 LCJ65550 LMF65550 LWB65550 MFX65550 MPT65550 MZP65550 NJL65550 NTH65550 ODD65550 OMZ65550 OWV65550 PGR65550 PQN65550 QAJ65550 QKF65550 QUB65550 RDX65550 RNT65550 RXP65550 SHL65550 SRH65550 TBD65550 TKZ65550 TUV65550 UER65550 UON65550 UYJ65550 VIF65550 VSB65550 WBX65550 WLT65550 WVP65550 H131086 JD131086 SZ131086 ACV131086 AMR131086 AWN131086 BGJ131086 BQF131086 CAB131086 CJX131086 CTT131086 DDP131086 DNL131086 DXH131086 EHD131086 EQZ131086 FAV131086 FKR131086 FUN131086 GEJ131086 GOF131086 GYB131086 HHX131086 HRT131086 IBP131086 ILL131086 IVH131086 JFD131086 JOZ131086 JYV131086 KIR131086 KSN131086 LCJ131086 LMF131086 LWB131086 MFX131086 MPT131086 MZP131086 NJL131086 NTH131086 ODD131086 OMZ131086 OWV131086 PGR131086 PQN131086 QAJ131086 QKF131086 QUB131086 RDX131086 RNT131086 RXP131086 SHL131086 SRH131086 TBD131086 TKZ131086 TUV131086 UER131086 UON131086 UYJ131086 VIF131086 VSB131086 WBX131086 WLT131086 WVP131086 H196622 JD196622 SZ196622 ACV196622 AMR196622 AWN196622 BGJ196622 BQF196622 CAB196622 CJX196622 CTT196622 DDP196622 DNL196622 DXH196622 EHD196622 EQZ196622 FAV196622 FKR196622 FUN196622 GEJ196622 GOF196622 GYB196622 HHX196622 HRT196622 IBP196622 ILL196622 IVH196622 JFD196622 JOZ196622 JYV196622 KIR196622 KSN196622 LCJ196622 LMF196622 LWB196622 MFX196622 MPT196622 MZP196622 NJL196622 NTH196622 ODD196622 OMZ196622 OWV196622 PGR196622 PQN196622 QAJ196622 QKF196622 QUB196622 RDX196622 RNT196622 RXP196622 SHL196622 SRH196622 TBD196622 TKZ196622 TUV196622 UER196622 UON196622 UYJ196622 VIF196622 VSB196622 WBX196622 WLT196622 WVP196622 H262158 JD262158 SZ262158 ACV262158 AMR262158 AWN262158 BGJ262158 BQF262158 CAB262158 CJX262158 CTT262158 DDP262158 DNL262158 DXH262158 EHD262158 EQZ262158 FAV262158 FKR262158 FUN262158 GEJ262158 GOF262158 GYB262158 HHX262158 HRT262158 IBP262158 ILL262158 IVH262158 JFD262158 JOZ262158 JYV262158 KIR262158 KSN262158 LCJ262158 LMF262158 LWB262158 MFX262158 MPT262158 MZP262158 NJL262158 NTH262158 ODD262158 OMZ262158 OWV262158 PGR262158 PQN262158 QAJ262158 QKF262158 QUB262158 RDX262158 RNT262158 RXP262158 SHL262158 SRH262158 TBD262158 TKZ262158 TUV262158 UER262158 UON262158 UYJ262158 VIF262158 VSB262158 WBX262158 WLT262158 WVP262158 H327694 JD327694 SZ327694 ACV327694 AMR327694 AWN327694 BGJ327694 BQF327694 CAB327694 CJX327694 CTT327694 DDP327694 DNL327694 DXH327694 EHD327694 EQZ327694 FAV327694 FKR327694 FUN327694 GEJ327694 GOF327694 GYB327694 HHX327694 HRT327694 IBP327694 ILL327694 IVH327694 JFD327694 JOZ327694 JYV327694 KIR327694 KSN327694 LCJ327694 LMF327694 LWB327694 MFX327694 MPT327694 MZP327694 NJL327694 NTH327694 ODD327694 OMZ327694 OWV327694 PGR327694 PQN327694 QAJ327694 QKF327694 QUB327694 RDX327694 RNT327694 RXP327694 SHL327694 SRH327694 TBD327694 TKZ327694 TUV327694 UER327694 UON327694 UYJ327694 VIF327694 VSB327694 WBX327694 WLT327694 WVP327694 H393230 JD393230 SZ393230 ACV393230 AMR393230 AWN393230 BGJ393230 BQF393230 CAB393230 CJX393230 CTT393230 DDP393230 DNL393230 DXH393230 EHD393230 EQZ393230 FAV393230 FKR393230 FUN393230 GEJ393230 GOF393230 GYB393230 HHX393230 HRT393230 IBP393230 ILL393230 IVH393230 JFD393230 JOZ393230 JYV393230 KIR393230 KSN393230 LCJ393230 LMF393230 LWB393230 MFX393230 MPT393230 MZP393230 NJL393230 NTH393230 ODD393230 OMZ393230 OWV393230 PGR393230 PQN393230 QAJ393230 QKF393230 QUB393230 RDX393230 RNT393230 RXP393230 SHL393230 SRH393230 TBD393230 TKZ393230 TUV393230 UER393230 UON393230 UYJ393230 VIF393230 VSB393230 WBX393230 WLT393230 WVP393230 H458766 JD458766 SZ458766 ACV458766 AMR458766 AWN458766 BGJ458766 BQF458766 CAB458766 CJX458766 CTT458766 DDP458766 DNL458766 DXH458766 EHD458766 EQZ458766 FAV458766 FKR458766 FUN458766 GEJ458766 GOF458766 GYB458766 HHX458766 HRT458766 IBP458766 ILL458766 IVH458766 JFD458766 JOZ458766 JYV458766 KIR458766 KSN458766 LCJ458766 LMF458766 LWB458766 MFX458766 MPT458766 MZP458766 NJL458766 NTH458766 ODD458766 OMZ458766 OWV458766 PGR458766 PQN458766 QAJ458766 QKF458766 QUB458766 RDX458766 RNT458766 RXP458766 SHL458766 SRH458766 TBD458766 TKZ458766 TUV458766 UER458766 UON458766 UYJ458766 VIF458766 VSB458766 WBX458766 WLT458766 WVP458766 H524302 JD524302 SZ524302 ACV524302 AMR524302 AWN524302 BGJ524302 BQF524302 CAB524302 CJX524302 CTT524302 DDP524302 DNL524302 DXH524302 EHD524302 EQZ524302 FAV524302 FKR524302 FUN524302 GEJ524302 GOF524302 GYB524302 HHX524302 HRT524302 IBP524302 ILL524302 IVH524302 JFD524302 JOZ524302 JYV524302 KIR524302 KSN524302 LCJ524302 LMF524302 LWB524302 MFX524302 MPT524302 MZP524302 NJL524302 NTH524302 ODD524302 OMZ524302 OWV524302 PGR524302 PQN524302 QAJ524302 QKF524302 QUB524302 RDX524302 RNT524302 RXP524302 SHL524302 SRH524302 TBD524302 TKZ524302 TUV524302 UER524302 UON524302 UYJ524302 VIF524302 VSB524302 WBX524302 WLT524302 WVP524302 H589838 JD589838 SZ589838 ACV589838 AMR589838 AWN589838 BGJ589838 BQF589838 CAB589838 CJX589838 CTT589838 DDP589838 DNL589838 DXH589838 EHD589838 EQZ589838 FAV589838 FKR589838 FUN589838 GEJ589838 GOF589838 GYB589838 HHX589838 HRT589838 IBP589838 ILL589838 IVH589838 JFD589838 JOZ589838 JYV589838 KIR589838 KSN589838 LCJ589838 LMF589838 LWB589838 MFX589838 MPT589838 MZP589838 NJL589838 NTH589838 ODD589838 OMZ589838 OWV589838 PGR589838 PQN589838 QAJ589838 QKF589838 QUB589838 RDX589838 RNT589838 RXP589838 SHL589838 SRH589838 TBD589838 TKZ589838 TUV589838 UER589838 UON589838 UYJ589838 VIF589838 VSB589838 WBX589838 WLT589838 WVP589838 H655374 JD655374 SZ655374 ACV655374 AMR655374 AWN655374 BGJ655374 BQF655374 CAB655374 CJX655374 CTT655374 DDP655374 DNL655374 DXH655374 EHD655374 EQZ655374 FAV655374 FKR655374 FUN655374 GEJ655374 GOF655374 GYB655374 HHX655374 HRT655374 IBP655374 ILL655374 IVH655374 JFD655374 JOZ655374 JYV655374 KIR655374 KSN655374 LCJ655374 LMF655374 LWB655374 MFX655374 MPT655374 MZP655374 NJL655374 NTH655374 ODD655374 OMZ655374 OWV655374 PGR655374 PQN655374 QAJ655374 QKF655374 QUB655374 RDX655374 RNT655374 RXP655374 SHL655374 SRH655374 TBD655374 TKZ655374 TUV655374 UER655374 UON655374 UYJ655374 VIF655374 VSB655374 WBX655374 WLT655374 WVP655374 H720910 JD720910 SZ720910 ACV720910 AMR720910 AWN720910 BGJ720910 BQF720910 CAB720910 CJX720910 CTT720910 DDP720910 DNL720910 DXH720910 EHD720910 EQZ720910 FAV720910 FKR720910 FUN720910 GEJ720910 GOF720910 GYB720910 HHX720910 HRT720910 IBP720910 ILL720910 IVH720910 JFD720910 JOZ720910 JYV720910 KIR720910 KSN720910 LCJ720910 LMF720910 LWB720910 MFX720910 MPT720910 MZP720910 NJL720910 NTH720910 ODD720910 OMZ720910 OWV720910 PGR720910 PQN720910 QAJ720910 QKF720910 QUB720910 RDX720910 RNT720910 RXP720910 SHL720910 SRH720910 TBD720910 TKZ720910 TUV720910 UER720910 UON720910 UYJ720910 VIF720910 VSB720910 WBX720910 WLT720910 WVP720910 H786446 JD786446 SZ786446 ACV786446 AMR786446 AWN786446 BGJ786446 BQF786446 CAB786446 CJX786446 CTT786446 DDP786446 DNL786446 DXH786446 EHD786446 EQZ786446 FAV786446 FKR786446 FUN786446 GEJ786446 GOF786446 GYB786446 HHX786446 HRT786446 IBP786446 ILL786446 IVH786446 JFD786446 JOZ786446 JYV786446 KIR786446 KSN786446 LCJ786446 LMF786446 LWB786446 MFX786446 MPT786446 MZP786446 NJL786446 NTH786446 ODD786446 OMZ786446 OWV786446 PGR786446 PQN786446 QAJ786446 QKF786446 QUB786446 RDX786446 RNT786446 RXP786446 SHL786446 SRH786446 TBD786446 TKZ786446 TUV786446 UER786446 UON786446 UYJ786446 VIF786446 VSB786446 WBX786446 WLT786446 WVP786446 H851982 JD851982 SZ851982 ACV851982 AMR851982 AWN851982 BGJ851982 BQF851982 CAB851982 CJX851982 CTT851982 DDP851982 DNL851982 DXH851982 EHD851982 EQZ851982 FAV851982 FKR851982 FUN851982 GEJ851982 GOF851982 GYB851982 HHX851982 HRT851982 IBP851982 ILL851982 IVH851982 JFD851982 JOZ851982 JYV851982 KIR851982 KSN851982 LCJ851982 LMF851982 LWB851982 MFX851982 MPT851982 MZP851982 NJL851982 NTH851982 ODD851982 OMZ851982 OWV851982 PGR851982 PQN851982 QAJ851982 QKF851982 QUB851982 RDX851982 RNT851982 RXP851982 SHL851982 SRH851982 TBD851982 TKZ851982 TUV851982 UER851982 UON851982 UYJ851982 VIF851982 VSB851982 WBX851982 WLT851982 WVP851982 H917518 JD917518 SZ917518 ACV917518 AMR917518 AWN917518 BGJ917518 BQF917518 CAB917518 CJX917518 CTT917518 DDP917518 DNL917518 DXH917518 EHD917518 EQZ917518 FAV917518 FKR917518 FUN917518 GEJ917518 GOF917518 GYB917518 HHX917518 HRT917518 IBP917518 ILL917518 IVH917518 JFD917518 JOZ917518 JYV917518 KIR917518 KSN917518 LCJ917518 LMF917518 LWB917518 MFX917518 MPT917518 MZP917518 NJL917518 NTH917518 ODD917518 OMZ917518 OWV917518 PGR917518 PQN917518 QAJ917518 QKF917518 QUB917518 RDX917518 RNT917518 RXP917518 SHL917518 SRH917518 TBD917518 TKZ917518 TUV917518 UER917518 UON917518 UYJ917518 VIF917518 VSB917518 WBX917518 WLT917518 WVP917518 H983054 JD983054 SZ983054 ACV983054 AMR983054 AWN983054 BGJ983054 BQF983054 CAB983054 CJX983054 CTT983054 DDP983054 DNL983054 DXH983054 EHD983054 EQZ983054 FAV983054 FKR983054 FUN983054 GEJ983054 GOF983054 GYB983054 HHX983054 HRT983054 IBP983054 ILL983054 IVH983054 JFD983054 JOZ983054 JYV983054 KIR983054 KSN983054 LCJ983054 LMF983054 LWB983054 MFX983054 MPT983054 MZP983054 NJL983054 NTH983054 ODD983054 OMZ983054 OWV983054 PGR983054 PQN983054 QAJ983054 QKF983054 QUB983054 RDX983054 RNT983054 RXP983054 SHL983054 SRH983054 TBD983054 TKZ983054 TUV983054 UER983054 UON983054 UYJ983054 VIF983054 VSB983054 WBX983054 WLT983054 WVP983054 H65532 JD65532 SZ65532 ACV65532 AMR65532 AWN65532 BGJ65532 BQF65532 CAB65532 CJX65532 CTT65532 DDP65532 DNL65532 DXH65532 EHD65532 EQZ65532 FAV65532 FKR65532 FUN65532 GEJ65532 GOF65532 GYB65532 HHX65532 HRT65532 IBP65532 ILL65532 IVH65532 JFD65532 JOZ65532 JYV65532 KIR65532 KSN65532 LCJ65532 LMF65532 LWB65532 MFX65532 MPT65532 MZP65532 NJL65532 NTH65532 ODD65532 OMZ65532 OWV65532 PGR65532 PQN65532 QAJ65532 QKF65532 QUB65532 RDX65532 RNT65532 RXP65532 SHL65532 SRH65532 TBD65532 TKZ65532 TUV65532 UER65532 UON65532 UYJ65532 VIF65532 VSB65532 WBX65532 WLT65532 WVP65532 H131068 JD131068 SZ131068 ACV131068 AMR131068 AWN131068 BGJ131068 BQF131068 CAB131068 CJX131068 CTT131068 DDP131068 DNL131068 DXH131068 EHD131068 EQZ131068 FAV131068 FKR131068 FUN131068 GEJ131068 GOF131068 GYB131068 HHX131068 HRT131068 IBP131068 ILL131068 IVH131068 JFD131068 JOZ131068 JYV131068 KIR131068 KSN131068 LCJ131068 LMF131068 LWB131068 MFX131068 MPT131068 MZP131068 NJL131068 NTH131068 ODD131068 OMZ131068 OWV131068 PGR131068 PQN131068 QAJ131068 QKF131068 QUB131068 RDX131068 RNT131068 RXP131068 SHL131068 SRH131068 TBD131068 TKZ131068 TUV131068 UER131068 UON131068 UYJ131068 VIF131068 VSB131068 WBX131068 WLT131068 WVP131068 H196604 JD196604 SZ196604 ACV196604 AMR196604 AWN196604 BGJ196604 BQF196604 CAB196604 CJX196604 CTT196604 DDP196604 DNL196604 DXH196604 EHD196604 EQZ196604 FAV196604 FKR196604 FUN196604 GEJ196604 GOF196604 GYB196604 HHX196604 HRT196604 IBP196604 ILL196604 IVH196604 JFD196604 JOZ196604 JYV196604 KIR196604 KSN196604 LCJ196604 LMF196604 LWB196604 MFX196604 MPT196604 MZP196604 NJL196604 NTH196604 ODD196604 OMZ196604 OWV196604 PGR196604 PQN196604 QAJ196604 QKF196604 QUB196604 RDX196604 RNT196604 RXP196604 SHL196604 SRH196604 TBD196604 TKZ196604 TUV196604 UER196604 UON196604 UYJ196604 VIF196604 VSB196604 WBX196604 WLT196604 WVP196604 H262140 JD262140 SZ262140 ACV262140 AMR262140 AWN262140 BGJ262140 BQF262140 CAB262140 CJX262140 CTT262140 DDP262140 DNL262140 DXH262140 EHD262140 EQZ262140 FAV262140 FKR262140 FUN262140 GEJ262140 GOF262140 GYB262140 HHX262140 HRT262140 IBP262140 ILL262140 IVH262140 JFD262140 JOZ262140 JYV262140 KIR262140 KSN262140 LCJ262140 LMF262140 LWB262140 MFX262140 MPT262140 MZP262140 NJL262140 NTH262140 ODD262140 OMZ262140 OWV262140 PGR262140 PQN262140 QAJ262140 QKF262140 QUB262140 RDX262140 RNT262140 RXP262140 SHL262140 SRH262140 TBD262140 TKZ262140 TUV262140 UER262140 UON262140 UYJ262140 VIF262140 VSB262140 WBX262140 WLT262140 WVP262140 H327676 JD327676 SZ327676 ACV327676 AMR327676 AWN327676 BGJ327676 BQF327676 CAB327676 CJX327676 CTT327676 DDP327676 DNL327676 DXH327676 EHD327676 EQZ327676 FAV327676 FKR327676 FUN327676 GEJ327676 GOF327676 GYB327676 HHX327676 HRT327676 IBP327676 ILL327676 IVH327676 JFD327676 JOZ327676 JYV327676 KIR327676 KSN327676 LCJ327676 LMF327676 LWB327676 MFX327676 MPT327676 MZP327676 NJL327676 NTH327676 ODD327676 OMZ327676 OWV327676 PGR327676 PQN327676 QAJ327676 QKF327676 QUB327676 RDX327676 RNT327676 RXP327676 SHL327676 SRH327676 TBD327676 TKZ327676 TUV327676 UER327676 UON327676 UYJ327676 VIF327676 VSB327676 WBX327676 WLT327676 WVP327676 H393212 JD393212 SZ393212 ACV393212 AMR393212 AWN393212 BGJ393212 BQF393212 CAB393212 CJX393212 CTT393212 DDP393212 DNL393212 DXH393212 EHD393212 EQZ393212 FAV393212 FKR393212 FUN393212 GEJ393212 GOF393212 GYB393212 HHX393212 HRT393212 IBP393212 ILL393212 IVH393212 JFD393212 JOZ393212 JYV393212 KIR393212 KSN393212 LCJ393212 LMF393212 LWB393212 MFX393212 MPT393212 MZP393212 NJL393212 NTH393212 ODD393212 OMZ393212 OWV393212 PGR393212 PQN393212 QAJ393212 QKF393212 QUB393212 RDX393212 RNT393212 RXP393212 SHL393212 SRH393212 TBD393212 TKZ393212 TUV393212 UER393212 UON393212 UYJ393212 VIF393212 VSB393212 WBX393212 WLT393212 WVP393212 H458748 JD458748 SZ458748 ACV458748 AMR458748 AWN458748 BGJ458748 BQF458748 CAB458748 CJX458748 CTT458748 DDP458748 DNL458748 DXH458748 EHD458748 EQZ458748 FAV458748 FKR458748 FUN458748 GEJ458748 GOF458748 GYB458748 HHX458748 HRT458748 IBP458748 ILL458748 IVH458748 JFD458748 JOZ458748 JYV458748 KIR458748 KSN458748 LCJ458748 LMF458748 LWB458748 MFX458748 MPT458748 MZP458748 NJL458748 NTH458748 ODD458748 OMZ458748 OWV458748 PGR458748 PQN458748 QAJ458748 QKF458748 QUB458748 RDX458748 RNT458748 RXP458748 SHL458748 SRH458748 TBD458748 TKZ458748 TUV458748 UER458748 UON458748 UYJ458748 VIF458748 VSB458748 WBX458748 WLT458748 WVP458748 H524284 JD524284 SZ524284 ACV524284 AMR524284 AWN524284 BGJ524284 BQF524284 CAB524284 CJX524284 CTT524284 DDP524284 DNL524284 DXH524284 EHD524284 EQZ524284 FAV524284 FKR524284 FUN524284 GEJ524284 GOF524284 GYB524284 HHX524284 HRT524284 IBP524284 ILL524284 IVH524284 JFD524284 JOZ524284 JYV524284 KIR524284 KSN524284 LCJ524284 LMF524284 LWB524284 MFX524284 MPT524284 MZP524284 NJL524284 NTH524284 ODD524284 OMZ524284 OWV524284 PGR524284 PQN524284 QAJ524284 QKF524284 QUB524284 RDX524284 RNT524284 RXP524284 SHL524284 SRH524284 TBD524284 TKZ524284 TUV524284 UER524284 UON524284 UYJ524284 VIF524284 VSB524284 WBX524284 WLT524284 WVP524284 H589820 JD589820 SZ589820 ACV589820 AMR589820 AWN589820 BGJ589820 BQF589820 CAB589820 CJX589820 CTT589820 DDP589820 DNL589820 DXH589820 EHD589820 EQZ589820 FAV589820 FKR589820 FUN589820 GEJ589820 GOF589820 GYB589820 HHX589820 HRT589820 IBP589820 ILL589820 IVH589820 JFD589820 JOZ589820 JYV589820 KIR589820 KSN589820 LCJ589820 LMF589820 LWB589820 MFX589820 MPT589820 MZP589820 NJL589820 NTH589820 ODD589820 OMZ589820 OWV589820 PGR589820 PQN589820 QAJ589820 QKF589820 QUB589820 RDX589820 RNT589820 RXP589820 SHL589820 SRH589820 TBD589820 TKZ589820 TUV589820 UER589820 UON589820 UYJ589820 VIF589820 VSB589820 WBX589820 WLT589820 WVP589820 H655356 JD655356 SZ655356 ACV655356 AMR655356 AWN655356 BGJ655356 BQF655356 CAB655356 CJX655356 CTT655356 DDP655356 DNL655356 DXH655356 EHD655356 EQZ655356 FAV655356 FKR655356 FUN655356 GEJ655356 GOF655356 GYB655356 HHX655356 HRT655356 IBP655356 ILL655356 IVH655356 JFD655356 JOZ655356 JYV655356 KIR655356 KSN655356 LCJ655356 LMF655356 LWB655356 MFX655356 MPT655356 MZP655356 NJL655356 NTH655356 ODD655356 OMZ655356 OWV655356 PGR655356 PQN655356 QAJ655356 QKF655356 QUB655356 RDX655356 RNT655356 RXP655356 SHL655356 SRH655356 TBD655356 TKZ655356 TUV655356 UER655356 UON655356 UYJ655356 VIF655356 VSB655356 WBX655356 WLT655356 WVP655356 H720892 JD720892 SZ720892 ACV720892 AMR720892 AWN720892 BGJ720892 BQF720892 CAB720892 CJX720892 CTT720892 DDP720892 DNL720892 DXH720892 EHD720892 EQZ720892 FAV720892 FKR720892 FUN720892 GEJ720892 GOF720892 GYB720892 HHX720892 HRT720892 IBP720892 ILL720892 IVH720892 JFD720892 JOZ720892 JYV720892 KIR720892 KSN720892 LCJ720892 LMF720892 LWB720892 MFX720892 MPT720892 MZP720892 NJL720892 NTH720892 ODD720892 OMZ720892 OWV720892 PGR720892 PQN720892 QAJ720892 QKF720892 QUB720892 RDX720892 RNT720892 RXP720892 SHL720892 SRH720892 TBD720892 TKZ720892 TUV720892 UER720892 UON720892 UYJ720892 VIF720892 VSB720892 WBX720892 WLT720892 WVP720892 H786428 JD786428 SZ786428 ACV786428 AMR786428 AWN786428 BGJ786428 BQF786428 CAB786428 CJX786428 CTT786428 DDP786428 DNL786428 DXH786428 EHD786428 EQZ786428 FAV786428 FKR786428 FUN786428 GEJ786428 GOF786428 GYB786428 HHX786428 HRT786428 IBP786428 ILL786428 IVH786428 JFD786428 JOZ786428 JYV786428 KIR786428 KSN786428 LCJ786428 LMF786428 LWB786428 MFX786428 MPT786428 MZP786428 NJL786428 NTH786428 ODD786428 OMZ786428 OWV786428 PGR786428 PQN786428 QAJ786428 QKF786428 QUB786428 RDX786428 RNT786428 RXP786428 SHL786428 SRH786428 TBD786428 TKZ786428 TUV786428 UER786428 UON786428 UYJ786428 VIF786428 VSB786428 WBX786428 WLT786428 WVP786428 H851964 JD851964 SZ851964 ACV851964 AMR851964 AWN851964 BGJ851964 BQF851964 CAB851964 CJX851964 CTT851964 DDP851964 DNL851964 DXH851964 EHD851964 EQZ851964 FAV851964 FKR851964 FUN851964 GEJ851964 GOF851964 GYB851964 HHX851964 HRT851964 IBP851964 ILL851964 IVH851964 JFD851964 JOZ851964 JYV851964 KIR851964 KSN851964 LCJ851964 LMF851964 LWB851964 MFX851964 MPT851964 MZP851964 NJL851964 NTH851964 ODD851964 OMZ851964 OWV851964 PGR851964 PQN851964 QAJ851964 QKF851964 QUB851964 RDX851964 RNT851964 RXP851964 SHL851964 SRH851964 TBD851964 TKZ851964 TUV851964 UER851964 UON851964 UYJ851964 VIF851964 VSB851964 WBX851964 WLT851964 WVP851964 H917500 JD917500 SZ917500 ACV917500 AMR917500 AWN917500 BGJ917500 BQF917500 CAB917500 CJX917500 CTT917500 DDP917500 DNL917500 DXH917500 EHD917500 EQZ917500 FAV917500 FKR917500 FUN917500 GEJ917500 GOF917500 GYB917500 HHX917500 HRT917500 IBP917500 ILL917500 IVH917500 JFD917500 JOZ917500 JYV917500 KIR917500 KSN917500 LCJ917500 LMF917500 LWB917500 MFX917500 MPT917500 MZP917500 NJL917500 NTH917500 ODD917500 OMZ917500 OWV917500 PGR917500 PQN917500 QAJ917500 QKF917500 QUB917500 RDX917500 RNT917500 RXP917500 SHL917500 SRH917500 TBD917500 TKZ917500 TUV917500 UER917500 UON917500 UYJ917500 VIF917500 VSB917500 WBX917500 WLT917500 WVP917500 H983036 JD983036 SZ983036 ACV983036 AMR983036 AWN983036 BGJ983036 BQF983036 CAB983036 CJX983036 CTT983036 DDP983036 DNL983036 DXH983036 EHD983036 EQZ983036 FAV983036 FKR983036 FUN983036 GEJ983036 GOF983036 GYB983036 HHX983036 HRT983036 IBP983036 ILL983036 IVH983036 JFD983036 JOZ983036 JYV983036 KIR983036 KSN983036 LCJ983036 LMF983036 LWB983036 MFX983036 MPT983036 MZP983036 NJL983036 NTH983036 ODD983036 OMZ983036 OWV983036 PGR983036 PQN983036 QAJ983036 QKF983036 QUB983036 RDX983036 RNT983036 RXP983036 SHL983036 SRH983036 TBD983036 TKZ983036 TUV983036 UER983036 UON983036 UYJ983036 VIF983036 VSB983036 WBX983036 WLT983036 WVP983036 H65565 JD65565 SZ65565 ACV65565 AMR65565 AWN65565 BGJ65565 BQF65565 CAB65565 CJX65565 CTT65565 DDP65565 DNL65565 DXH65565 EHD65565 EQZ65565 FAV65565 FKR65565 FUN65565 GEJ65565 GOF65565 GYB65565 HHX65565 HRT65565 IBP65565 ILL65565 IVH65565 JFD65565 JOZ65565 JYV65565 KIR65565 KSN65565 LCJ65565 LMF65565 LWB65565 MFX65565 MPT65565 MZP65565 NJL65565 NTH65565 ODD65565 OMZ65565 OWV65565 PGR65565 PQN65565 QAJ65565 QKF65565 QUB65565 RDX65565 RNT65565 RXP65565 SHL65565 SRH65565 TBD65565 TKZ65565 TUV65565 UER65565 UON65565 UYJ65565 VIF65565 VSB65565 WBX65565 WLT65565 WVP65565 H131101 JD131101 SZ131101 ACV131101 AMR131101 AWN131101 BGJ131101 BQF131101 CAB131101 CJX131101 CTT131101 DDP131101 DNL131101 DXH131101 EHD131101 EQZ131101 FAV131101 FKR131101 FUN131101 GEJ131101 GOF131101 GYB131101 HHX131101 HRT131101 IBP131101 ILL131101 IVH131101 JFD131101 JOZ131101 JYV131101 KIR131101 KSN131101 LCJ131101 LMF131101 LWB131101 MFX131101 MPT131101 MZP131101 NJL131101 NTH131101 ODD131101 OMZ131101 OWV131101 PGR131101 PQN131101 QAJ131101 QKF131101 QUB131101 RDX131101 RNT131101 RXP131101 SHL131101 SRH131101 TBD131101 TKZ131101 TUV131101 UER131101 UON131101 UYJ131101 VIF131101 VSB131101 WBX131101 WLT131101 WVP131101 H196637 JD196637 SZ196637 ACV196637 AMR196637 AWN196637 BGJ196637 BQF196637 CAB196637 CJX196637 CTT196637 DDP196637 DNL196637 DXH196637 EHD196637 EQZ196637 FAV196637 FKR196637 FUN196637 GEJ196637 GOF196637 GYB196637 HHX196637 HRT196637 IBP196637 ILL196637 IVH196637 JFD196637 JOZ196637 JYV196637 KIR196637 KSN196637 LCJ196637 LMF196637 LWB196637 MFX196637 MPT196637 MZP196637 NJL196637 NTH196637 ODD196637 OMZ196637 OWV196637 PGR196637 PQN196637 QAJ196637 QKF196637 QUB196637 RDX196637 RNT196637 RXP196637 SHL196637 SRH196637 TBD196637 TKZ196637 TUV196637 UER196637 UON196637 UYJ196637 VIF196637 VSB196637 WBX196637 WLT196637 WVP196637 H262173 JD262173 SZ262173 ACV262173 AMR262173 AWN262173 BGJ262173 BQF262173 CAB262173 CJX262173 CTT262173 DDP262173 DNL262173 DXH262173 EHD262173 EQZ262173 FAV262173 FKR262173 FUN262173 GEJ262173 GOF262173 GYB262173 HHX262173 HRT262173 IBP262173 ILL262173 IVH262173 JFD262173 JOZ262173 JYV262173 KIR262173 KSN262173 LCJ262173 LMF262173 LWB262173 MFX262173 MPT262173 MZP262173 NJL262173 NTH262173 ODD262173 OMZ262173 OWV262173 PGR262173 PQN262173 QAJ262173 QKF262173 QUB262173 RDX262173 RNT262173 RXP262173 SHL262173 SRH262173 TBD262173 TKZ262173 TUV262173 UER262173 UON262173 UYJ262173 VIF262173 VSB262173 WBX262173 WLT262173 WVP262173 H327709 JD327709 SZ327709 ACV327709 AMR327709 AWN327709 BGJ327709 BQF327709 CAB327709 CJX327709 CTT327709 DDP327709 DNL327709 DXH327709 EHD327709 EQZ327709 FAV327709 FKR327709 FUN327709 GEJ327709 GOF327709 GYB327709 HHX327709 HRT327709 IBP327709 ILL327709 IVH327709 JFD327709 JOZ327709 JYV327709 KIR327709 KSN327709 LCJ327709 LMF327709 LWB327709 MFX327709 MPT327709 MZP327709 NJL327709 NTH327709 ODD327709 OMZ327709 OWV327709 PGR327709 PQN327709 QAJ327709 QKF327709 QUB327709 RDX327709 RNT327709 RXP327709 SHL327709 SRH327709 TBD327709 TKZ327709 TUV327709 UER327709 UON327709 UYJ327709 VIF327709 VSB327709 WBX327709 WLT327709 WVP327709 H393245 JD393245 SZ393245 ACV393245 AMR393245 AWN393245 BGJ393245 BQF393245 CAB393245 CJX393245 CTT393245 DDP393245 DNL393245 DXH393245 EHD393245 EQZ393245 FAV393245 FKR393245 FUN393245 GEJ393245 GOF393245 GYB393245 HHX393245 HRT393245 IBP393245 ILL393245 IVH393245 JFD393245 JOZ393245 JYV393245 KIR393245 KSN393245 LCJ393245 LMF393245 LWB393245 MFX393245 MPT393245 MZP393245 NJL393245 NTH393245 ODD393245 OMZ393245 OWV393245 PGR393245 PQN393245 QAJ393245 QKF393245 QUB393245 RDX393245 RNT393245 RXP393245 SHL393245 SRH393245 TBD393245 TKZ393245 TUV393245 UER393245 UON393245 UYJ393245 VIF393245 VSB393245 WBX393245 WLT393245 WVP393245 H458781 JD458781 SZ458781 ACV458781 AMR458781 AWN458781 BGJ458781 BQF458781 CAB458781 CJX458781 CTT458781 DDP458781 DNL458781 DXH458781 EHD458781 EQZ458781 FAV458781 FKR458781 FUN458781 GEJ458781 GOF458781 GYB458781 HHX458781 HRT458781 IBP458781 ILL458781 IVH458781 JFD458781 JOZ458781 JYV458781 KIR458781 KSN458781 LCJ458781 LMF458781 LWB458781 MFX458781 MPT458781 MZP458781 NJL458781 NTH458781 ODD458781 OMZ458781 OWV458781 PGR458781 PQN458781 QAJ458781 QKF458781 QUB458781 RDX458781 RNT458781 RXP458781 SHL458781 SRH458781 TBD458781 TKZ458781 TUV458781 UER458781 UON458781 UYJ458781 VIF458781 VSB458781 WBX458781 WLT458781 WVP458781 H524317 JD524317 SZ524317 ACV524317 AMR524317 AWN524317 BGJ524317 BQF524317 CAB524317 CJX524317 CTT524317 DDP524317 DNL524317 DXH524317 EHD524317 EQZ524317 FAV524317 FKR524317 FUN524317 GEJ524317 GOF524317 GYB524317 HHX524317 HRT524317 IBP524317 ILL524317 IVH524317 JFD524317 JOZ524317 JYV524317 KIR524317 KSN524317 LCJ524317 LMF524317 LWB524317 MFX524317 MPT524317 MZP524317 NJL524317 NTH524317 ODD524317 OMZ524317 OWV524317 PGR524317 PQN524317 QAJ524317 QKF524317 QUB524317 RDX524317 RNT524317 RXP524317 SHL524317 SRH524317 TBD524317 TKZ524317 TUV524317 UER524317 UON524317 UYJ524317 VIF524317 VSB524317 WBX524317 WLT524317 WVP524317 H589853 JD589853 SZ589853 ACV589853 AMR589853 AWN589853 BGJ589853 BQF589853 CAB589853 CJX589853 CTT589853 DDP589853 DNL589853 DXH589853 EHD589853 EQZ589853 FAV589853 FKR589853 FUN589853 GEJ589853 GOF589853 GYB589853 HHX589853 HRT589853 IBP589853 ILL589853 IVH589853 JFD589853 JOZ589853 JYV589853 KIR589853 KSN589853 LCJ589853 LMF589853 LWB589853 MFX589853 MPT589853 MZP589853 NJL589853 NTH589853 ODD589853 OMZ589853 OWV589853 PGR589853 PQN589853 QAJ589853 QKF589853 QUB589853 RDX589853 RNT589853 RXP589853 SHL589853 SRH589853 TBD589853 TKZ589853 TUV589853 UER589853 UON589853 UYJ589853 VIF589853 VSB589853 WBX589853 WLT589853 WVP589853 H655389 JD655389 SZ655389 ACV655389 AMR655389 AWN655389 BGJ655389 BQF655389 CAB655389 CJX655389 CTT655389 DDP655389 DNL655389 DXH655389 EHD655389 EQZ655389 FAV655389 FKR655389 FUN655389 GEJ655389 GOF655389 GYB655389 HHX655389 HRT655389 IBP655389 ILL655389 IVH655389 JFD655389 JOZ655389 JYV655389 KIR655389 KSN655389 LCJ655389 LMF655389 LWB655389 MFX655389 MPT655389 MZP655389 NJL655389 NTH655389 ODD655389 OMZ655389 OWV655389 PGR655389 PQN655389 QAJ655389 QKF655389 QUB655389 RDX655389 RNT655389 RXP655389 SHL655389 SRH655389 TBD655389 TKZ655389 TUV655389 UER655389 UON655389 UYJ655389 VIF655389 VSB655389 WBX655389 WLT655389 WVP655389 H720925 JD720925 SZ720925 ACV720925 AMR720925 AWN720925 BGJ720925 BQF720925 CAB720925 CJX720925 CTT720925 DDP720925 DNL720925 DXH720925 EHD720925 EQZ720925 FAV720925 FKR720925 FUN720925 GEJ720925 GOF720925 GYB720925 HHX720925 HRT720925 IBP720925 ILL720925 IVH720925 JFD720925 JOZ720925 JYV720925 KIR720925 KSN720925 LCJ720925 LMF720925 LWB720925 MFX720925 MPT720925 MZP720925 NJL720925 NTH720925 ODD720925 OMZ720925 OWV720925 PGR720925 PQN720925 QAJ720925 QKF720925 QUB720925 RDX720925 RNT720925 RXP720925 SHL720925 SRH720925 TBD720925 TKZ720925 TUV720925 UER720925 UON720925 UYJ720925 VIF720925 VSB720925 WBX720925 WLT720925 WVP720925 H786461 JD786461 SZ786461 ACV786461 AMR786461 AWN786461 BGJ786461 BQF786461 CAB786461 CJX786461 CTT786461 DDP786461 DNL786461 DXH786461 EHD786461 EQZ786461 FAV786461 FKR786461 FUN786461 GEJ786461 GOF786461 GYB786461 HHX786461 HRT786461 IBP786461 ILL786461 IVH786461 JFD786461 JOZ786461 JYV786461 KIR786461 KSN786461 LCJ786461 LMF786461 LWB786461 MFX786461 MPT786461 MZP786461 NJL786461 NTH786461 ODD786461 OMZ786461 OWV786461 PGR786461 PQN786461 QAJ786461 QKF786461 QUB786461 RDX786461 RNT786461 RXP786461 SHL786461 SRH786461 TBD786461 TKZ786461 TUV786461 UER786461 UON786461 UYJ786461 VIF786461 VSB786461 WBX786461 WLT786461 WVP786461 H851997 JD851997 SZ851997 ACV851997 AMR851997 AWN851997 BGJ851997 BQF851997 CAB851997 CJX851997 CTT851997 DDP851997 DNL851997 DXH851997 EHD851997 EQZ851997 FAV851997 FKR851997 FUN851997 GEJ851997 GOF851997 GYB851997 HHX851997 HRT851997 IBP851997 ILL851997 IVH851997 JFD851997 JOZ851997 JYV851997 KIR851997 KSN851997 LCJ851997 LMF851997 LWB851997 MFX851997 MPT851997 MZP851997 NJL851997 NTH851997 ODD851997 OMZ851997 OWV851997 PGR851997 PQN851997 QAJ851997 QKF851997 QUB851997 RDX851997 RNT851997 RXP851997 SHL851997 SRH851997 TBD851997 TKZ851997 TUV851997 UER851997 UON851997 UYJ851997 VIF851997 VSB851997 WBX851997 WLT851997 WVP851997 H917533 JD917533 SZ917533 ACV917533 AMR917533 AWN917533 BGJ917533 BQF917533 CAB917533 CJX917533 CTT917533 DDP917533 DNL917533 DXH917533 EHD917533 EQZ917533 FAV917533 FKR917533 FUN917533 GEJ917533 GOF917533 GYB917533 HHX917533 HRT917533 IBP917533 ILL917533 IVH917533 JFD917533 JOZ917533 JYV917533 KIR917533 KSN917533 LCJ917533 LMF917533 LWB917533 MFX917533 MPT917533 MZP917533 NJL917533 NTH917533 ODD917533 OMZ917533 OWV917533 PGR917533 PQN917533 QAJ917533 QKF917533 QUB917533 RDX917533 RNT917533 RXP917533 SHL917533 SRH917533 TBD917533 TKZ917533 TUV917533 UER917533 UON917533 UYJ917533 VIF917533 VSB917533 WBX917533 WLT917533 WVP917533 H983069 JD983069 SZ983069 ACV983069 AMR983069 AWN983069 BGJ983069 BQF983069 CAB983069 CJX983069 CTT983069 DDP983069 DNL983069 DXH983069 EHD983069 EQZ983069 FAV983069 FKR983069 FUN983069 GEJ983069 GOF983069 GYB983069 HHX983069 HRT983069 IBP983069 ILL983069 IVH983069 JFD983069 JOZ983069 JYV983069 KIR983069 KSN983069 LCJ983069 LMF983069 LWB983069 MFX983069 MPT983069 MZP983069 NJL983069 NTH983069 ODD983069 OMZ983069 OWV983069 PGR983069 PQN983069 QAJ983069 QKF983069 QUB983069 RDX983069 RNT983069 RXP983069 SHL983069 SRH983069 TBD983069 TKZ983069 TUV983069 UER983069 UON983069 UYJ983069 VIF983069 VSB983069 WBX983069 WLT983069 WVP983069 G9:G10 JC9:JC10 SY9:SY10 ACU9:ACU10 AMQ9:AMQ10 AWM9:AWM10 BGI9:BGI10 BQE9:BQE10 CAA9:CAA10 CJW9:CJW10 CTS9:CTS10 DDO9:DDO10 DNK9:DNK10 DXG9:DXG10 EHC9:EHC10 EQY9:EQY10 FAU9:FAU10 FKQ9:FKQ10 FUM9:FUM10 GEI9:GEI10 GOE9:GOE10 GYA9:GYA10 HHW9:HHW10 HRS9:HRS10 IBO9:IBO10 ILK9:ILK10 IVG9:IVG10 JFC9:JFC10 JOY9:JOY10 JYU9:JYU10 KIQ9:KIQ10 KSM9:KSM10 LCI9:LCI10 LME9:LME10 LWA9:LWA10 MFW9:MFW10 MPS9:MPS10 MZO9:MZO10 NJK9:NJK10 NTG9:NTG10 ODC9:ODC10 OMY9:OMY10 OWU9:OWU10 PGQ9:PGQ10 PQM9:PQM10 QAI9:QAI10 QKE9:QKE10 QUA9:QUA10 RDW9:RDW10 RNS9:RNS10 RXO9:RXO10 SHK9:SHK10 SRG9:SRG10 TBC9:TBC10 TKY9:TKY10 TUU9:TUU10 UEQ9:UEQ10 UOM9:UOM10 UYI9:UYI10 VIE9:VIE10 VSA9:VSA10 WBW9:WBW10 WLS9:WLS10 WVO9:WVO10 H65514 JD65514 SZ65514 ACV65514 AMR65514 AWN65514 BGJ65514 BQF65514 CAB65514 CJX65514 CTT65514 DDP65514 DNL65514 DXH65514 EHD65514 EQZ65514 FAV65514 FKR65514 FUN65514 GEJ65514 GOF65514 GYB65514 HHX65514 HRT65514 IBP65514 ILL65514 IVH65514 JFD65514 JOZ65514 JYV65514 KIR65514 KSN65514 LCJ65514 LMF65514 LWB65514 MFX65514 MPT65514 MZP65514 NJL65514 NTH65514 ODD65514 OMZ65514 OWV65514 PGR65514 PQN65514 QAJ65514 QKF65514 QUB65514 RDX65514 RNT65514 RXP65514 SHL65514 SRH65514 TBD65514 TKZ65514 TUV65514 UER65514 UON65514 UYJ65514 VIF65514 VSB65514 WBX65514 WLT65514 WVP65514 H131050 JD131050 SZ131050 ACV131050 AMR131050 AWN131050 BGJ131050 BQF131050 CAB131050 CJX131050 CTT131050 DDP131050 DNL131050 DXH131050 EHD131050 EQZ131050 FAV131050 FKR131050 FUN131050 GEJ131050 GOF131050 GYB131050 HHX131050 HRT131050 IBP131050 ILL131050 IVH131050 JFD131050 JOZ131050 JYV131050 KIR131050 KSN131050 LCJ131050 LMF131050 LWB131050 MFX131050 MPT131050 MZP131050 NJL131050 NTH131050 ODD131050 OMZ131050 OWV131050 PGR131050 PQN131050 QAJ131050 QKF131050 QUB131050 RDX131050 RNT131050 RXP131050 SHL131050 SRH131050 TBD131050 TKZ131050 TUV131050 UER131050 UON131050 UYJ131050 VIF131050 VSB131050 WBX131050 WLT131050 WVP131050 H196586 JD196586 SZ196586 ACV196586 AMR196586 AWN196586 BGJ196586 BQF196586 CAB196586 CJX196586 CTT196586 DDP196586 DNL196586 DXH196586 EHD196586 EQZ196586 FAV196586 FKR196586 FUN196586 GEJ196586 GOF196586 GYB196586 HHX196586 HRT196586 IBP196586 ILL196586 IVH196586 JFD196586 JOZ196586 JYV196586 KIR196586 KSN196586 LCJ196586 LMF196586 LWB196586 MFX196586 MPT196586 MZP196586 NJL196586 NTH196586 ODD196586 OMZ196586 OWV196586 PGR196586 PQN196586 QAJ196586 QKF196586 QUB196586 RDX196586 RNT196586 RXP196586 SHL196586 SRH196586 TBD196586 TKZ196586 TUV196586 UER196586 UON196586 UYJ196586 VIF196586 VSB196586 WBX196586 WLT196586 WVP196586 H262122 JD262122 SZ262122 ACV262122 AMR262122 AWN262122 BGJ262122 BQF262122 CAB262122 CJX262122 CTT262122 DDP262122 DNL262122 DXH262122 EHD262122 EQZ262122 FAV262122 FKR262122 FUN262122 GEJ262122 GOF262122 GYB262122 HHX262122 HRT262122 IBP262122 ILL262122 IVH262122 JFD262122 JOZ262122 JYV262122 KIR262122 KSN262122 LCJ262122 LMF262122 LWB262122 MFX262122 MPT262122 MZP262122 NJL262122 NTH262122 ODD262122 OMZ262122 OWV262122 PGR262122 PQN262122 QAJ262122 QKF262122 QUB262122 RDX262122 RNT262122 RXP262122 SHL262122 SRH262122 TBD262122 TKZ262122 TUV262122 UER262122 UON262122 UYJ262122 VIF262122 VSB262122 WBX262122 WLT262122 WVP262122 H327658 JD327658 SZ327658 ACV327658 AMR327658 AWN327658 BGJ327658 BQF327658 CAB327658 CJX327658 CTT327658 DDP327658 DNL327658 DXH327658 EHD327658 EQZ327658 FAV327658 FKR327658 FUN327658 GEJ327658 GOF327658 GYB327658 HHX327658 HRT327658 IBP327658 ILL327658 IVH327658 JFD327658 JOZ327658 JYV327658 KIR327658 KSN327658 LCJ327658 LMF327658 LWB327658 MFX327658 MPT327658 MZP327658 NJL327658 NTH327658 ODD327658 OMZ327658 OWV327658 PGR327658 PQN327658 QAJ327658 QKF327658 QUB327658 RDX327658 RNT327658 RXP327658 SHL327658 SRH327658 TBD327658 TKZ327658 TUV327658 UER327658 UON327658 UYJ327658 VIF327658 VSB327658 WBX327658 WLT327658 WVP327658 H393194 JD393194 SZ393194 ACV393194 AMR393194 AWN393194 BGJ393194 BQF393194 CAB393194 CJX393194 CTT393194 DDP393194 DNL393194 DXH393194 EHD393194 EQZ393194 FAV393194 FKR393194 FUN393194 GEJ393194 GOF393194 GYB393194 HHX393194 HRT393194 IBP393194 ILL393194 IVH393194 JFD393194 JOZ393194 JYV393194 KIR393194 KSN393194 LCJ393194 LMF393194 LWB393194 MFX393194 MPT393194 MZP393194 NJL393194 NTH393194 ODD393194 OMZ393194 OWV393194 PGR393194 PQN393194 QAJ393194 QKF393194 QUB393194 RDX393194 RNT393194 RXP393194 SHL393194 SRH393194 TBD393194 TKZ393194 TUV393194 UER393194 UON393194 UYJ393194 VIF393194 VSB393194 WBX393194 WLT393194 WVP393194 H458730 JD458730 SZ458730 ACV458730 AMR458730 AWN458730 BGJ458730 BQF458730 CAB458730 CJX458730 CTT458730 DDP458730 DNL458730 DXH458730 EHD458730 EQZ458730 FAV458730 FKR458730 FUN458730 GEJ458730 GOF458730 GYB458730 HHX458730 HRT458730 IBP458730 ILL458730 IVH458730 JFD458730 JOZ458730 JYV458730 KIR458730 KSN458730 LCJ458730 LMF458730 LWB458730 MFX458730 MPT458730 MZP458730 NJL458730 NTH458730 ODD458730 OMZ458730 OWV458730 PGR458730 PQN458730 QAJ458730 QKF458730 QUB458730 RDX458730 RNT458730 RXP458730 SHL458730 SRH458730 TBD458730 TKZ458730 TUV458730 UER458730 UON458730 UYJ458730 VIF458730 VSB458730 WBX458730 WLT458730 WVP458730 H524266 JD524266 SZ524266 ACV524266 AMR524266 AWN524266 BGJ524266 BQF524266 CAB524266 CJX524266 CTT524266 DDP524266 DNL524266 DXH524266 EHD524266 EQZ524266 FAV524266 FKR524266 FUN524266 GEJ524266 GOF524266 GYB524266 HHX524266 HRT524266 IBP524266 ILL524266 IVH524266 JFD524266 JOZ524266 JYV524266 KIR524266 KSN524266 LCJ524266 LMF524266 LWB524266 MFX524266 MPT524266 MZP524266 NJL524266 NTH524266 ODD524266 OMZ524266 OWV524266 PGR524266 PQN524266 QAJ524266 QKF524266 QUB524266 RDX524266 RNT524266 RXP524266 SHL524266 SRH524266 TBD524266 TKZ524266 TUV524266 UER524266 UON524266 UYJ524266 VIF524266 VSB524266 WBX524266 WLT524266 WVP524266 H589802 JD589802 SZ589802 ACV589802 AMR589802 AWN589802 BGJ589802 BQF589802 CAB589802 CJX589802 CTT589802 DDP589802 DNL589802 DXH589802 EHD589802 EQZ589802 FAV589802 FKR589802 FUN589802 GEJ589802 GOF589802 GYB589802 HHX589802 HRT589802 IBP589802 ILL589802 IVH589802 JFD589802 JOZ589802 JYV589802 KIR589802 KSN589802 LCJ589802 LMF589802 LWB589802 MFX589802 MPT589802 MZP589802 NJL589802 NTH589802 ODD589802 OMZ589802 OWV589802 PGR589802 PQN589802 QAJ589802 QKF589802 QUB589802 RDX589802 RNT589802 RXP589802 SHL589802 SRH589802 TBD589802 TKZ589802 TUV589802 UER589802 UON589802 UYJ589802 VIF589802 VSB589802 WBX589802 WLT589802 WVP589802 H655338 JD655338 SZ655338 ACV655338 AMR655338 AWN655338 BGJ655338 BQF655338 CAB655338 CJX655338 CTT655338 DDP655338 DNL655338 DXH655338 EHD655338 EQZ655338 FAV655338 FKR655338 FUN655338 GEJ655338 GOF655338 GYB655338 HHX655338 HRT655338 IBP655338 ILL655338 IVH655338 JFD655338 JOZ655338 JYV655338 KIR655338 KSN655338 LCJ655338 LMF655338 LWB655338 MFX655338 MPT655338 MZP655338 NJL655338 NTH655338 ODD655338 OMZ655338 OWV655338 PGR655338 PQN655338 QAJ655338 QKF655338 QUB655338 RDX655338 RNT655338 RXP655338 SHL655338 SRH655338 TBD655338 TKZ655338 TUV655338 UER655338 UON655338 UYJ655338 VIF655338 VSB655338 WBX655338 WLT655338 WVP655338 H720874 JD720874 SZ720874 ACV720874 AMR720874 AWN720874 BGJ720874 BQF720874 CAB720874 CJX720874 CTT720874 DDP720874 DNL720874 DXH720874 EHD720874 EQZ720874 FAV720874 FKR720874 FUN720874 GEJ720874 GOF720874 GYB720874 HHX720874 HRT720874 IBP720874 ILL720874 IVH720874 JFD720874 JOZ720874 JYV720874 KIR720874 KSN720874 LCJ720874 LMF720874 LWB720874 MFX720874 MPT720874 MZP720874 NJL720874 NTH720874 ODD720874 OMZ720874 OWV720874 PGR720874 PQN720874 QAJ720874 QKF720874 QUB720874 RDX720874 RNT720874 RXP720874 SHL720874 SRH720874 TBD720874 TKZ720874 TUV720874 UER720874 UON720874 UYJ720874 VIF720874 VSB720874 WBX720874 WLT720874 WVP720874 H786410 JD786410 SZ786410 ACV786410 AMR786410 AWN786410 BGJ786410 BQF786410 CAB786410 CJX786410 CTT786410 DDP786410 DNL786410 DXH786410 EHD786410 EQZ786410 FAV786410 FKR786410 FUN786410 GEJ786410 GOF786410 GYB786410 HHX786410 HRT786410 IBP786410 ILL786410 IVH786410 JFD786410 JOZ786410 JYV786410 KIR786410 KSN786410 LCJ786410 LMF786410 LWB786410 MFX786410 MPT786410 MZP786410 NJL786410 NTH786410 ODD786410 OMZ786410 OWV786410 PGR786410 PQN786410 QAJ786410 QKF786410 QUB786410 RDX786410 RNT786410 RXP786410 SHL786410 SRH786410 TBD786410 TKZ786410 TUV786410 UER786410 UON786410 UYJ786410 VIF786410 VSB786410 WBX786410 WLT786410 WVP786410 H851946 JD851946 SZ851946 ACV851946 AMR851946 AWN851946 BGJ851946 BQF851946 CAB851946 CJX851946 CTT851946 DDP851946 DNL851946 DXH851946 EHD851946 EQZ851946 FAV851946 FKR851946 FUN851946 GEJ851946 GOF851946 GYB851946 HHX851946 HRT851946 IBP851946 ILL851946 IVH851946 JFD851946 JOZ851946 JYV851946 KIR851946 KSN851946 LCJ851946 LMF851946 LWB851946 MFX851946 MPT851946 MZP851946 NJL851946 NTH851946 ODD851946 OMZ851946 OWV851946 PGR851946 PQN851946 QAJ851946 QKF851946 QUB851946 RDX851946 RNT851946 RXP851946 SHL851946 SRH851946 TBD851946 TKZ851946 TUV851946 UER851946 UON851946 UYJ851946 VIF851946 VSB851946 WBX851946 WLT851946 WVP851946 H917482 JD917482 SZ917482 ACV917482 AMR917482 AWN917482 BGJ917482 BQF917482 CAB917482 CJX917482 CTT917482 DDP917482 DNL917482 DXH917482 EHD917482 EQZ917482 FAV917482 FKR917482 FUN917482 GEJ917482 GOF917482 GYB917482 HHX917482 HRT917482 IBP917482 ILL917482 IVH917482 JFD917482 JOZ917482 JYV917482 KIR917482 KSN917482 LCJ917482 LMF917482 LWB917482 MFX917482 MPT917482 MZP917482 NJL917482 NTH917482 ODD917482 OMZ917482 OWV917482 PGR917482 PQN917482 QAJ917482 QKF917482 QUB917482 RDX917482 RNT917482 RXP917482 SHL917482 SRH917482 TBD917482 TKZ917482 TUV917482 UER917482 UON917482 UYJ917482 VIF917482 VSB917482 WBX917482 WLT917482 WVP917482 H983018 JD983018 SZ983018 ACV983018 AMR983018 AWN983018 BGJ983018 BQF983018 CAB983018 CJX983018 CTT983018 DDP983018 DNL983018 DXH983018 EHD983018 EQZ983018 FAV983018 FKR983018 FUN983018 GEJ983018 GOF983018 GYB983018 HHX983018 HRT983018 IBP983018 ILL983018 IVH983018 JFD983018 JOZ983018 JYV983018 KIR983018 KSN983018 LCJ983018 LMF983018 LWB983018 MFX983018 MPT983018 MZP983018 NJL983018 NTH983018 ODD983018 OMZ983018 OWV983018 PGR983018 PQN983018 QAJ983018 QKF983018 QUB983018 RDX983018 RNT983018 RXP983018 SHL983018 SRH983018 TBD983018 TKZ983018 TUV983018 UER983018 UON983018 UYJ983018 VIF983018 VSB983018 WBX983018 WLT983018 WVP983018 WVP983076:WVP983077 JC26:JC29 SY26:SY29 ACU26:ACU29 AMQ26:AMQ29 AWM26:AWM29 BGI26:BGI29 BQE26:BQE29 CAA26:CAA29 CJW26:CJW29 CTS26:CTS29 DDO26:DDO29 DNK26:DNK29 DXG26:DXG29 EHC26:EHC29 EQY26:EQY29 FAU26:FAU29 FKQ26:FKQ29 FUM26:FUM29 GEI26:GEI29 GOE26:GOE29 GYA26:GYA29 HHW26:HHW29 HRS26:HRS29 IBO26:IBO29 ILK26:ILK29 IVG26:IVG29 JFC26:JFC29 JOY26:JOY29 JYU26:JYU29 KIQ26:KIQ29 KSM26:KSM29 LCI26:LCI29 LME26:LME29 LWA26:LWA29 MFW26:MFW29 MPS26:MPS29 MZO26:MZO29 NJK26:NJK29 NTG26:NTG29 ODC26:ODC29 OMY26:OMY29 OWU26:OWU29 PGQ26:PGQ29 PQM26:PQM29 QAI26:QAI29 QKE26:QKE29 QUA26:QUA29 RDW26:RDW29 RNS26:RNS29 RXO26:RXO29 SHK26:SHK29 SRG26:SRG29 TBC26:TBC29 TKY26:TKY29 TUU26:TUU29 UEQ26:UEQ29 UOM26:UOM29 UYI26:UYI29 VIE26:VIE29 VSA26:VSA29 WBW26:WBW29 WLS26:WLS29 WVO26:WVO29 H65557 JD65557 SZ65557 ACV65557 AMR65557 AWN65557 BGJ65557 BQF65557 CAB65557 CJX65557 CTT65557 DDP65557 DNL65557 DXH65557 EHD65557 EQZ65557 FAV65557 FKR65557 FUN65557 GEJ65557 GOF65557 GYB65557 HHX65557 HRT65557 IBP65557 ILL65557 IVH65557 JFD65557 JOZ65557 JYV65557 KIR65557 KSN65557 LCJ65557 LMF65557 LWB65557 MFX65557 MPT65557 MZP65557 NJL65557 NTH65557 ODD65557 OMZ65557 OWV65557 PGR65557 PQN65557 QAJ65557 QKF65557 QUB65557 RDX65557 RNT65557 RXP65557 SHL65557 SRH65557 TBD65557 TKZ65557 TUV65557 UER65557 UON65557 UYJ65557 VIF65557 VSB65557 WBX65557 WLT65557 WVP65557 H131093 JD131093 SZ131093 ACV131093 AMR131093 AWN131093 BGJ131093 BQF131093 CAB131093 CJX131093 CTT131093 DDP131093 DNL131093 DXH131093 EHD131093 EQZ131093 FAV131093 FKR131093 FUN131093 GEJ131093 GOF131093 GYB131093 HHX131093 HRT131093 IBP131093 ILL131093 IVH131093 JFD131093 JOZ131093 JYV131093 KIR131093 KSN131093 LCJ131093 LMF131093 LWB131093 MFX131093 MPT131093 MZP131093 NJL131093 NTH131093 ODD131093 OMZ131093 OWV131093 PGR131093 PQN131093 QAJ131093 QKF131093 QUB131093 RDX131093 RNT131093 RXP131093 SHL131093 SRH131093 TBD131093 TKZ131093 TUV131093 UER131093 UON131093 UYJ131093 VIF131093 VSB131093 WBX131093 WLT131093 WVP131093 H196629 JD196629 SZ196629 ACV196629 AMR196629 AWN196629 BGJ196629 BQF196629 CAB196629 CJX196629 CTT196629 DDP196629 DNL196629 DXH196629 EHD196629 EQZ196629 FAV196629 FKR196629 FUN196629 GEJ196629 GOF196629 GYB196629 HHX196629 HRT196629 IBP196629 ILL196629 IVH196629 JFD196629 JOZ196629 JYV196629 KIR196629 KSN196629 LCJ196629 LMF196629 LWB196629 MFX196629 MPT196629 MZP196629 NJL196629 NTH196629 ODD196629 OMZ196629 OWV196629 PGR196629 PQN196629 QAJ196629 QKF196629 QUB196629 RDX196629 RNT196629 RXP196629 SHL196629 SRH196629 TBD196629 TKZ196629 TUV196629 UER196629 UON196629 UYJ196629 VIF196629 VSB196629 WBX196629 WLT196629 WVP196629 H262165 JD262165 SZ262165 ACV262165 AMR262165 AWN262165 BGJ262165 BQF262165 CAB262165 CJX262165 CTT262165 DDP262165 DNL262165 DXH262165 EHD262165 EQZ262165 FAV262165 FKR262165 FUN262165 GEJ262165 GOF262165 GYB262165 HHX262165 HRT262165 IBP262165 ILL262165 IVH262165 JFD262165 JOZ262165 JYV262165 KIR262165 KSN262165 LCJ262165 LMF262165 LWB262165 MFX262165 MPT262165 MZP262165 NJL262165 NTH262165 ODD262165 OMZ262165 OWV262165 PGR262165 PQN262165 QAJ262165 QKF262165 QUB262165 RDX262165 RNT262165 RXP262165 SHL262165 SRH262165 TBD262165 TKZ262165 TUV262165 UER262165 UON262165 UYJ262165 VIF262165 VSB262165 WBX262165 WLT262165 WVP262165 H327701 JD327701 SZ327701 ACV327701 AMR327701 AWN327701 BGJ327701 BQF327701 CAB327701 CJX327701 CTT327701 DDP327701 DNL327701 DXH327701 EHD327701 EQZ327701 FAV327701 FKR327701 FUN327701 GEJ327701 GOF327701 GYB327701 HHX327701 HRT327701 IBP327701 ILL327701 IVH327701 JFD327701 JOZ327701 JYV327701 KIR327701 KSN327701 LCJ327701 LMF327701 LWB327701 MFX327701 MPT327701 MZP327701 NJL327701 NTH327701 ODD327701 OMZ327701 OWV327701 PGR327701 PQN327701 QAJ327701 QKF327701 QUB327701 RDX327701 RNT327701 RXP327701 SHL327701 SRH327701 TBD327701 TKZ327701 TUV327701 UER327701 UON327701 UYJ327701 VIF327701 VSB327701 WBX327701 WLT327701 WVP327701 H393237 JD393237 SZ393237 ACV393237 AMR393237 AWN393237 BGJ393237 BQF393237 CAB393237 CJX393237 CTT393237 DDP393237 DNL393237 DXH393237 EHD393237 EQZ393237 FAV393237 FKR393237 FUN393237 GEJ393237 GOF393237 GYB393237 HHX393237 HRT393237 IBP393237 ILL393237 IVH393237 JFD393237 JOZ393237 JYV393237 KIR393237 KSN393237 LCJ393237 LMF393237 LWB393237 MFX393237 MPT393237 MZP393237 NJL393237 NTH393237 ODD393237 OMZ393237 OWV393237 PGR393237 PQN393237 QAJ393237 QKF393237 QUB393237 RDX393237 RNT393237 RXP393237 SHL393237 SRH393237 TBD393237 TKZ393237 TUV393237 UER393237 UON393237 UYJ393237 VIF393237 VSB393237 WBX393237 WLT393237 WVP393237 H458773 JD458773 SZ458773 ACV458773 AMR458773 AWN458773 BGJ458773 BQF458773 CAB458773 CJX458773 CTT458773 DDP458773 DNL458773 DXH458773 EHD458773 EQZ458773 FAV458773 FKR458773 FUN458773 GEJ458773 GOF458773 GYB458773 HHX458773 HRT458773 IBP458773 ILL458773 IVH458773 JFD458773 JOZ458773 JYV458773 KIR458773 KSN458773 LCJ458773 LMF458773 LWB458773 MFX458773 MPT458773 MZP458773 NJL458773 NTH458773 ODD458773 OMZ458773 OWV458773 PGR458773 PQN458773 QAJ458773 QKF458773 QUB458773 RDX458773 RNT458773 RXP458773 SHL458773 SRH458773 TBD458773 TKZ458773 TUV458773 UER458773 UON458773 UYJ458773 VIF458773 VSB458773 WBX458773 WLT458773 WVP458773 H524309 JD524309 SZ524309 ACV524309 AMR524309 AWN524309 BGJ524309 BQF524309 CAB524309 CJX524309 CTT524309 DDP524309 DNL524309 DXH524309 EHD524309 EQZ524309 FAV524309 FKR524309 FUN524309 GEJ524309 GOF524309 GYB524309 HHX524309 HRT524309 IBP524309 ILL524309 IVH524309 JFD524309 JOZ524309 JYV524309 KIR524309 KSN524309 LCJ524309 LMF524309 LWB524309 MFX524309 MPT524309 MZP524309 NJL524309 NTH524309 ODD524309 OMZ524309 OWV524309 PGR524309 PQN524309 QAJ524309 QKF524309 QUB524309 RDX524309 RNT524309 RXP524309 SHL524309 SRH524309 TBD524309 TKZ524309 TUV524309 UER524309 UON524309 UYJ524309 VIF524309 VSB524309 WBX524309 WLT524309 WVP524309 H589845 JD589845 SZ589845 ACV589845 AMR589845 AWN589845 BGJ589845 BQF589845 CAB589845 CJX589845 CTT589845 DDP589845 DNL589845 DXH589845 EHD589845 EQZ589845 FAV589845 FKR589845 FUN589845 GEJ589845 GOF589845 GYB589845 HHX589845 HRT589845 IBP589845 ILL589845 IVH589845 JFD589845 JOZ589845 JYV589845 KIR589845 KSN589845 LCJ589845 LMF589845 LWB589845 MFX589845 MPT589845 MZP589845 NJL589845 NTH589845 ODD589845 OMZ589845 OWV589845 PGR589845 PQN589845 QAJ589845 QKF589845 QUB589845 RDX589845 RNT589845 RXP589845 SHL589845 SRH589845 TBD589845 TKZ589845 TUV589845 UER589845 UON589845 UYJ589845 VIF589845 VSB589845 WBX589845 WLT589845 WVP589845 H655381 JD655381 SZ655381 ACV655381 AMR655381 AWN655381 BGJ655381 BQF655381 CAB655381 CJX655381 CTT655381 DDP655381 DNL655381 DXH655381 EHD655381 EQZ655381 FAV655381 FKR655381 FUN655381 GEJ655381 GOF655381 GYB655381 HHX655381 HRT655381 IBP655381 ILL655381 IVH655381 JFD655381 JOZ655381 JYV655381 KIR655381 KSN655381 LCJ655381 LMF655381 LWB655381 MFX655381 MPT655381 MZP655381 NJL655381 NTH655381 ODD655381 OMZ655381 OWV655381 PGR655381 PQN655381 QAJ655381 QKF655381 QUB655381 RDX655381 RNT655381 RXP655381 SHL655381 SRH655381 TBD655381 TKZ655381 TUV655381 UER655381 UON655381 UYJ655381 VIF655381 VSB655381 WBX655381 WLT655381 WVP655381 H720917 JD720917 SZ720917 ACV720917 AMR720917 AWN720917 BGJ720917 BQF720917 CAB720917 CJX720917 CTT720917 DDP720917 DNL720917 DXH720917 EHD720917 EQZ720917 FAV720917 FKR720917 FUN720917 GEJ720917 GOF720917 GYB720917 HHX720917 HRT720917 IBP720917 ILL720917 IVH720917 JFD720917 JOZ720917 JYV720917 KIR720917 KSN720917 LCJ720917 LMF720917 LWB720917 MFX720917 MPT720917 MZP720917 NJL720917 NTH720917 ODD720917 OMZ720917 OWV720917 PGR720917 PQN720917 QAJ720917 QKF720917 QUB720917 RDX720917 RNT720917 RXP720917 SHL720917 SRH720917 TBD720917 TKZ720917 TUV720917 UER720917 UON720917 UYJ720917 VIF720917 VSB720917 WBX720917 WLT720917 WVP720917 H786453 JD786453 SZ786453 ACV786453 AMR786453 AWN786453 BGJ786453 BQF786453 CAB786453 CJX786453 CTT786453 DDP786453 DNL786453 DXH786453 EHD786453 EQZ786453 FAV786453 FKR786453 FUN786453 GEJ786453 GOF786453 GYB786453 HHX786453 HRT786453 IBP786453 ILL786453 IVH786453 JFD786453 JOZ786453 JYV786453 KIR786453 KSN786453 LCJ786453 LMF786453 LWB786453 MFX786453 MPT786453 MZP786453 NJL786453 NTH786453 ODD786453 OMZ786453 OWV786453 PGR786453 PQN786453 QAJ786453 QKF786453 QUB786453 RDX786453 RNT786453 RXP786453 SHL786453 SRH786453 TBD786453 TKZ786453 TUV786453 UER786453 UON786453 UYJ786453 VIF786453 VSB786453 WBX786453 WLT786453 WVP786453 H851989 JD851989 SZ851989 ACV851989 AMR851989 AWN851989 BGJ851989 BQF851989 CAB851989 CJX851989 CTT851989 DDP851989 DNL851989 DXH851989 EHD851989 EQZ851989 FAV851989 FKR851989 FUN851989 GEJ851989 GOF851989 GYB851989 HHX851989 HRT851989 IBP851989 ILL851989 IVH851989 JFD851989 JOZ851989 JYV851989 KIR851989 KSN851989 LCJ851989 LMF851989 LWB851989 MFX851989 MPT851989 MZP851989 NJL851989 NTH851989 ODD851989 OMZ851989 OWV851989 PGR851989 PQN851989 QAJ851989 QKF851989 QUB851989 RDX851989 RNT851989 RXP851989 SHL851989 SRH851989 TBD851989 TKZ851989 TUV851989 UER851989 UON851989 UYJ851989 VIF851989 VSB851989 WBX851989 WLT851989 WVP851989 H917525 JD917525 SZ917525 ACV917525 AMR917525 AWN917525 BGJ917525 BQF917525 CAB917525 CJX917525 CTT917525 DDP917525 DNL917525 DXH917525 EHD917525 EQZ917525 FAV917525 FKR917525 FUN917525 GEJ917525 GOF917525 GYB917525 HHX917525 HRT917525 IBP917525 ILL917525 IVH917525 JFD917525 JOZ917525 JYV917525 KIR917525 KSN917525 LCJ917525 LMF917525 LWB917525 MFX917525 MPT917525 MZP917525 NJL917525 NTH917525 ODD917525 OMZ917525 OWV917525 PGR917525 PQN917525 QAJ917525 QKF917525 QUB917525 RDX917525 RNT917525 RXP917525 SHL917525 SRH917525 TBD917525 TKZ917525 TUV917525 UER917525 UON917525 UYJ917525 VIF917525 VSB917525 WBX917525 WLT917525 WVP917525 H983061 JD983061 SZ983061 ACV983061 AMR983061 AWN983061 BGJ983061 BQF983061 CAB983061 CJX983061 CTT983061 DDP983061 DNL983061 DXH983061 EHD983061 EQZ983061 FAV983061 FKR983061 FUN983061 GEJ983061 GOF983061 GYB983061 HHX983061 HRT983061 IBP983061 ILL983061 IVH983061 JFD983061 JOZ983061 JYV983061 KIR983061 KSN983061 LCJ983061 LMF983061 LWB983061 MFX983061 MPT983061 MZP983061 NJL983061 NTH983061 ODD983061 OMZ983061 OWV983061 PGR983061 PQN983061 QAJ983061 QKF983061 QUB983061 RDX983061 RNT983061 RXP983061 SHL983061 SRH983061 TBD983061 TKZ983061 TUV983061 UER983061 UON983061 UYJ983061 VIF983061 VSB983061 WBX983061 WLT983061 WVP983061 JC36:JC37 SY36:SY37 ACU36:ACU37 AMQ36:AMQ37 AWM36:AWM37 BGI36:BGI37 BQE36:BQE37 CAA36:CAA37 CJW36:CJW37 CTS36:CTS37 DDO36:DDO37 DNK36:DNK37 DXG36:DXG37 EHC36:EHC37 EQY36:EQY37 FAU36:FAU37 FKQ36:FKQ37 FUM36:FUM37 GEI36:GEI37 GOE36:GOE37 GYA36:GYA37 HHW36:HHW37 HRS36:HRS37 IBO36:IBO37 ILK36:ILK37 IVG36:IVG37 JFC36:JFC37 JOY36:JOY37 JYU36:JYU37 KIQ36:KIQ37 KSM36:KSM37 LCI36:LCI37 LME36:LME37 LWA36:LWA37 MFW36:MFW37 MPS36:MPS37 MZO36:MZO37 NJK36:NJK37 NTG36:NTG37 ODC36:ODC37 OMY36:OMY37 OWU36:OWU37 PGQ36:PGQ37 PQM36:PQM37 QAI36:QAI37 QKE36:QKE37 QUA36:QUA37 RDW36:RDW37 RNS36:RNS37 RXO36:RXO37 SHK36:SHK37 SRG36:SRG37 TBC36:TBC37 TKY36:TKY37 TUU36:TUU37 UEQ36:UEQ37 UOM36:UOM37 UYI36:UYI37 VIE36:VIE37 VSA36:VSA37 WBW36:WBW37 WLS36:WLS37 WVO36:WVO37 H65572:H65573 JD65572:JD65573 SZ65572:SZ65573 ACV65572:ACV65573 AMR65572:AMR65573 AWN65572:AWN65573 BGJ65572:BGJ65573 BQF65572:BQF65573 CAB65572:CAB65573 CJX65572:CJX65573 CTT65572:CTT65573 DDP65572:DDP65573 DNL65572:DNL65573 DXH65572:DXH65573 EHD65572:EHD65573 EQZ65572:EQZ65573 FAV65572:FAV65573 FKR65572:FKR65573 FUN65572:FUN65573 GEJ65572:GEJ65573 GOF65572:GOF65573 GYB65572:GYB65573 HHX65572:HHX65573 HRT65572:HRT65573 IBP65572:IBP65573 ILL65572:ILL65573 IVH65572:IVH65573 JFD65572:JFD65573 JOZ65572:JOZ65573 JYV65572:JYV65573 KIR65572:KIR65573 KSN65572:KSN65573 LCJ65572:LCJ65573 LMF65572:LMF65573 LWB65572:LWB65573 MFX65572:MFX65573 MPT65572:MPT65573 MZP65572:MZP65573 NJL65572:NJL65573 NTH65572:NTH65573 ODD65572:ODD65573 OMZ65572:OMZ65573 OWV65572:OWV65573 PGR65572:PGR65573 PQN65572:PQN65573 QAJ65572:QAJ65573 QKF65572:QKF65573 QUB65572:QUB65573 RDX65572:RDX65573 RNT65572:RNT65573 RXP65572:RXP65573 SHL65572:SHL65573 SRH65572:SRH65573 TBD65572:TBD65573 TKZ65572:TKZ65573 TUV65572:TUV65573 UER65572:UER65573 UON65572:UON65573 UYJ65572:UYJ65573 VIF65572:VIF65573 VSB65572:VSB65573 WBX65572:WBX65573 WLT65572:WLT65573 WVP65572:WVP65573 H131108:H131109 JD131108:JD131109 SZ131108:SZ131109 ACV131108:ACV131109 AMR131108:AMR131109 AWN131108:AWN131109 BGJ131108:BGJ131109 BQF131108:BQF131109 CAB131108:CAB131109 CJX131108:CJX131109 CTT131108:CTT131109 DDP131108:DDP131109 DNL131108:DNL131109 DXH131108:DXH131109 EHD131108:EHD131109 EQZ131108:EQZ131109 FAV131108:FAV131109 FKR131108:FKR131109 FUN131108:FUN131109 GEJ131108:GEJ131109 GOF131108:GOF131109 GYB131108:GYB131109 HHX131108:HHX131109 HRT131108:HRT131109 IBP131108:IBP131109 ILL131108:ILL131109 IVH131108:IVH131109 JFD131108:JFD131109 JOZ131108:JOZ131109 JYV131108:JYV131109 KIR131108:KIR131109 KSN131108:KSN131109 LCJ131108:LCJ131109 LMF131108:LMF131109 LWB131108:LWB131109 MFX131108:MFX131109 MPT131108:MPT131109 MZP131108:MZP131109 NJL131108:NJL131109 NTH131108:NTH131109 ODD131108:ODD131109 OMZ131108:OMZ131109 OWV131108:OWV131109 PGR131108:PGR131109 PQN131108:PQN131109 QAJ131108:QAJ131109 QKF131108:QKF131109 QUB131108:QUB131109 RDX131108:RDX131109 RNT131108:RNT131109 RXP131108:RXP131109 SHL131108:SHL131109 SRH131108:SRH131109 TBD131108:TBD131109 TKZ131108:TKZ131109 TUV131108:TUV131109 UER131108:UER131109 UON131108:UON131109 UYJ131108:UYJ131109 VIF131108:VIF131109 VSB131108:VSB131109 WBX131108:WBX131109 WLT131108:WLT131109 WVP131108:WVP131109 H196644:H196645 JD196644:JD196645 SZ196644:SZ196645 ACV196644:ACV196645 AMR196644:AMR196645 AWN196644:AWN196645 BGJ196644:BGJ196645 BQF196644:BQF196645 CAB196644:CAB196645 CJX196644:CJX196645 CTT196644:CTT196645 DDP196644:DDP196645 DNL196644:DNL196645 DXH196644:DXH196645 EHD196644:EHD196645 EQZ196644:EQZ196645 FAV196644:FAV196645 FKR196644:FKR196645 FUN196644:FUN196645 GEJ196644:GEJ196645 GOF196644:GOF196645 GYB196644:GYB196645 HHX196644:HHX196645 HRT196644:HRT196645 IBP196644:IBP196645 ILL196644:ILL196645 IVH196644:IVH196645 JFD196644:JFD196645 JOZ196644:JOZ196645 JYV196644:JYV196645 KIR196644:KIR196645 KSN196644:KSN196645 LCJ196644:LCJ196645 LMF196644:LMF196645 LWB196644:LWB196645 MFX196644:MFX196645 MPT196644:MPT196645 MZP196644:MZP196645 NJL196644:NJL196645 NTH196644:NTH196645 ODD196644:ODD196645 OMZ196644:OMZ196645 OWV196644:OWV196645 PGR196644:PGR196645 PQN196644:PQN196645 QAJ196644:QAJ196645 QKF196644:QKF196645 QUB196644:QUB196645 RDX196644:RDX196645 RNT196644:RNT196645 RXP196644:RXP196645 SHL196644:SHL196645 SRH196644:SRH196645 TBD196644:TBD196645 TKZ196644:TKZ196645 TUV196644:TUV196645 UER196644:UER196645 UON196644:UON196645 UYJ196644:UYJ196645 VIF196644:VIF196645 VSB196644:VSB196645 WBX196644:WBX196645 WLT196644:WLT196645 WVP196644:WVP196645 H262180:H262181 JD262180:JD262181 SZ262180:SZ262181 ACV262180:ACV262181 AMR262180:AMR262181 AWN262180:AWN262181 BGJ262180:BGJ262181 BQF262180:BQF262181 CAB262180:CAB262181 CJX262180:CJX262181 CTT262180:CTT262181 DDP262180:DDP262181 DNL262180:DNL262181 DXH262180:DXH262181 EHD262180:EHD262181 EQZ262180:EQZ262181 FAV262180:FAV262181 FKR262180:FKR262181 FUN262180:FUN262181 GEJ262180:GEJ262181 GOF262180:GOF262181 GYB262180:GYB262181 HHX262180:HHX262181 HRT262180:HRT262181 IBP262180:IBP262181 ILL262180:ILL262181 IVH262180:IVH262181 JFD262180:JFD262181 JOZ262180:JOZ262181 JYV262180:JYV262181 KIR262180:KIR262181 KSN262180:KSN262181 LCJ262180:LCJ262181 LMF262180:LMF262181 LWB262180:LWB262181 MFX262180:MFX262181 MPT262180:MPT262181 MZP262180:MZP262181 NJL262180:NJL262181 NTH262180:NTH262181 ODD262180:ODD262181 OMZ262180:OMZ262181 OWV262180:OWV262181 PGR262180:PGR262181 PQN262180:PQN262181 QAJ262180:QAJ262181 QKF262180:QKF262181 QUB262180:QUB262181 RDX262180:RDX262181 RNT262180:RNT262181 RXP262180:RXP262181 SHL262180:SHL262181 SRH262180:SRH262181 TBD262180:TBD262181 TKZ262180:TKZ262181 TUV262180:TUV262181 UER262180:UER262181 UON262180:UON262181 UYJ262180:UYJ262181 VIF262180:VIF262181 VSB262180:VSB262181 WBX262180:WBX262181 WLT262180:WLT262181 WVP262180:WVP262181 H327716:H327717 JD327716:JD327717 SZ327716:SZ327717 ACV327716:ACV327717 AMR327716:AMR327717 AWN327716:AWN327717 BGJ327716:BGJ327717 BQF327716:BQF327717 CAB327716:CAB327717 CJX327716:CJX327717 CTT327716:CTT327717 DDP327716:DDP327717 DNL327716:DNL327717 DXH327716:DXH327717 EHD327716:EHD327717 EQZ327716:EQZ327717 FAV327716:FAV327717 FKR327716:FKR327717 FUN327716:FUN327717 GEJ327716:GEJ327717 GOF327716:GOF327717 GYB327716:GYB327717 HHX327716:HHX327717 HRT327716:HRT327717 IBP327716:IBP327717 ILL327716:ILL327717 IVH327716:IVH327717 JFD327716:JFD327717 JOZ327716:JOZ327717 JYV327716:JYV327717 KIR327716:KIR327717 KSN327716:KSN327717 LCJ327716:LCJ327717 LMF327716:LMF327717 LWB327716:LWB327717 MFX327716:MFX327717 MPT327716:MPT327717 MZP327716:MZP327717 NJL327716:NJL327717 NTH327716:NTH327717 ODD327716:ODD327717 OMZ327716:OMZ327717 OWV327716:OWV327717 PGR327716:PGR327717 PQN327716:PQN327717 QAJ327716:QAJ327717 QKF327716:QKF327717 QUB327716:QUB327717 RDX327716:RDX327717 RNT327716:RNT327717 RXP327716:RXP327717 SHL327716:SHL327717 SRH327716:SRH327717 TBD327716:TBD327717 TKZ327716:TKZ327717 TUV327716:TUV327717 UER327716:UER327717 UON327716:UON327717 UYJ327716:UYJ327717 VIF327716:VIF327717 VSB327716:VSB327717 WBX327716:WBX327717 WLT327716:WLT327717 WVP327716:WVP327717 H393252:H393253 JD393252:JD393253 SZ393252:SZ393253 ACV393252:ACV393253 AMR393252:AMR393253 AWN393252:AWN393253 BGJ393252:BGJ393253 BQF393252:BQF393253 CAB393252:CAB393253 CJX393252:CJX393253 CTT393252:CTT393253 DDP393252:DDP393253 DNL393252:DNL393253 DXH393252:DXH393253 EHD393252:EHD393253 EQZ393252:EQZ393253 FAV393252:FAV393253 FKR393252:FKR393253 FUN393252:FUN393253 GEJ393252:GEJ393253 GOF393252:GOF393253 GYB393252:GYB393253 HHX393252:HHX393253 HRT393252:HRT393253 IBP393252:IBP393253 ILL393252:ILL393253 IVH393252:IVH393253 JFD393252:JFD393253 JOZ393252:JOZ393253 JYV393252:JYV393253 KIR393252:KIR393253 KSN393252:KSN393253 LCJ393252:LCJ393253 LMF393252:LMF393253 LWB393252:LWB393253 MFX393252:MFX393253 MPT393252:MPT393253 MZP393252:MZP393253 NJL393252:NJL393253 NTH393252:NTH393253 ODD393252:ODD393253 OMZ393252:OMZ393253 OWV393252:OWV393253 PGR393252:PGR393253 PQN393252:PQN393253 QAJ393252:QAJ393253 QKF393252:QKF393253 QUB393252:QUB393253 RDX393252:RDX393253 RNT393252:RNT393253 RXP393252:RXP393253 SHL393252:SHL393253 SRH393252:SRH393253 TBD393252:TBD393253 TKZ393252:TKZ393253 TUV393252:TUV393253 UER393252:UER393253 UON393252:UON393253 UYJ393252:UYJ393253 VIF393252:VIF393253 VSB393252:VSB393253 WBX393252:WBX393253 WLT393252:WLT393253 WVP393252:WVP393253 H458788:H458789 JD458788:JD458789 SZ458788:SZ458789 ACV458788:ACV458789 AMR458788:AMR458789 AWN458788:AWN458789 BGJ458788:BGJ458789 BQF458788:BQF458789 CAB458788:CAB458789 CJX458788:CJX458789 CTT458788:CTT458789 DDP458788:DDP458789 DNL458788:DNL458789 DXH458788:DXH458789 EHD458788:EHD458789 EQZ458788:EQZ458789 FAV458788:FAV458789 FKR458788:FKR458789 FUN458788:FUN458789 GEJ458788:GEJ458789 GOF458788:GOF458789 GYB458788:GYB458789 HHX458788:HHX458789 HRT458788:HRT458789 IBP458788:IBP458789 ILL458788:ILL458789 IVH458788:IVH458789 JFD458788:JFD458789 JOZ458788:JOZ458789 JYV458788:JYV458789 KIR458788:KIR458789 KSN458788:KSN458789 LCJ458788:LCJ458789 LMF458788:LMF458789 LWB458788:LWB458789 MFX458788:MFX458789 MPT458788:MPT458789 MZP458788:MZP458789 NJL458788:NJL458789 NTH458788:NTH458789 ODD458788:ODD458789 OMZ458788:OMZ458789 OWV458788:OWV458789 PGR458788:PGR458789 PQN458788:PQN458789 QAJ458788:QAJ458789 QKF458788:QKF458789 QUB458788:QUB458789 RDX458788:RDX458789 RNT458788:RNT458789 RXP458788:RXP458789 SHL458788:SHL458789 SRH458788:SRH458789 TBD458788:TBD458789 TKZ458788:TKZ458789 TUV458788:TUV458789 UER458788:UER458789 UON458788:UON458789 UYJ458788:UYJ458789 VIF458788:VIF458789 VSB458788:VSB458789 WBX458788:WBX458789 WLT458788:WLT458789 WVP458788:WVP458789 H524324:H524325 JD524324:JD524325 SZ524324:SZ524325 ACV524324:ACV524325 AMR524324:AMR524325 AWN524324:AWN524325 BGJ524324:BGJ524325 BQF524324:BQF524325 CAB524324:CAB524325 CJX524324:CJX524325 CTT524324:CTT524325 DDP524324:DDP524325 DNL524324:DNL524325 DXH524324:DXH524325 EHD524324:EHD524325 EQZ524324:EQZ524325 FAV524324:FAV524325 FKR524324:FKR524325 FUN524324:FUN524325 GEJ524324:GEJ524325 GOF524324:GOF524325 GYB524324:GYB524325 HHX524324:HHX524325 HRT524324:HRT524325 IBP524324:IBP524325 ILL524324:ILL524325 IVH524324:IVH524325 JFD524324:JFD524325 JOZ524324:JOZ524325 JYV524324:JYV524325 KIR524324:KIR524325 KSN524324:KSN524325 LCJ524324:LCJ524325 LMF524324:LMF524325 LWB524324:LWB524325 MFX524324:MFX524325 MPT524324:MPT524325 MZP524324:MZP524325 NJL524324:NJL524325 NTH524324:NTH524325 ODD524324:ODD524325 OMZ524324:OMZ524325 OWV524324:OWV524325 PGR524324:PGR524325 PQN524324:PQN524325 QAJ524324:QAJ524325 QKF524324:QKF524325 QUB524324:QUB524325 RDX524324:RDX524325 RNT524324:RNT524325 RXP524324:RXP524325 SHL524324:SHL524325 SRH524324:SRH524325 TBD524324:TBD524325 TKZ524324:TKZ524325 TUV524324:TUV524325 UER524324:UER524325 UON524324:UON524325 UYJ524324:UYJ524325 VIF524324:VIF524325 VSB524324:VSB524325 WBX524324:WBX524325 WLT524324:WLT524325 WVP524324:WVP524325 H589860:H589861 JD589860:JD589861 SZ589860:SZ589861 ACV589860:ACV589861 AMR589860:AMR589861 AWN589860:AWN589861 BGJ589860:BGJ589861 BQF589860:BQF589861 CAB589860:CAB589861 CJX589860:CJX589861 CTT589860:CTT589861 DDP589860:DDP589861 DNL589860:DNL589861 DXH589860:DXH589861 EHD589860:EHD589861 EQZ589860:EQZ589861 FAV589860:FAV589861 FKR589860:FKR589861 FUN589860:FUN589861 GEJ589860:GEJ589861 GOF589860:GOF589861 GYB589860:GYB589861 HHX589860:HHX589861 HRT589860:HRT589861 IBP589860:IBP589861 ILL589860:ILL589861 IVH589860:IVH589861 JFD589860:JFD589861 JOZ589860:JOZ589861 JYV589860:JYV589861 KIR589860:KIR589861 KSN589860:KSN589861 LCJ589860:LCJ589861 LMF589860:LMF589861 LWB589860:LWB589861 MFX589860:MFX589861 MPT589860:MPT589861 MZP589860:MZP589861 NJL589860:NJL589861 NTH589860:NTH589861 ODD589860:ODD589861 OMZ589860:OMZ589861 OWV589860:OWV589861 PGR589860:PGR589861 PQN589860:PQN589861 QAJ589860:QAJ589861 QKF589860:QKF589861 QUB589860:QUB589861 RDX589860:RDX589861 RNT589860:RNT589861 RXP589860:RXP589861 SHL589860:SHL589861 SRH589860:SRH589861 TBD589860:TBD589861 TKZ589860:TKZ589861 TUV589860:TUV589861 UER589860:UER589861 UON589860:UON589861 UYJ589860:UYJ589861 VIF589860:VIF589861 VSB589860:VSB589861 WBX589860:WBX589861 WLT589860:WLT589861 WVP589860:WVP589861 H655396:H655397 JD655396:JD655397 SZ655396:SZ655397 ACV655396:ACV655397 AMR655396:AMR655397 AWN655396:AWN655397 BGJ655396:BGJ655397 BQF655396:BQF655397 CAB655396:CAB655397 CJX655396:CJX655397 CTT655396:CTT655397 DDP655396:DDP655397 DNL655396:DNL655397 DXH655396:DXH655397 EHD655396:EHD655397 EQZ655396:EQZ655397 FAV655396:FAV655397 FKR655396:FKR655397 FUN655396:FUN655397 GEJ655396:GEJ655397 GOF655396:GOF655397 GYB655396:GYB655397 HHX655396:HHX655397 HRT655396:HRT655397 IBP655396:IBP655397 ILL655396:ILL655397 IVH655396:IVH655397 JFD655396:JFD655397 JOZ655396:JOZ655397 JYV655396:JYV655397 KIR655396:KIR655397 KSN655396:KSN655397 LCJ655396:LCJ655397 LMF655396:LMF655397 LWB655396:LWB655397 MFX655396:MFX655397 MPT655396:MPT655397 MZP655396:MZP655397 NJL655396:NJL655397 NTH655396:NTH655397 ODD655396:ODD655397 OMZ655396:OMZ655397 OWV655396:OWV655397 PGR655396:PGR655397 PQN655396:PQN655397 QAJ655396:QAJ655397 QKF655396:QKF655397 QUB655396:QUB655397 RDX655396:RDX655397 RNT655396:RNT655397 RXP655396:RXP655397 SHL655396:SHL655397 SRH655396:SRH655397 TBD655396:TBD655397 TKZ655396:TKZ655397 TUV655396:TUV655397 UER655396:UER655397 UON655396:UON655397 UYJ655396:UYJ655397 VIF655396:VIF655397 VSB655396:VSB655397 WBX655396:WBX655397 WLT655396:WLT655397 WVP655396:WVP655397 H720932:H720933 JD720932:JD720933 SZ720932:SZ720933 ACV720932:ACV720933 AMR720932:AMR720933 AWN720932:AWN720933 BGJ720932:BGJ720933 BQF720932:BQF720933 CAB720932:CAB720933 CJX720932:CJX720933 CTT720932:CTT720933 DDP720932:DDP720933 DNL720932:DNL720933 DXH720932:DXH720933 EHD720932:EHD720933 EQZ720932:EQZ720933 FAV720932:FAV720933 FKR720932:FKR720933 FUN720932:FUN720933 GEJ720932:GEJ720933 GOF720932:GOF720933 GYB720932:GYB720933 HHX720932:HHX720933 HRT720932:HRT720933 IBP720932:IBP720933 ILL720932:ILL720933 IVH720932:IVH720933 JFD720932:JFD720933 JOZ720932:JOZ720933 JYV720932:JYV720933 KIR720932:KIR720933 KSN720932:KSN720933 LCJ720932:LCJ720933 LMF720932:LMF720933 LWB720932:LWB720933 MFX720932:MFX720933 MPT720932:MPT720933 MZP720932:MZP720933 NJL720932:NJL720933 NTH720932:NTH720933 ODD720932:ODD720933 OMZ720932:OMZ720933 OWV720932:OWV720933 PGR720932:PGR720933 PQN720932:PQN720933 QAJ720932:QAJ720933 QKF720932:QKF720933 QUB720932:QUB720933 RDX720932:RDX720933 RNT720932:RNT720933 RXP720932:RXP720933 SHL720932:SHL720933 SRH720932:SRH720933 TBD720932:TBD720933 TKZ720932:TKZ720933 TUV720932:TUV720933 UER720932:UER720933 UON720932:UON720933 UYJ720932:UYJ720933 VIF720932:VIF720933 VSB720932:VSB720933 WBX720932:WBX720933 WLT720932:WLT720933 WVP720932:WVP720933 H786468:H786469 JD786468:JD786469 SZ786468:SZ786469 ACV786468:ACV786469 AMR786468:AMR786469 AWN786468:AWN786469 BGJ786468:BGJ786469 BQF786468:BQF786469 CAB786468:CAB786469 CJX786468:CJX786469 CTT786468:CTT786469 DDP786468:DDP786469 DNL786468:DNL786469 DXH786468:DXH786469 EHD786468:EHD786469 EQZ786468:EQZ786469 FAV786468:FAV786469 FKR786468:FKR786469 FUN786468:FUN786469 GEJ786468:GEJ786469 GOF786468:GOF786469 GYB786468:GYB786469 HHX786468:HHX786469 HRT786468:HRT786469 IBP786468:IBP786469 ILL786468:ILL786469 IVH786468:IVH786469 JFD786468:JFD786469 JOZ786468:JOZ786469 JYV786468:JYV786469 KIR786468:KIR786469 KSN786468:KSN786469 LCJ786468:LCJ786469 LMF786468:LMF786469 LWB786468:LWB786469 MFX786468:MFX786469 MPT786468:MPT786469 MZP786468:MZP786469 NJL786468:NJL786469 NTH786468:NTH786469 ODD786468:ODD786469 OMZ786468:OMZ786469 OWV786468:OWV786469 PGR786468:PGR786469 PQN786468:PQN786469 QAJ786468:QAJ786469 QKF786468:QKF786469 QUB786468:QUB786469 RDX786468:RDX786469 RNT786468:RNT786469 RXP786468:RXP786469 SHL786468:SHL786469 SRH786468:SRH786469 TBD786468:TBD786469 TKZ786468:TKZ786469 TUV786468:TUV786469 UER786468:UER786469 UON786468:UON786469 UYJ786468:UYJ786469 VIF786468:VIF786469 VSB786468:VSB786469 WBX786468:WBX786469 WLT786468:WLT786469 WVP786468:WVP786469 H852004:H852005 JD852004:JD852005 SZ852004:SZ852005 ACV852004:ACV852005 AMR852004:AMR852005 AWN852004:AWN852005 BGJ852004:BGJ852005 BQF852004:BQF852005 CAB852004:CAB852005 CJX852004:CJX852005 CTT852004:CTT852005 DDP852004:DDP852005 DNL852004:DNL852005 DXH852004:DXH852005 EHD852004:EHD852005 EQZ852004:EQZ852005 FAV852004:FAV852005 FKR852004:FKR852005 FUN852004:FUN852005 GEJ852004:GEJ852005 GOF852004:GOF852005 GYB852004:GYB852005 HHX852004:HHX852005 HRT852004:HRT852005 IBP852004:IBP852005 ILL852004:ILL852005 IVH852004:IVH852005 JFD852004:JFD852005 JOZ852004:JOZ852005 JYV852004:JYV852005 KIR852004:KIR852005 KSN852004:KSN852005 LCJ852004:LCJ852005 LMF852004:LMF852005 LWB852004:LWB852005 MFX852004:MFX852005 MPT852004:MPT852005 MZP852004:MZP852005 NJL852004:NJL852005 NTH852004:NTH852005 ODD852004:ODD852005 OMZ852004:OMZ852005 OWV852004:OWV852005 PGR852004:PGR852005 PQN852004:PQN852005 QAJ852004:QAJ852005 QKF852004:QKF852005 QUB852004:QUB852005 RDX852004:RDX852005 RNT852004:RNT852005 RXP852004:RXP852005 SHL852004:SHL852005 SRH852004:SRH852005 TBD852004:TBD852005 TKZ852004:TKZ852005 TUV852004:TUV852005 UER852004:UER852005 UON852004:UON852005 UYJ852004:UYJ852005 VIF852004:VIF852005 VSB852004:VSB852005 WBX852004:WBX852005 WLT852004:WLT852005 WVP852004:WVP852005 H917540:H917541 JD917540:JD917541 SZ917540:SZ917541 ACV917540:ACV917541 AMR917540:AMR917541 AWN917540:AWN917541 BGJ917540:BGJ917541 BQF917540:BQF917541 CAB917540:CAB917541 CJX917540:CJX917541 CTT917540:CTT917541 DDP917540:DDP917541 DNL917540:DNL917541 DXH917540:DXH917541 EHD917540:EHD917541 EQZ917540:EQZ917541 FAV917540:FAV917541 FKR917540:FKR917541 FUN917540:FUN917541 GEJ917540:GEJ917541 GOF917540:GOF917541 GYB917540:GYB917541 HHX917540:HHX917541 HRT917540:HRT917541 IBP917540:IBP917541 ILL917540:ILL917541 IVH917540:IVH917541 JFD917540:JFD917541 JOZ917540:JOZ917541 JYV917540:JYV917541 KIR917540:KIR917541 KSN917540:KSN917541 LCJ917540:LCJ917541 LMF917540:LMF917541 LWB917540:LWB917541 MFX917540:MFX917541 MPT917540:MPT917541 MZP917540:MZP917541 NJL917540:NJL917541 NTH917540:NTH917541 ODD917540:ODD917541 OMZ917540:OMZ917541 OWV917540:OWV917541 PGR917540:PGR917541 PQN917540:PQN917541 QAJ917540:QAJ917541 QKF917540:QKF917541 QUB917540:QUB917541 RDX917540:RDX917541 RNT917540:RNT917541 RXP917540:RXP917541 SHL917540:SHL917541 SRH917540:SRH917541 TBD917540:TBD917541 TKZ917540:TKZ917541 TUV917540:TUV917541 UER917540:UER917541 UON917540:UON917541 UYJ917540:UYJ917541 VIF917540:VIF917541 VSB917540:VSB917541 WBX917540:WBX917541 WLT917540:WLT917541 WVP917540:WVP917541 H983076:H983077 JD983076:JD983077 SZ983076:SZ983077 ACV983076:ACV983077 AMR983076:AMR983077 AWN983076:AWN983077 BGJ983076:BGJ983077 BQF983076:BQF983077 CAB983076:CAB983077 CJX983076:CJX983077 CTT983076:CTT983077 DDP983076:DDP983077 DNL983076:DNL983077 DXH983076:DXH983077 EHD983076:EHD983077 EQZ983076:EQZ983077 FAV983076:FAV983077 FKR983076:FKR983077 FUN983076:FUN983077 GEJ983076:GEJ983077 GOF983076:GOF983077 GYB983076:GYB983077 HHX983076:HHX983077 HRT983076:HRT983077 IBP983076:IBP983077 ILL983076:ILL983077 IVH983076:IVH983077 JFD983076:JFD983077 JOZ983076:JOZ983077 JYV983076:JYV983077 KIR983076:KIR983077 KSN983076:KSN983077 LCJ983076:LCJ983077 LMF983076:LMF983077 LWB983076:LWB983077 MFX983076:MFX983077 MPT983076:MPT983077 MZP983076:MZP983077 NJL983076:NJL983077 NTH983076:NTH983077 ODD983076:ODD983077 OMZ983076:OMZ983077 OWV983076:OWV983077 PGR983076:PGR983077 PQN983076:PQN983077 QAJ983076:QAJ983077 QKF983076:QKF983077 QUB983076:QUB983077 RDX983076:RDX983077 RNT983076:RNT983077 RXP983076:RXP983077 SHL983076:SHL983077 SRH983076:SRH983077 TBD983076:TBD983077 TKZ983076:TKZ983077 TUV983076:TUV983077 UER983076:UER983077 UON983076:UON983077 UYJ983076:UYJ983077 VIF983076:VIF983077 VSB983076:VSB983077 WBX983076:WBX983077 WLT983076:WLT983077 G26:G29 G41" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -11045,16 +11045,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="212" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" s="31" t="s">
@@ -11118,10 +11118,10 @@
       <c r="D7" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="253" t="s">
+      <c r="E7" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="254"/>
+      <c r="F7" s="258"/>
       <c r="G7" s="63" t="s">
         <v>62</v>
       </c>
@@ -11143,7 +11143,7 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1">
-      <c r="B9" s="269" t="s">
+      <c r="B9" s="273" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="59" t="s">
@@ -11166,7 +11166,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B10" s="270"/>
+      <c r="B10" s="274"/>
       <c r="C10" s="59" t="s">
         <v>300</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B11" s="270"/>
+      <c r="B11" s="274"/>
       <c r="C11" s="59" t="s">
         <v>302</v>
       </c>
@@ -11208,7 +11208,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B12" s="270"/>
+      <c r="B12" s="274"/>
       <c r="C12" s="59" t="s">
         <v>304</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B13" s="270"/>
+      <c r="B13" s="274"/>
       <c r="C13" s="59" t="s">
         <v>306</v>
       </c>
@@ -11250,7 +11250,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B14" s="270"/>
+      <c r="B14" s="274"/>
       <c r="C14" s="59" t="s">
         <v>308</v>
       </c>
@@ -11271,7 +11271,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B15" s="270"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="59" t="s">
         <v>310</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1">
-      <c r="B16" s="270"/>
+      <c r="B16" s="274"/>
       <c r="C16" s="59" t="s">
         <v>312</v>
       </c>
@@ -11313,7 +11313,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B17" s="270"/>
+      <c r="B17" s="274"/>
       <c r="C17" s="59" t="s">
         <v>314</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B18" s="270"/>
+      <c r="B18" s="274"/>
       <c r="C18" s="59" t="s">
         <v>316</v>
       </c>
@@ -11355,7 +11355,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="26.4">
-      <c r="B19" s="270"/>
+      <c r="B19" s="274"/>
       <c r="C19" s="59" t="s">
         <v>318</v>
       </c>
@@ -11376,7 +11376,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="26.4">
-      <c r="B20" s="270"/>
+      <c r="B20" s="274"/>
       <c r="C20" s="59" t="s">
         <v>320</v>
       </c>
@@ -11425,15 +11425,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.2">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="212" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" thickBot="1">
       <c r="B2" s="4"/>
@@ -11453,10 +11453,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="288" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="291" t="s">
         <v>327</v>
       </c>
       <c r="C4" s="73" t="s">
@@ -11467,8 +11467,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A5" s="272"/>
-      <c r="B5" s="275"/>
+      <c r="A5" s="289"/>
+      <c r="B5" s="292"/>
       <c r="C5" s="75" t="s">
         <v>330</v>
       </c>
@@ -11477,8 +11477,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A6" s="272"/>
-      <c r="B6" s="275"/>
+      <c r="A6" s="289"/>
+      <c r="B6" s="292"/>
       <c r="C6" s="75" t="s">
         <v>332</v>
       </c>
@@ -11487,8 +11487,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="272"/>
-      <c r="B7" s="275"/>
+      <c r="A7" s="289"/>
+      <c r="B7" s="292"/>
       <c r="C7" s="75" t="s">
         <v>334</v>
       </c>
@@ -11497,8 +11497,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="272"/>
-      <c r="B8" s="275"/>
+      <c r="A8" s="289"/>
+      <c r="B8" s="292"/>
       <c r="C8" s="75" t="s">
         <v>336</v>
       </c>
@@ -11507,8 +11507,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="272"/>
-      <c r="B9" s="275"/>
+      <c r="A9" s="289"/>
+      <c r="B9" s="292"/>
       <c r="C9" s="75" t="s">
         <v>338</v>
       </c>
@@ -11517,8 +11517,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A10" s="273"/>
-      <c r="B10" s="276"/>
+      <c r="A10" s="290"/>
+      <c r="B10" s="293"/>
       <c r="C10" s="77" t="s">
         <v>340</v>
       </c>
@@ -11527,10 +11527,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="275" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="277" t="s">
+      <c r="B11" s="275" t="s">
         <v>343</v>
       </c>
       <c r="C11" s="79" t="s">
@@ -11541,8 +11541,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="278"/>
-      <c r="B12" s="278"/>
+      <c r="A12" s="276"/>
+      <c r="B12" s="276"/>
       <c r="C12" s="81" t="s">
         <v>346</v>
       </c>
@@ -11551,8 +11551,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="278"/>
-      <c r="B13" s="278"/>
+      <c r="A13" s="276"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="81" t="s">
         <v>348</v>
       </c>
@@ -11561,8 +11561,8 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="278"/>
-      <c r="B14" s="278"/>
+      <c r="A14" s="276"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="81" t="s">
         <v>350</v>
       </c>
@@ -11571,8 +11571,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="278"/>
-      <c r="B15" s="278"/>
+      <c r="A15" s="276"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="81" t="s">
         <v>352</v>
       </c>
@@ -11581,8 +11581,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="278"/>
-      <c r="B16" s="278"/>
+      <c r="A16" s="276"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="81" t="s">
         <v>354</v>
       </c>
@@ -11591,8 +11591,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="278"/>
-      <c r="B17" s="278"/>
+      <c r="A17" s="276"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="81" t="s">
         <v>356</v>
       </c>
@@ -11601,8 +11601,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="278"/>
-      <c r="B18" s="278"/>
+      <c r="A18" s="276"/>
+      <c r="B18" s="276"/>
       <c r="C18" s="81" t="s">
         <v>358</v>
       </c>
@@ -11611,8 +11611,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="278"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="276"/>
+      <c r="B19" s="276"/>
       <c r="C19" s="81" t="s">
         <v>360</v>
       </c>
@@ -11621,8 +11621,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A20" s="278"/>
-      <c r="B20" s="278"/>
+      <c r="A20" s="276"/>
+      <c r="B20" s="276"/>
       <c r="C20" s="81" t="s">
         <v>362</v>
       </c>
@@ -11631,8 +11631,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="278"/>
-      <c r="B21" s="278"/>
+      <c r="A21" s="276"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="81" t="s">
         <v>364</v>
       </c>
@@ -11641,8 +11641,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A22" s="278"/>
-      <c r="B22" s="278"/>
+      <c r="A22" s="276"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="81" t="s">
         <v>366</v>
       </c>
@@ -11651,8 +11651,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A23" s="279"/>
-      <c r="B23" s="279"/>
+      <c r="A23" s="277"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="83" t="s">
         <v>368</v>
       </c>
@@ -11661,10 +11661,10 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="280" t="s">
+      <c r="A24" s="278" t="s">
         <v>370</v>
       </c>
-      <c r="B24" s="280" t="s">
+      <c r="B24" s="278" t="s">
         <v>371</v>
       </c>
       <c r="C24" s="73" t="s">
@@ -11675,8 +11675,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="281"/>
-      <c r="B25" s="281"/>
+      <c r="A25" s="279"/>
+      <c r="B25" s="279"/>
       <c r="C25" s="75" t="s">
         <v>374</v>
       </c>
@@ -11685,24 +11685,24 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="281"/>
-      <c r="B26" s="281"/>
-      <c r="C26" s="283" t="s">
+      <c r="A26" s="279"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="281" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="283" t="s">
+      <c r="D26" s="281" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="281"/>
-      <c r="B27" s="281"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
+      <c r="A27" s="279"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="281"/>
-      <c r="B28" s="281"/>
+      <c r="A28" s="279"/>
+      <c r="B28" s="279"/>
       <c r="C28" s="75" t="s">
         <v>378</v>
       </c>
@@ -11711,8 +11711,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A29" s="282"/>
-      <c r="B29" s="282"/>
+      <c r="A29" s="280"/>
+      <c r="B29" s="280"/>
       <c r="C29" s="77" t="s">
         <v>358</v>
       </c>
@@ -11721,10 +11721,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A30" s="284" t="s">
+      <c r="A30" s="282" t="s">
         <v>381</v>
       </c>
-      <c r="B30" s="287" t="s">
+      <c r="B30" s="285" t="s">
         <v>382</v>
       </c>
       <c r="C30" s="85" t="s">
@@ -11735,8 +11735,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="285"/>
-      <c r="B31" s="288"/>
+      <c r="A31" s="283"/>
+      <c r="B31" s="286"/>
       <c r="C31" s="43" t="s">
         <v>385</v>
       </c>
@@ -11745,8 +11745,8 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="285"/>
-      <c r="B32" s="288"/>
+      <c r="A32" s="283"/>
+      <c r="B32" s="286"/>
       <c r="C32" s="43" t="s">
         <v>387</v>
       </c>
@@ -11755,8 +11755,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A33" s="286"/>
-      <c r="B33" s="289"/>
+      <c r="A33" s="284"/>
+      <c r="B33" s="287"/>
       <c r="C33" s="88" t="s">
         <v>389</v>
       </c>
@@ -11765,10 +11765,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A34" s="280" t="s">
+      <c r="A34" s="278" t="s">
         <v>391</v>
       </c>
-      <c r="B34" s="280" t="s">
+      <c r="B34" s="278" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="90" t="s">
@@ -11779,8 +11779,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="281"/>
-      <c r="B35" s="281"/>
+      <c r="A35" s="279"/>
+      <c r="B35" s="279"/>
       <c r="C35" s="92" t="s">
         <v>394</v>
       </c>
@@ -11789,8 +11789,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="281"/>
-      <c r="B36" s="281"/>
+      <c r="A36" s="279"/>
+      <c r="B36" s="279"/>
       <c r="C36" s="92" t="s">
         <v>396</v>
       </c>
@@ -11799,8 +11799,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="281"/>
-      <c r="B37" s="281"/>
+      <c r="A37" s="279"/>
+      <c r="B37" s="279"/>
       <c r="C37" s="92" t="s">
         <v>364</v>
       </c>
@@ -11809,8 +11809,8 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="281"/>
-      <c r="B38" s="281"/>
+      <c r="A38" s="279"/>
+      <c r="B38" s="279"/>
       <c r="C38" s="92" t="s">
         <v>399</v>
       </c>
@@ -11819,8 +11819,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="281"/>
-      <c r="B39" s="281"/>
+      <c r="A39" s="279"/>
+      <c r="B39" s="279"/>
       <c r="C39" s="92" t="s">
         <v>401</v>
       </c>
@@ -11829,8 +11829,8 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="281"/>
-      <c r="B40" s="281"/>
+      <c r="A40" s="279"/>
+      <c r="B40" s="279"/>
       <c r="C40" s="92" t="s">
         <v>403</v>
       </c>
@@ -11839,8 +11839,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A41" s="282"/>
-      <c r="B41" s="282"/>
+      <c r="A41" s="280"/>
+      <c r="B41" s="280"/>
       <c r="C41" s="94" t="s">
         <v>405</v>
       </c>
@@ -11849,10 +11849,10 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="275" t="s">
         <v>407</v>
       </c>
-      <c r="B42" s="277" t="s">
+      <c r="B42" s="275" t="s">
         <v>408</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -11863,8 +11863,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="278"/>
-      <c r="B43" s="278"/>
+      <c r="A43" s="276"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="97" t="s">
         <v>411</v>
       </c>
@@ -11873,8 +11873,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A44" s="279"/>
-      <c r="B44" s="279"/>
+      <c r="A44" s="277"/>
+      <c r="B44" s="277"/>
       <c r="C44" s="98" t="s">
         <v>413</v>
       </c>
@@ -11883,10 +11883,10 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="280" t="s">
+      <c r="A45" s="278" t="s">
         <v>415</v>
       </c>
-      <c r="B45" s="280" t="s">
+      <c r="B45" s="278" t="s">
         <v>416</v>
       </c>
       <c r="C45" s="90" t="s">
@@ -11897,8 +11897,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="281"/>
-      <c r="B46" s="281"/>
+      <c r="A46" s="279"/>
+      <c r="B46" s="279"/>
       <c r="C46" s="92" t="s">
         <v>419</v>
       </c>
@@ -11907,8 +11907,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="281"/>
-      <c r="B47" s="281"/>
+      <c r="A47" s="279"/>
+      <c r="B47" s="279"/>
       <c r="C47" s="92" t="s">
         <v>421</v>
       </c>
@@ -11917,8 +11917,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A48" s="282"/>
-      <c r="B48" s="282"/>
+      <c r="A48" s="280"/>
+      <c r="B48" s="280"/>
       <c r="C48" s="99" t="s">
         <v>423</v>
       </c>
@@ -11927,10 +11927,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="275" t="s">
         <v>425</v>
       </c>
-      <c r="B49" s="277" t="s">
+      <c r="B49" s="275" t="s">
         <v>426</v>
       </c>
       <c r="C49" s="96" t="s">
@@ -11941,8 +11941,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A50" s="278"/>
-      <c r="B50" s="278"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="276"/>
       <c r="C50" s="97" t="s">
         <v>429</v>
       </c>
@@ -11951,8 +11951,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A51" s="278"/>
-      <c r="B51" s="278"/>
+      <c r="A51" s="276"/>
+      <c r="B51" s="276"/>
       <c r="C51" s="97" t="s">
         <v>430</v>
       </c>
@@ -11961,8 +11961,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A52" s="278"/>
-      <c r="B52" s="278"/>
+      <c r="A52" s="276"/>
+      <c r="B52" s="276"/>
       <c r="C52" s="97" t="s">
         <v>431</v>
       </c>
@@ -11971,8 +11971,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.8" thickBot="1">
-      <c r="A53" s="279"/>
-      <c r="B53" s="279"/>
+      <c r="A53" s="277"/>
+      <c r="B53" s="277"/>
       <c r="C53" s="98" t="s">
         <v>432</v>
       </c>
@@ -12000,6 +12000,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="A34:A41"/>
@@ -12008,17 +12019,6 @@
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="B11:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
